--- a/carriers_source_analyses/bio_kerosene.carrier.xlsx
+++ b/carriers_source_analyses/bio_kerosene.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-7620" windowWidth="25600" windowHeight="28320" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="24020" yWindow="1120" windowWidth="25600" windowHeight="26920" tabRatio="762" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -335,12 +335,6 @@
     <t>VAT</t>
   </si>
   <si>
-    <t>Excise rate</t>
-  </si>
-  <si>
-    <t>VAT rate</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
   </si>
   <si>
     <t>EUR/L (inc tax)</t>
-  </si>
-  <si>
-    <t>Oher indirect tax</t>
   </si>
   <si>
     <t>Price</t>
@@ -703,28 +694,39 @@
   <si>
     <t>http://refman.et-model.com/publications/65</t>
   </si>
+  <si>
+    <t>Other taxes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -864,6 +866,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,6 +874,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,6 +882,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,6 +890,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,17 +898,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,11 +925,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -950,6 +961,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -977,44 +989,52 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1061,8 +1081,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,8 +1203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1538,792 +1576,822 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="38" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="37" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="44" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="46" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="53" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="40" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="173" fontId="56" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="362" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="18" xfId="362" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="52" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="39" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2686,6 +2754,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="362" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3778,7 +3847,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,7 +3856,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3935,7 +4004,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="176">
         <v>42227</v>
@@ -3943,17 +4012,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="175" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="175" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="175" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4038,7 @@
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -3995,30 +4064,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="212" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
+      <c r="B2" s="231" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="217"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="236"/>
     </row>
     <row r="4" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="218"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
@@ -4111,13 +4180,13 @@
       </c>
       <c r="E11" s="180">
         <f>'Research data'!G7</f>
-        <v>2.2674409380560496E-2</v>
+        <v>2.7637281163587279E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="130"/>
       <c r="H11" s="32"/>
       <c r="I11" s="179" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -4136,8 +4205,8 @@
       <c r="F12" s="37"/>
       <c r="G12" s="130"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="226" t="s">
-        <v>133</v>
+      <c r="I12" s="212" t="s">
+        <v>130</v>
       </c>
       <c r="J12" s="46"/>
     </row>
@@ -4155,7 +4224,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="190" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="191" t="s">
@@ -4166,7 +4235,7 @@
     <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="192" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>50</v>
@@ -4177,11 +4246,11 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="190" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="191" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J14" s="46"/>
     </row>
@@ -4257,27 +4326,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="221"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="240"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="222"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="223"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="244"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4343,7 +4412,7 @@
     <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
       <c r="C10" s="189" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
@@ -4521,7 +4590,7 @@
     <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="189" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="130"/>
@@ -4776,7 +4845,7 @@
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -4784,10 +4853,10 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
@@ -4879,7 +4948,7 @@
       </c>
       <c r="G7" s="178">
         <f>O7</f>
-        <v>2.2674409380560496E-2</v>
+        <v>2.7637281163587279E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4890,12 +4959,12 @@
       <c r="N7" s="18"/>
       <c r="O7" s="199">
         <f>Notes!F409</f>
-        <v>2.2674409380560496E-2</v>
+        <v>2.7637281163587279E-2</v>
       </c>
       <c r="P7" s="177"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="228" t="s">
-        <v>142</v>
+      <c r="R7" s="214" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4929,8 +4998,8 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="228" t="s">
-        <v>141</v>
+      <c r="R8" s="214" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4965,7 +5034,7 @@
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="193" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>39</v>
@@ -4993,8 +5062,8 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="228" t="s">
-        <v>143</v>
+      <c r="R10" s="214" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5028,8 +5097,8 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="228" t="s">
-        <v>142</v>
+      <c r="R11" s="214" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -5074,8 +5143,8 @@
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
-      <c r="C14" s="231" t="s">
-        <v>140</v>
+      <c r="C14" s="217" t="s">
+        <v>137</v>
       </c>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
@@ -5091,7 +5160,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="228" t="s">
+      <c r="R14" s="214" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5518,23 +5587,23 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
       <c r="C8" s="194" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="195" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="195"/>
       <c r="G8" s="57" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
       <c r="K8" s="207" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L8" s="72"/>
     </row>
@@ -5572,7 +5641,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L10" s="72"/>
     </row>
@@ -5697,10 +5766,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AB409"/>
+  <dimension ref="A1:AB414"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="F409" sqref="F409"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5709,7 +5778,7 @@
     <col min="2" max="2" width="5" style="124" customWidth="1"/>
     <col min="3" max="5" width="7" style="124"/>
     <col min="6" max="6" width="10.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="124"/>
+    <col min="7" max="7" width="13.83203125" style="124" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="124" customWidth="1"/>
     <col min="9" max="16384" width="7" style="124"/>
   </cols>
@@ -5768,7 +5837,7 @@
     <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="125"/>
       <c r="C4" s="211" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" s="138"/>
       <c r="E4" s="138"/>
@@ -5821,8 +5890,8 @@
     </row>
     <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125"/>
-      <c r="C6" s="227" t="s">
-        <v>135</v>
+      <c r="C6" s="213" t="s">
+        <v>132</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -5849,8 +5918,8 @@
     </row>
     <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125"/>
-      <c r="C7" s="227" t="s">
-        <v>134</v>
+      <c r="C7" s="213" t="s">
+        <v>131</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -5957,7 +6026,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="G11" s="211" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="140"/>
       <c r="I11" s="138"/>
@@ -6823,7 +6892,7 @@
     <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" s="125"/>
       <c r="E73" s="152" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.2">
@@ -7463,10 +7532,10 @@
         <v>85</v>
       </c>
       <c r="J131" s="183" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K131" s="171" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L131" s="138"/>
       <c r="M131" s="138"/>
@@ -7737,7 +7806,7 @@
       <c r="B139" s="163"/>
       <c r="C139" s="138"/>
       <c r="D139" s="141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E139" s="138"/>
       <c r="F139" s="173"/>
@@ -7780,7 +7849,7 @@
         <v>21</v>
       </c>
       <c r="G140" s="138" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H140" s="169">
         <v>42345</v>
@@ -7852,7 +7921,7 @@
       <c r="B142" s="163"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E142" s="162" t="s">
         <v>87</v>
@@ -7925,7 +7994,7 @@
       <c r="B144" s="163"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E144" s="162" t="s">
         <v>87</v>
@@ -7935,7 +8004,7 @@
         <v>1.4225655399999999</v>
       </c>
       <c r="G144" s="138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H144" s="169">
         <v>42317</v>
@@ -8599,7 +8668,7 @@
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B170" s="163"/>
       <c r="C170" s="197" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D170" s="198"/>
       <c r="E170" s="198"/>
@@ -9243,10 +9312,10 @@
         <v>79600</v>
       </c>
       <c r="I195" s="204" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J195" s="206" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K195" s="203"/>
       <c r="L195" s="203"/>
@@ -9267,7 +9336,7 @@
         <v>1000000</v>
       </c>
       <c r="I196" s="204" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J196" s="203"/>
       <c r="K196" s="203"/>
@@ -9289,7 +9358,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="I197" s="204" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J197" s="203"/>
       <c r="K197" s="203"/>
@@ -9392,7 +9461,7 @@
       <c r="F203" s="203"/>
       <c r="G203" s="203"/>
       <c r="H203" s="208" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I203" s="203"/>
       <c r="J203" s="203"/>
@@ -9431,7 +9500,7 @@
         <v>27.4</v>
       </c>
       <c r="I205" s="208" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J205" s="203"/>
       <c r="K205" s="203"/>
@@ -9453,7 +9522,7 @@
         <v>1000000</v>
       </c>
       <c r="I206" s="208" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J206" s="203"/>
       <c r="K206" s="203"/>
@@ -9475,7 +9544,7 @@
         <v>1000000</v>
       </c>
       <c r="I207" s="208" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J207" s="203"/>
       <c r="K207" s="203"/>
@@ -9666,7 +9735,7 @@
     </row>
     <row r="248" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C248" s="138" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D248" s="138"/>
       <c r="E248" s="138"/>
@@ -9752,8 +9821,8 @@
     </row>
     <row r="256" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C256" s="138"/>
-      <c r="D256" s="232" t="s">
-        <v>145</v>
+      <c r="D256" s="218" t="s">
+        <v>142</v>
       </c>
       <c r="E256" s="138"/>
       <c r="F256" s="138"/>
@@ -9884,7 +9953,7 @@
     </row>
     <row r="269" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C269" s="138"/>
-      <c r="D269" s="229"/>
+      <c r="D269" s="215"/>
       <c r="E269" s="138"/>
       <c r="F269" s="138"/>
       <c r="G269" s="138"/>
@@ -9937,37 +10006,37 @@
     <row r="274" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C274" s="138"/>
       <c r="D274" s="138"/>
-      <c r="E274" s="229"/>
-      <c r="F274" s="229"/>
-      <c r="G274" s="229"/>
-      <c r="H274" s="229"/>
-      <c r="I274" s="229"/>
-      <c r="J274" s="229"/>
+      <c r="E274" s="215"/>
+      <c r="F274" s="215"/>
+      <c r="G274" s="215"/>
+      <c r="H274" s="215"/>
+      <c r="I274" s="215"/>
+      <c r="J274" s="215"/>
     </row>
     <row r="275" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C275" s="138"/>
       <c r="D275" s="138"/>
       <c r="E275" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="F275" s="229"/>
-      <c r="G275" s="229"/>
-      <c r="H275" s="229"/>
-      <c r="I275" s="229"/>
-      <c r="J275" s="229"/>
+        <v>143</v>
+      </c>
+      <c r="F275" s="215"/>
+      <c r="G275" s="215"/>
+      <c r="H275" s="215"/>
+      <c r="I275" s="215"/>
+      <c r="J275" s="215"/>
     </row>
     <row r="276" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C276" s="138"/>
       <c r="D276" s="138"/>
-      <c r="E276" s="229"/>
-      <c r="F276" s="233">
+      <c r="E276" s="215"/>
+      <c r="F276" s="219">
         <v>1600</v>
       </c>
       <c r="G276" s="138" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H276" s="138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
@@ -9976,38 +10045,38 @@
       <c r="C277" s="138"/>
       <c r="D277" s="138"/>
       <c r="E277" s="138" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F277" s="138">
         <v>4.5</v>
       </c>
       <c r="G277" s="138" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H277" s="138" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I277" s="138">
         <v>1485</v>
       </c>
       <c r="J277" s="138" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="278" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C278" s="138"/>
       <c r="D278" s="138"/>
       <c r="E278" s="138" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F278" s="138">
         <v>3.25</v>
       </c>
       <c r="G278" s="138" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H278" s="138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I278"/>
       <c r="J278"/>
@@ -10031,7 +10100,7 @@
         <v>160000</v>
       </c>
       <c r="G280" s="138" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H280" s="138"/>
       <c r="I280"/>
@@ -10041,7 +10110,7 @@
       <c r="C281" s="138"/>
       <c r="D281" s="138"/>
       <c r="E281" s="138"/>
-      <c r="F281" s="234">
+      <c r="F281" s="220">
         <f>F280*F300</f>
         <v>5767200</v>
       </c>
@@ -10089,36 +10158,36 @@
       <c r="AB291" s="26"/>
     </row>
     <row r="292" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B292" s="235"/>
-      <c r="C292" s="236"/>
-      <c r="D292" s="236"/>
-      <c r="E292" s="236"/>
-      <c r="F292" s="236"/>
-      <c r="G292" s="236"/>
-      <c r="H292" s="236"/>
-      <c r="I292" s="236"/>
-      <c r="J292" s="236"/>
-      <c r="K292" s="236"/>
-      <c r="L292" s="236"/>
-      <c r="M292" s="236"/>
-      <c r="N292" s="236"/>
-      <c r="O292" s="236"/>
-      <c r="P292" s="236"/>
-      <c r="Q292" s="236"/>
-      <c r="R292" s="236"/>
-      <c r="S292" s="236"/>
-      <c r="T292" s="236"/>
-      <c r="U292" s="236"/>
-      <c r="V292" s="229"/>
-      <c r="W292" s="229"/>
-      <c r="X292" s="229"/>
-      <c r="Y292" s="229"/>
-      <c r="Z292" s="229"/>
-      <c r="AA292" s="229"/>
-      <c r="AB292" s="229"/>
+      <c r="B292" s="221"/>
+      <c r="C292" s="222"/>
+      <c r="D292" s="222"/>
+      <c r="E292" s="222"/>
+      <c r="F292" s="222"/>
+      <c r="G292" s="222"/>
+      <c r="H292" s="222"/>
+      <c r="I292" s="222"/>
+      <c r="J292" s="222"/>
+      <c r="K292" s="222"/>
+      <c r="L292" s="222"/>
+      <c r="M292" s="222"/>
+      <c r="N292" s="222"/>
+      <c r="O292" s="222"/>
+      <c r="P292" s="222"/>
+      <c r="Q292" s="222"/>
+      <c r="R292" s="222"/>
+      <c r="S292" s="222"/>
+      <c r="T292" s="222"/>
+      <c r="U292" s="222"/>
+      <c r="V292" s="215"/>
+      <c r="W292" s="215"/>
+      <c r="X292" s="215"/>
+      <c r="Y292" s="215"/>
+      <c r="Z292" s="215"/>
+      <c r="AA292" s="215"/>
+      <c r="AB292" s="215"/>
     </row>
     <row r="293" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B293" s="235"/>
+      <c r="B293" s="221"/>
       <c r="C293" s="138" t="s">
         <v>62</v>
       </c>
@@ -10149,7 +10218,7 @@
       <c r="AB293"/>
     </row>
     <row r="294" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B294" s="235"/>
+      <c r="B294" s="221"/>
       <c r="C294" s="138"/>
       <c r="D294" s="138"/>
       <c r="E294" s="138"/>
@@ -10178,7 +10247,7 @@
       <c r="AB294"/>
     </row>
     <row r="295" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B295" s="235"/>
+      <c r="B295" s="221"/>
       <c r="C295" s="138"/>
       <c r="D295" s="138"/>
       <c r="E295" s="138"/>
@@ -10207,7 +10276,7 @@
       <c r="AB295"/>
     </row>
     <row r="296" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B296" s="235"/>
+      <c r="B296" s="221"/>
       <c r="C296" s="138"/>
       <c r="D296" s="138"/>
       <c r="E296" s="138"/>
@@ -10236,20 +10305,20 @@
       <c r="AB296"/>
     </row>
     <row r="297" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B297" s="235"/>
+      <c r="B297" s="221"/>
       <c r="C297" s="138"/>
       <c r="D297" s="138" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E297"/>
       <c r="F297" s="138">
         <v>890</v>
       </c>
       <c r="G297" s="139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H297" s="140" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I297" s="138"/>
       <c r="J297" s="138"/>
@@ -10273,7 +10342,7 @@
       <c r="AB297"/>
     </row>
     <row r="298" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B298" s="235"/>
+      <c r="B298" s="221"/>
       <c r="C298" s="138"/>
       <c r="D298" s="138"/>
       <c r="E298"/>
@@ -10281,10 +10350,10 @@
         <v>40.5</v>
       </c>
       <c r="G298" s="138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H298" s="140" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I298" s="138"/>
       <c r="J298" s="138"/>
@@ -10308,7 +10377,7 @@
       <c r="AB298"/>
     </row>
     <row r="299" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B299" s="235"/>
+      <c r="B299" s="221"/>
       <c r="C299" s="138"/>
       <c r="D299" s="138"/>
       <c r="E299"/>
@@ -10317,10 +10386,10 @@
         <v>0.89</v>
       </c>
       <c r="G299" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H299" s="140" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I299" s="138"/>
       <c r="J299" s="138"/>
@@ -10344,7 +10413,7 @@
       <c r="AB299"/>
     </row>
     <row r="300" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B300" s="235"/>
+      <c r="B300" s="221"/>
       <c r="C300" s="138"/>
       <c r="D300" s="138"/>
       <c r="E300"/>
@@ -10356,7 +10425,7 @@
         <v>63</v>
       </c>
       <c r="H300" s="140" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I300" s="138"/>
       <c r="J300" s="138"/>
@@ -10380,7 +10449,7 @@
       <c r="AB300"/>
     </row>
     <row r="301" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B301" s="235"/>
+      <c r="B301" s="221"/>
       <c r="C301" s="138"/>
       <c r="D301" s="138"/>
       <c r="E301" s="138"/>
@@ -10409,7 +10478,7 @@
       <c r="AB301"/>
     </row>
     <row r="302" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B302" s="235"/>
+      <c r="B302" s="221"/>
       <c r="C302" s="138"/>
       <c r="D302" s="138"/>
       <c r="E302" s="138"/>
@@ -10438,7 +10507,7 @@
       <c r="AB302"/>
     </row>
     <row r="303" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B303" s="235"/>
+      <c r="B303" s="221"/>
       <c r="C303" s="138"/>
       <c r="D303" s="138"/>
       <c r="E303" s="138"/>
@@ -10467,7 +10536,7 @@
       <c r="AB303"/>
     </row>
     <row r="304" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B304" s="235"/>
+      <c r="B304" s="221"/>
       <c r="C304" s="138"/>
       <c r="D304" s="138"/>
       <c r="E304" s="138"/>
@@ -10496,7 +10565,7 @@
       <c r="AB304"/>
     </row>
     <row r="305" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B305" s="235"/>
+      <c r="B305" s="221"/>
       <c r="C305" s="138"/>
       <c r="D305" s="138"/>
       <c r="E305" s="138"/>
@@ -10525,7 +10594,7 @@
       <c r="AB305"/>
     </row>
     <row r="306" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B306" s="235"/>
+      <c r="B306" s="221"/>
       <c r="C306" s="138"/>
       <c r="D306" s="138"/>
       <c r="E306" s="138"/>
@@ -10554,7 +10623,7 @@
       <c r="AB306"/>
     </row>
     <row r="307" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B307" s="235"/>
+      <c r="B307" s="221"/>
       <c r="C307" s="138"/>
       <c r="D307" s="138"/>
       <c r="E307" s="138"/>
@@ -10583,7 +10652,7 @@
       <c r="AB307"/>
     </row>
     <row r="308" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B308" s="235"/>
+      <c r="B308" s="221"/>
       <c r="C308" s="138"/>
       <c r="D308" s="138"/>
       <c r="E308" s="138"/>
@@ -10612,7 +10681,7 @@
       <c r="AB308"/>
     </row>
     <row r="309" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B309" s="235"/>
+      <c r="B309" s="221"/>
       <c r="C309" s="138"/>
       <c r="D309" s="138"/>
       <c r="E309" s="138"/>
@@ -10641,7 +10710,7 @@
       <c r="AB309"/>
     </row>
     <row r="310" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B310" s="235"/>
+      <c r="B310" s="221"/>
       <c r="C310" s="138"/>
       <c r="D310" s="138"/>
       <c r="E310" s="138"/>
@@ -10670,7 +10739,7 @@
       <c r="AB310"/>
     </row>
     <row r="311" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B311" s="235"/>
+      <c r="B311" s="221"/>
       <c r="C311" s="138"/>
       <c r="D311" s="138"/>
       <c r="E311" s="138"/>
@@ -10699,7 +10768,7 @@
       <c r="AB311"/>
     </row>
     <row r="312" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B312" s="235"/>
+      <c r="B312" s="221"/>
       <c r="C312" s="138"/>
       <c r="D312" s="138"/>
       <c r="E312" s="138"/>
@@ -10728,7 +10797,7 @@
       <c r="AB312"/>
     </row>
     <row r="313" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B313" s="235"/>
+      <c r="B313" s="221"/>
       <c r="C313" s="138"/>
       <c r="D313" s="138"/>
       <c r="E313" s="138"/>
@@ -10757,7 +10826,7 @@
       <c r="AB313"/>
     </row>
     <row r="314" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B314" s="235"/>
+      <c r="B314" s="221"/>
       <c r="C314" s="138"/>
       <c r="D314" s="138"/>
       <c r="E314" s="138"/>
@@ -10786,7 +10855,7 @@
       <c r="AB314"/>
     </row>
     <row r="315" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B315" s="235"/>
+      <c r="B315" s="221"/>
       <c r="C315" s="138"/>
       <c r="D315" s="138"/>
       <c r="E315" s="138"/>
@@ -10815,7 +10884,7 @@
       <c r="AB315"/>
     </row>
     <row r="316" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B316" s="235"/>
+      <c r="B316" s="221"/>
       <c r="C316" s="138"/>
       <c r="D316" s="138"/>
       <c r="E316" s="138"/>
@@ -10844,7 +10913,7 @@
       <c r="AB316"/>
     </row>
     <row r="317" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B317" s="235"/>
+      <c r="B317" s="221"/>
       <c r="C317" s="138"/>
       <c r="D317" s="138"/>
       <c r="E317" s="138"/>
@@ -10873,7 +10942,7 @@
       <c r="AB317"/>
     </row>
     <row r="318" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B318" s="235"/>
+      <c r="B318" s="221"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
@@ -10902,7 +10971,7 @@
       <c r="AB318"/>
     </row>
     <row r="319" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B319" s="235"/>
+      <c r="B319" s="221"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
@@ -10931,7 +11000,7 @@
       <c r="AB319"/>
     </row>
     <row r="320" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B320" s="235"/>
+      <c r="B320" s="221"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
@@ -10960,7 +11029,7 @@
       <c r="AB320"/>
     </row>
     <row r="321" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B321" s="235"/>
+      <c r="B321" s="221"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
@@ -10989,7 +11058,7 @@
       <c r="AB321"/>
     </row>
     <row r="322" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B322" s="235"/>
+      <c r="B322" s="221"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
@@ -11018,7 +11087,7 @@
       <c r="AB322"/>
     </row>
     <row r="323" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B323" s="235"/>
+      <c r="B323" s="221"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
@@ -11047,7 +11116,7 @@
       <c r="AB323"/>
     </row>
     <row r="324" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B324" s="235"/>
+      <c r="B324" s="221"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
@@ -11076,7 +11145,7 @@
       <c r="AB324"/>
     </row>
     <row r="325" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B325" s="235"/>
+      <c r="B325" s="221"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
@@ -11105,7 +11174,7 @@
       <c r="AB325"/>
     </row>
     <row r="326" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B326" s="235"/>
+      <c r="B326" s="221"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
@@ -11134,7 +11203,7 @@
       <c r="AB326"/>
     </row>
     <row r="327" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B327" s="235"/>
+      <c r="B327" s="221"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
@@ -11163,7 +11232,7 @@
       <c r="AB327"/>
     </row>
     <row r="328" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B328" s="235"/>
+      <c r="B328" s="221"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
@@ -11192,7 +11261,7 @@
       <c r="AB328"/>
     </row>
     <row r="329" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B329" s="235"/>
+      <c r="B329" s="221"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
@@ -11221,7 +11290,7 @@
       <c r="AB329"/>
     </row>
     <row r="330" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B330" s="235"/>
+      <c r="B330" s="221"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
@@ -11250,7 +11319,7 @@
       <c r="AB330"/>
     </row>
     <row r="331" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B331" s="235"/>
+      <c r="B331" s="221"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
@@ -11279,7 +11348,7 @@
       <c r="AB331"/>
     </row>
     <row r="332" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B332" s="235"/>
+      <c r="B332" s="221"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
@@ -11308,7 +11377,7 @@
       <c r="AB332"/>
     </row>
     <row r="333" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B333" s="235"/>
+      <c r="B333" s="221"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
@@ -11337,7 +11406,7 @@
       <c r="AB333"/>
     </row>
     <row r="334" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B334" s="235"/>
+      <c r="B334" s="221"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
@@ -11366,7 +11435,7 @@
       <c r="AB334"/>
     </row>
     <row r="335" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B335" s="235"/>
+      <c r="B335" s="221"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
@@ -11395,7 +11464,7 @@
       <c r="AB335"/>
     </row>
     <row r="336" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B336" s="235"/>
+      <c r="B336" s="221"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
@@ -11424,7 +11493,7 @@
       <c r="AB336"/>
     </row>
     <row r="337" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B337" s="235"/>
+      <c r="B337" s="221"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
@@ -11453,7 +11522,7 @@
       <c r="AB337"/>
     </row>
     <row r="338" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B338" s="235"/>
+      <c r="B338" s="221"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
@@ -11482,7 +11551,7 @@
       <c r="AB338"/>
     </row>
     <row r="339" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B339" s="235"/>
+      <c r="B339" s="221"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
@@ -11511,7 +11580,7 @@
       <c r="AB339"/>
     </row>
     <row r="340" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B340" s="235"/>
+      <c r="B340" s="221"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
@@ -11540,7 +11609,7 @@
       <c r="AB340"/>
     </row>
     <row r="341" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B341" s="235"/>
+      <c r="B341" s="221"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
@@ -11569,7 +11638,7 @@
       <c r="AB341"/>
     </row>
     <row r="342" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B342" s="235"/>
+      <c r="B342" s="221"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
@@ -11598,7 +11667,7 @@
       <c r="AB342"/>
     </row>
     <row r="343" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B343" s="235"/>
+      <c r="B343" s="221"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
@@ -11627,7 +11696,7 @@
       <c r="AB343"/>
     </row>
     <row r="344" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B344" s="235"/>
+      <c r="B344" s="221"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
@@ -11656,7 +11725,7 @@
       <c r="AB344"/>
     </row>
     <row r="345" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B345" s="235"/>
+      <c r="B345" s="221"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
@@ -11685,7 +11754,7 @@
       <c r="AB345"/>
     </row>
     <row r="346" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B346" s="235"/>
+      <c r="B346" s="221"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
@@ -11714,7 +11783,7 @@
       <c r="AB346"/>
     </row>
     <row r="347" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="235"/>
+      <c r="B347" s="221"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
@@ -11770,7 +11839,7 @@
       <c r="T348" s="128"/>
     </row>
     <row r="349" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B349" s="235"/>
+      <c r="B349" s="221"/>
       <c r="C349" s="143"/>
       <c r="D349" s="138"/>
       <c r="E349" s="138"/>
@@ -11895,11 +11964,11 @@
       <c r="I354" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="J354" s="237" t="s">
-        <v>165</v>
+      <c r="J354" s="223" t="s">
+        <v>162</v>
       </c>
       <c r="K354" s="171" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L354" s="138"/>
       <c r="M354" s="138"/>
@@ -11922,7 +11991,7 @@
       <c r="G355" s="138"/>
       <c r="H355" s="166"/>
       <c r="I355" s="167"/>
-      <c r="J355" s="238" t="s">
+      <c r="J355" s="224" t="s">
         <v>86</v>
       </c>
       <c r="K355" s="172" t="s">
@@ -11943,26 +12012,24 @@
       <c r="C356" s="138"/>
       <c r="D356" s="138"/>
       <c r="E356" s="162" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F356" s="168">
         <f>AVERAGE(J356:J360)</f>
-        <v>371.00199999999995</v>
+        <v>545.58600000000001</v>
       </c>
       <c r="G356" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="H356" s="169">
-        <v>42408</v>
-      </c>
-      <c r="I356" s="185">
-        <v>1</v>
-      </c>
-      <c r="J356" s="239">
-        <v>371.99</v>
-      </c>
-      <c r="K356" s="187">
-        <v>1046</v>
+      <c r="H356" s="245">
+        <v>43059</v>
+      </c>
+      <c r="I356" s="167"/>
+      <c r="J356" s="246">
+        <v>550.71</v>
+      </c>
+      <c r="K356" s="247">
+        <v>1264</v>
       </c>
       <c r="L356" s="138"/>
       <c r="M356" s="138"/>
@@ -11974,31 +12041,29 @@
       <c r="S356" s="138"/>
       <c r="T356" s="138"/>
     </row>
-    <row r="357" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B357" s="163"/>
       <c r="C357" s="138"/>
       <c r="D357" s="138"/>
       <c r="E357" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="F357" s="170">
+        <v>164</v>
+      </c>
+      <c r="F357" s="138">
         <f>F356/1000</f>
-        <v>0.37100199999999994</v>
+        <v>0.54558600000000002</v>
       </c>
       <c r="G357" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="H357" s="169">
-        <v>42401</v>
-      </c>
-      <c r="I357" s="185">
-        <v>1</v>
-      </c>
-      <c r="J357" s="240">
-        <v>362.08</v>
-      </c>
-      <c r="K357" s="188">
-        <v>1034</v>
+      <c r="H357" s="245">
+        <v>43052</v>
+      </c>
+      <c r="I357" s="167"/>
+      <c r="J357" s="246">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="K357" s="247">
+        <v>1275</v>
       </c>
       <c r="L357" s="138"/>
       <c r="M357" s="138"/>
@@ -12017,17 +12082,15 @@
       <c r="E358" s="138"/>
       <c r="F358" s="138"/>
       <c r="G358" s="138"/>
-      <c r="H358" s="169">
-        <v>42394</v>
-      </c>
-      <c r="I358" s="185">
-        <v>1</v>
-      </c>
-      <c r="J358" s="240">
-        <v>355.46</v>
-      </c>
-      <c r="K358" s="188">
-        <v>1026</v>
+      <c r="H358" s="245">
+        <v>43045</v>
+      </c>
+      <c r="I358" s="167"/>
+      <c r="J358" s="246">
+        <v>550.71</v>
+      </c>
+      <c r="K358" s="247">
+        <v>1264</v>
       </c>
       <c r="L358" s="138"/>
       <c r="M358" s="138"/>
@@ -12046,26 +12109,24 @@
         <v>91</v>
       </c>
       <c r="E359" s="162" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F359" s="168">
         <f>AVERAGE(K356:K360)</f>
-        <v>1044.8</v>
+        <v>1257.8</v>
       </c>
       <c r="G359" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="H359" s="169">
-        <v>42387</v>
-      </c>
-      <c r="I359" s="185">
-        <v>1</v>
-      </c>
-      <c r="J359" s="240">
-        <v>373.65</v>
-      </c>
-      <c r="K359" s="188">
-        <v>1048</v>
+      <c r="H359" s="245">
+        <v>43038</v>
+      </c>
+      <c r="I359" s="167"/>
+      <c r="J359" s="246">
+        <v>535.01</v>
+      </c>
+      <c r="K359" s="247">
+        <v>1245</v>
       </c>
       <c r="L359" s="138"/>
       <c r="M359" s="138"/>
@@ -12077,31 +12138,29 @@
       <c r="S359" s="138"/>
       <c r="T359" s="138"/>
     </row>
-    <row r="360" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B360" s="163"/>
       <c r="C360" s="138"/>
       <c r="D360" s="138"/>
       <c r="E360" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="F360" s="170">
+        <v>164</v>
+      </c>
+      <c r="F360" s="138">
         <f>F359/1000</f>
-        <v>1.0448</v>
+        <v>1.2578</v>
       </c>
       <c r="G360" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="H360" s="169">
-        <v>42380</v>
-      </c>
-      <c r="I360" s="185">
-        <v>1</v>
-      </c>
-      <c r="J360" s="240">
-        <v>391.83</v>
-      </c>
-      <c r="K360" s="188">
-        <v>1070</v>
+      <c r="H360" s="245">
+        <v>43031</v>
+      </c>
+      <c r="I360" s="167"/>
+      <c r="J360" s="246">
+        <v>531.70000000000005</v>
+      </c>
+      <c r="K360" s="247">
+        <v>1241</v>
       </c>
       <c r="L360" s="138"/>
       <c r="M360" s="138"/>
@@ -12121,16 +12180,16 @@
       <c r="F361" s="138"/>
       <c r="G361" s="138"/>
       <c r="H361" s="169">
-        <v>42373</v>
+        <v>42408</v>
       </c>
       <c r="I361" s="185">
         <v>1</v>
       </c>
-      <c r="J361" s="240">
-        <v>391.83</v>
-      </c>
-      <c r="K361" s="188">
-        <v>1070</v>
+      <c r="J361" s="225">
+        <v>371.99</v>
+      </c>
+      <c r="K361" s="187">
+        <v>1046</v>
       </c>
       <c r="L361" s="138"/>
       <c r="M361" s="138"/>
@@ -12142,26 +12201,26 @@
       <c r="S361" s="138"/>
       <c r="T361" s="138"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B362" s="163"/>
       <c r="C362" s="138"/>
       <c r="D362" s="141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E362" s="138"/>
       <c r="F362" s="173"/>
       <c r="G362" s="138"/>
       <c r="H362" s="169">
-        <v>42352</v>
+        <v>42401</v>
       </c>
       <c r="I362" s="185">
         <v>1</v>
       </c>
-      <c r="J362" s="240">
-        <v>444.65</v>
+      <c r="J362" s="226">
+        <v>362.08</v>
       </c>
       <c r="K362" s="188">
-        <v>1131</v>
+        <v>1034</v>
       </c>
       <c r="L362" s="138"/>
       <c r="M362" s="138"/>
@@ -12173,32 +12232,32 @@
       <c r="S362" s="138"/>
       <c r="T362" s="138"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B363" s="163"/>
       <c r="C363" s="138"/>
       <c r="D363" s="138" t="s">
         <v>93</v>
       </c>
       <c r="E363" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="F363" s="138">
-        <v>21</v>
+        <v>164</v>
+      </c>
+      <c r="F363" s="249">
+        <v>0.21</v>
       </c>
       <c r="G363" s="138" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H363" s="169">
-        <v>42345</v>
+        <v>42394</v>
       </c>
       <c r="I363" s="185">
         <v>1</v>
       </c>
-      <c r="J363" s="240">
-        <v>467.79</v>
+      <c r="J363" s="226">
+        <v>355.46</v>
       </c>
       <c r="K363" s="188">
-        <v>1159</v>
+        <v>1026</v>
       </c>
       <c r="L363" s="138"/>
       <c r="M363" s="138"/>
@@ -12214,29 +12273,29 @@
       <c r="B364" s="163"/>
       <c r="C364" s="138"/>
       <c r="D364" s="138" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="E364" s="162" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F364" s="138">
-        <f>482.06/1000</f>
-        <v>0.48205999999999999</v>
+        <f>F360/(1+F363)-F357</f>
+        <v>0.4939181322314049</v>
       </c>
       <c r="G364" s="138" t="s">
         <v>89</v>
       </c>
       <c r="H364" s="169">
-        <v>42338</v>
+        <v>42387</v>
       </c>
       <c r="I364" s="185">
         <v>1</v>
       </c>
-      <c r="J364" s="240">
-        <v>486.8</v>
+      <c r="J364" s="226">
+        <v>373.65</v>
       </c>
       <c r="K364" s="188">
-        <v>1182</v>
+        <v>1048</v>
       </c>
       <c r="L364" s="138"/>
       <c r="M364" s="138"/>
@@ -12251,30 +12310,21 @@
     <row r="365" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B365" s="163"/>
       <c r="C365" s="138"/>
-      <c r="D365" s="138" t="s">
-        <v>97</v>
-      </c>
-      <c r="E365" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="F365" s="173">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G365" s="138" t="s">
-        <v>89</v>
-      </c>
+      <c r="D365" s="138"/>
+      <c r="E365" s="162"/>
+      <c r="F365" s="162"/>
+      <c r="G365" s="138"/>
       <c r="H365" s="169">
-        <v>42331</v>
+        <v>42380</v>
       </c>
       <c r="I365" s="185">
         <v>1</v>
       </c>
-      <c r="J365" s="240">
-        <v>491.76</v>
+      <c r="J365" s="226">
+        <v>391.83</v>
       </c>
       <c r="K365" s="188">
-        <v>1188</v>
+        <v>1070</v>
       </c>
       <c r="L365" s="138"/>
       <c r="M365" s="138"/>
@@ -12294,16 +12344,16 @@
       <c r="F366" s="138"/>
       <c r="G366" s="138"/>
       <c r="H366" s="169">
-        <v>42324</v>
+        <v>42373</v>
       </c>
       <c r="I366" s="185">
         <v>1</v>
       </c>
-      <c r="J366" s="240">
-        <v>506.63</v>
+      <c r="J366" s="226">
+        <v>391.83</v>
       </c>
       <c r="K366" s="188">
-        <v>1206</v>
+        <v>1070</v>
       </c>
       <c r="L366" s="138"/>
       <c r="M366" s="138"/>
@@ -12319,29 +12369,29 @@
       <c r="B367" s="163"/>
       <c r="C367" s="138"/>
       <c r="D367" s="138" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E367" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="F367" s="173">
+        <v>164</v>
+      </c>
+      <c r="F367" s="250">
         <f>(F365+F364+F357)*1.21</f>
-        <v>1.0418850200000001</v>
+        <v>1.2577999999999998</v>
       </c>
       <c r="G367" s="138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H367" s="169">
-        <v>42317</v>
+        <v>42352</v>
       </c>
       <c r="I367" s="185">
         <v>1</v>
       </c>
-      <c r="J367" s="240">
-        <v>503.33</v>
+      <c r="J367" s="226">
+        <v>444.65</v>
       </c>
       <c r="K367" s="188">
-        <v>1202</v>
+        <v>1131</v>
       </c>
       <c r="L367" s="138"/>
       <c r="M367" s="138"/>
@@ -12361,16 +12411,16 @@
       <c r="F368" s="138"/>
       <c r="G368" s="138"/>
       <c r="H368" s="169">
-        <v>42310</v>
+        <v>42345</v>
       </c>
       <c r="I368" s="185">
         <v>1</v>
       </c>
-      <c r="J368" s="240">
-        <v>481.01</v>
+      <c r="J368" s="226">
+        <v>467.79</v>
       </c>
       <c r="K368" s="188">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="L368" s="138"/>
       <c r="M368" s="138"/>
@@ -12390,16 +12440,16 @@
       <c r="F369" s="138"/>
       <c r="G369" s="138"/>
       <c r="H369" s="169">
-        <v>42303</v>
+        <v>42338</v>
       </c>
       <c r="I369" s="185">
         <v>1</v>
       </c>
-      <c r="J369" s="240">
-        <v>478.54</v>
+      <c r="J369" s="226">
+        <v>486.8</v>
       </c>
       <c r="K369" s="188">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="L369" s="138"/>
       <c r="M369" s="138"/>
@@ -12419,16 +12469,16 @@
       <c r="F370" s="138"/>
       <c r="G370" s="138"/>
       <c r="H370" s="169">
-        <v>42296</v>
+        <v>42331</v>
       </c>
       <c r="I370" s="185">
         <v>1</v>
       </c>
-      <c r="J370" s="240">
-        <v>493.41</v>
+      <c r="J370" s="226">
+        <v>491.76</v>
       </c>
       <c r="K370" s="188">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L370" s="138"/>
       <c r="M370" s="138"/>
@@ -12448,16 +12498,16 @@
       <c r="F371" s="138"/>
       <c r="G371" s="138"/>
       <c r="H371" s="169">
-        <v>42289</v>
+        <v>42324</v>
       </c>
       <c r="I371" s="185">
         <v>1</v>
       </c>
-      <c r="J371" s="240">
-        <v>501.68</v>
+      <c r="J371" s="226">
+        <v>506.63</v>
       </c>
       <c r="K371" s="188">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="L371" s="138"/>
       <c r="M371" s="138"/>
@@ -12477,16 +12527,16 @@
       <c r="F372" s="138"/>
       <c r="G372" s="138"/>
       <c r="H372" s="169">
-        <v>42282</v>
+        <v>42317</v>
       </c>
       <c r="I372" s="185">
         <v>1</v>
       </c>
-      <c r="J372" s="240">
-        <v>489.28</v>
+      <c r="J372" s="226">
+        <v>503.33</v>
       </c>
       <c r="K372" s="188">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="L372" s="138"/>
       <c r="M372" s="138"/>
@@ -12506,16 +12556,16 @@
       <c r="F373" s="138"/>
       <c r="G373" s="138"/>
       <c r="H373" s="169">
-        <v>42275</v>
+        <v>42310</v>
       </c>
       <c r="I373" s="185">
         <v>1</v>
       </c>
-      <c r="J373" s="240">
-        <v>490.11</v>
+      <c r="J373" s="226">
+        <v>481.01</v>
       </c>
       <c r="K373" s="188">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="L373" s="138"/>
       <c r="M373" s="138"/>
@@ -12535,16 +12585,16 @@
       <c r="F374" s="138"/>
       <c r="G374" s="138"/>
       <c r="H374" s="169">
-        <v>42268</v>
+        <v>42303</v>
       </c>
       <c r="I374" s="185">
         <v>1</v>
       </c>
-      <c r="J374" s="240">
-        <v>498.37</v>
+      <c r="J374" s="226">
+        <v>478.54</v>
       </c>
       <c r="K374" s="188">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="L374" s="138"/>
       <c r="M374" s="138"/>
@@ -12564,16 +12614,16 @@
       <c r="F375" s="138"/>
       <c r="G375" s="138"/>
       <c r="H375" s="169">
-        <v>42261</v>
+        <v>42296</v>
       </c>
       <c r="I375" s="185">
         <v>1</v>
       </c>
-      <c r="J375" s="240">
-        <v>502.5</v>
+      <c r="J375" s="226">
+        <v>493.41</v>
       </c>
       <c r="K375" s="188">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="L375" s="162"/>
       <c r="M375" s="162"/>
@@ -12593,16 +12643,16 @@
       <c r="F376" s="138"/>
       <c r="G376" s="138"/>
       <c r="H376" s="169">
-        <v>42254</v>
+        <v>42289</v>
       </c>
       <c r="I376" s="185">
         <v>1</v>
       </c>
-      <c r="J376" s="240">
-        <v>493.41</v>
+      <c r="J376" s="226">
+        <v>501.68</v>
       </c>
       <c r="K376" s="188">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="L376" s="162"/>
       <c r="M376" s="162"/>
@@ -12622,16 +12672,16 @@
       <c r="F377" s="138"/>
       <c r="G377" s="138"/>
       <c r="H377" s="169">
-        <v>42247</v>
+        <v>42282</v>
       </c>
       <c r="I377" s="185">
         <v>1</v>
       </c>
-      <c r="J377" s="240">
-        <v>466.06</v>
-      </c>
-      <c r="K377" s="241">
-        <v>1156.9100000000001</v>
+      <c r="J377" s="226">
+        <v>489.28</v>
+      </c>
+      <c r="K377" s="188">
+        <v>1185</v>
       </c>
       <c r="L377" s="162"/>
       <c r="M377" s="162"/>
@@ -12651,16 +12701,16 @@
       <c r="F378" s="138"/>
       <c r="G378" s="138"/>
       <c r="H378" s="169">
-        <v>42240</v>
+        <v>42275</v>
       </c>
       <c r="I378" s="185">
         <v>1</v>
       </c>
-      <c r="J378" s="240">
-        <v>485.97</v>
+      <c r="J378" s="226">
+        <v>490.11</v>
       </c>
       <c r="K378" s="188">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="L378" s="162"/>
       <c r="M378" s="162"/>
@@ -12680,16 +12730,16 @@
       <c r="F379" s="138"/>
       <c r="G379" s="138"/>
       <c r="H379" s="169">
-        <v>42233</v>
+        <v>42268</v>
       </c>
       <c r="I379" s="185">
         <v>1</v>
       </c>
-      <c r="J379" s="240">
-        <v>496.72</v>
+      <c r="J379" s="226">
+        <v>498.37</v>
       </c>
       <c r="K379" s="188">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="L379" s="162"/>
       <c r="M379" s="162"/>
@@ -12709,16 +12759,16 @@
       <c r="F380" s="138"/>
       <c r="G380" s="138"/>
       <c r="H380" s="169">
-        <v>42226</v>
+        <v>42261</v>
       </c>
       <c r="I380" s="185">
         <v>1</v>
       </c>
-      <c r="J380" s="240">
-        <v>504.98</v>
+      <c r="J380" s="226">
+        <v>502.5</v>
       </c>
       <c r="K380" s="188">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="L380" s="162"/>
       <c r="M380" s="162"/>
@@ -12738,16 +12788,16 @@
       <c r="F381" s="138"/>
       <c r="G381" s="138"/>
       <c r="H381" s="169">
-        <v>42219</v>
+        <v>42254</v>
       </c>
       <c r="I381" s="185">
         <v>1</v>
       </c>
-      <c r="J381" s="240">
-        <v>518.20000000000005</v>
+      <c r="J381" s="226">
+        <v>493.41</v>
       </c>
       <c r="K381" s="188">
-        <v>1220</v>
+        <v>1190</v>
       </c>
       <c r="L381" s="162"/>
       <c r="M381" s="162"/>
@@ -12767,16 +12817,16 @@
       <c r="F382" s="138"/>
       <c r="G382" s="138"/>
       <c r="H382" s="169">
-        <v>42212</v>
+        <v>42247</v>
       </c>
       <c r="I382" s="185">
         <v>1</v>
       </c>
-      <c r="J382" s="240">
-        <v>533.91</v>
-      </c>
-      <c r="K382" s="188">
-        <v>1239</v>
+      <c r="J382" s="226">
+        <v>466.06</v>
+      </c>
+      <c r="K382" s="227">
+        <v>1156.9100000000001</v>
       </c>
       <c r="L382" s="162"/>
       <c r="M382" s="162"/>
@@ -12796,16 +12846,16 @@
       <c r="F383" s="138"/>
       <c r="G383" s="138"/>
       <c r="H383" s="169">
-        <v>42205</v>
+        <v>42240</v>
       </c>
       <c r="I383" s="185">
         <v>1</v>
       </c>
-      <c r="J383" s="240">
-        <v>547.13</v>
+      <c r="J383" s="226">
+        <v>485.97</v>
       </c>
       <c r="K383" s="188">
-        <v>1255</v>
+        <v>1181</v>
       </c>
       <c r="L383" s="162"/>
       <c r="M383" s="162"/>
@@ -12825,16 +12875,16 @@
       <c r="F384" s="138"/>
       <c r="G384" s="138"/>
       <c r="H384" s="169">
-        <v>42198</v>
+        <v>42233</v>
       </c>
       <c r="I384" s="185">
         <v>1</v>
       </c>
-      <c r="J384" s="240">
-        <v>568.62</v>
+      <c r="J384" s="226">
+        <v>496.72</v>
       </c>
       <c r="K384" s="188">
-        <v>1281</v>
+        <v>1194</v>
       </c>
       <c r="L384" s="162"/>
       <c r="M384" s="162"/>
@@ -12854,16 +12904,16 @@
       <c r="F385" s="138"/>
       <c r="G385" s="138"/>
       <c r="H385" s="169">
-        <v>42191</v>
+        <v>42226</v>
       </c>
       <c r="I385" s="185">
         <v>1</v>
       </c>
-      <c r="J385" s="240">
-        <v>580.19000000000005</v>
+      <c r="J385" s="226">
+        <v>504.98</v>
       </c>
       <c r="K385" s="188">
-        <v>1295</v>
+        <v>1204</v>
       </c>
       <c r="L385" s="162"/>
       <c r="M385" s="162"/>
@@ -12877,66 +12927,90 @@
     </row>
     <row r="386" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B386" s="163"/>
-      <c r="C386" s="229"/>
-      <c r="D386" s="229"/>
-      <c r="E386" s="229"/>
-      <c r="F386" s="229"/>
-      <c r="G386" s="229"/>
-      <c r="H386" s="229"/>
-      <c r="I386" s="229"/>
-      <c r="J386" s="229"/>
-      <c r="K386" s="229"/>
-      <c r="L386" s="229"/>
-      <c r="M386" s="229"/>
-      <c r="N386" s="229"/>
-      <c r="O386" s="229"/>
-      <c r="P386" s="229"/>
-      <c r="Q386" s="229"/>
-      <c r="R386" s="229"/>
-      <c r="S386" s="229"/>
-      <c r="T386" s="229"/>
+      <c r="C386" s="215"/>
+      <c r="D386" s="215"/>
+      <c r="E386" s="215"/>
+      <c r="F386" s="215"/>
+      <c r="G386" s="215"/>
+      <c r="H386" s="169">
+        <v>42219</v>
+      </c>
+      <c r="I386" s="185">
+        <v>1</v>
+      </c>
+      <c r="J386" s="226">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="K386" s="188">
+        <v>1220</v>
+      </c>
+      <c r="L386" s="215"/>
+      <c r="M386" s="215"/>
+      <c r="N386" s="215"/>
+      <c r="O386" s="215"/>
+      <c r="P386" s="215"/>
+      <c r="Q386" s="215"/>
+      <c r="R386" s="215"/>
+      <c r="S386" s="215"/>
+      <c r="T386" s="215"/>
     </row>
     <row r="387" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B387" s="163"/>
-      <c r="C387" s="229"/>
-      <c r="D387" s="229"/>
-      <c r="E387" s="229"/>
-      <c r="F387" s="229"/>
-      <c r="G387" s="229"/>
-      <c r="H387" s="229"/>
-      <c r="I387" s="229"/>
-      <c r="J387" s="229"/>
-      <c r="K387" s="229"/>
-      <c r="L387" s="229"/>
-      <c r="M387" s="229"/>
-      <c r="N387" s="229"/>
-      <c r="O387" s="229"/>
-      <c r="P387" s="229"/>
-      <c r="Q387" s="229"/>
-      <c r="R387" s="229"/>
-      <c r="S387" s="229"/>
-      <c r="T387" s="229"/>
+      <c r="C387" s="215"/>
+      <c r="D387" s="215"/>
+      <c r="E387" s="215"/>
+      <c r="F387" s="215"/>
+      <c r="G387" s="215"/>
+      <c r="H387" s="169">
+        <v>42212</v>
+      </c>
+      <c r="I387" s="185">
+        <v>1</v>
+      </c>
+      <c r="J387" s="226">
+        <v>533.91</v>
+      </c>
+      <c r="K387" s="188">
+        <v>1239</v>
+      </c>
+      <c r="L387" s="215"/>
+      <c r="M387" s="215"/>
+      <c r="N387" s="215"/>
+      <c r="O387" s="215"/>
+      <c r="P387" s="215"/>
+      <c r="Q387" s="215"/>
+      <c r="R387" s="215"/>
+      <c r="S387" s="215"/>
+      <c r="T387" s="215"/>
     </row>
     <row r="388" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B388" s="163"/>
-      <c r="C388" s="229"/>
-      <c r="D388" s="229"/>
-      <c r="E388" s="229"/>
-      <c r="F388" s="229"/>
-      <c r="G388" s="229"/>
-      <c r="H388" s="229"/>
-      <c r="I388" s="229"/>
-      <c r="J388" s="229"/>
-      <c r="K388" s="229"/>
-      <c r="L388" s="229"/>
-      <c r="M388" s="229"/>
-      <c r="N388" s="229"/>
-      <c r="O388" s="229"/>
-      <c r="P388" s="229"/>
-      <c r="Q388" s="229"/>
-      <c r="R388" s="229"/>
-      <c r="S388" s="229"/>
-      <c r="T388" s="229"/>
+      <c r="C388" s="215"/>
+      <c r="D388" s="215"/>
+      <c r="E388" s="215"/>
+      <c r="F388" s="215"/>
+      <c r="G388" s="215"/>
+      <c r="H388" s="169">
+        <v>42205</v>
+      </c>
+      <c r="I388" s="185">
+        <v>1</v>
+      </c>
+      <c r="J388" s="226">
+        <v>547.13</v>
+      </c>
+      <c r="K388" s="188">
+        <v>1255</v>
+      </c>
+      <c r="L388" s="215"/>
+      <c r="M388" s="215"/>
+      <c r="N388" s="215"/>
+      <c r="O388" s="215"/>
+      <c r="P388" s="215"/>
+      <c r="Q388" s="215"/>
+      <c r="R388" s="215"/>
+      <c r="S388" s="215"/>
+      <c r="T388" s="215"/>
     </row>
     <row r="389" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B389" s="128"/>
@@ -12951,10 +13025,18 @@
         <v>32</v>
       </c>
       <c r="G389" s="128"/>
-      <c r="H389" s="128"/>
-      <c r="I389" s="128"/>
-      <c r="J389" s="128"/>
-      <c r="K389" s="128"/>
+      <c r="H389" s="169">
+        <v>42198</v>
+      </c>
+      <c r="I389" s="185">
+        <v>1</v>
+      </c>
+      <c r="J389" s="226">
+        <v>568.62</v>
+      </c>
+      <c r="K389" s="188">
+        <v>1281</v>
+      </c>
       <c r="L389" s="128"/>
       <c r="M389" s="128"/>
       <c r="N389" s="128"/>
@@ -12966,16 +13048,24 @@
       <c r="T389" s="128"/>
     </row>
     <row r="390" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B390" s="235"/>
+      <c r="B390" s="221"/>
       <c r="C390" s="143"/>
       <c r="D390" s="138"/>
       <c r="E390" s="138"/>
       <c r="F390" s="138"/>
       <c r="G390" s="138"/>
-      <c r="H390" s="138"/>
-      <c r="I390" s="138"/>
-      <c r="J390" s="138"/>
-      <c r="K390" s="138"/>
+      <c r="H390" s="169">
+        <v>42191</v>
+      </c>
+      <c r="I390" s="185">
+        <v>1</v>
+      </c>
+      <c r="J390" s="226">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="K390" s="188">
+        <v>1295</v>
+      </c>
       <c r="L390" s="138"/>
       <c r="M390" s="138"/>
       <c r="N390" s="138"/>
@@ -12987,18 +13077,18 @@
       <c r="T390" s="138"/>
     </row>
     <row r="391" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B391" s="235"/>
-      <c r="C391" s="229" t="s">
-        <v>168</v>
+      <c r="B391" s="221"/>
+      <c r="C391" s="215" t="s">
+        <v>165</v>
       </c>
       <c r="D391" s="138"/>
       <c r="E391" s="138"/>
       <c r="F391" s="138"/>
       <c r="G391" s="138"/>
-      <c r="H391" s="138"/>
-      <c r="I391" s="138"/>
-      <c r="J391" s="138"/>
-      <c r="K391" s="138"/>
+      <c r="H391" s="215"/>
+      <c r="I391" s="215"/>
+      <c r="J391" s="215"/>
+      <c r="K391" s="215"/>
       <c r="L391" s="138"/>
       <c r="M391" s="138"/>
       <c r="N391" s="138"/>
@@ -13010,439 +13100,443 @@
       <c r="T391" s="138"/>
     </row>
     <row r="392" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B392" s="235"/>
-      <c r="C392" s="229"/>
-      <c r="D392" s="229"/>
-      <c r="E392" s="229"/>
-      <c r="F392" s="229"/>
-      <c r="G392" s="229"/>
-      <c r="H392" s="229"/>
-      <c r="I392" s="229"/>
-      <c r="J392" s="229"/>
-      <c r="K392" s="229"/>
-      <c r="L392" s="229"/>
-      <c r="M392" s="229"/>
-      <c r="N392" s="229"/>
-      <c r="O392" s="229"/>
-      <c r="P392" s="229"/>
-      <c r="Q392" s="229"/>
-      <c r="R392" s="229"/>
-      <c r="S392" s="229"/>
-      <c r="T392" s="229"/>
-    </row>
-    <row r="393" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B393" s="235"/>
-      <c r="C393" s="229"/>
-      <c r="D393" s="229"/>
-      <c r="E393" s="229"/>
-      <c r="F393" s="229"/>
-      <c r="G393" s="229"/>
-      <c r="H393" s="229"/>
-      <c r="I393" s="229"/>
-      <c r="J393" s="229"/>
-      <c r="K393" s="229"/>
-      <c r="L393" s="229"/>
-      <c r="M393" s="229"/>
-      <c r="N393" s="229"/>
-      <c r="O393" s="229"/>
-      <c r="P393" s="229"/>
-      <c r="Q393" s="229"/>
-      <c r="R393" s="229"/>
-      <c r="S393" s="229"/>
-      <c r="T393" s="229"/>
+      <c r="B392" s="221"/>
+      <c r="C392" s="215"/>
+      <c r="D392" s="215"/>
+      <c r="E392" s="215"/>
+      <c r="F392" s="215"/>
+      <c r="G392" s="215"/>
+      <c r="H392" s="215"/>
+      <c r="I392" s="215"/>
+      <c r="J392" s="215"/>
+      <c r="K392" s="215"/>
+      <c r="L392" s="215"/>
+      <c r="M392" s="215"/>
+      <c r="N392" s="215"/>
+      <c r="O392" s="215"/>
+      <c r="P392" s="215"/>
+      <c r="Q392" s="215"/>
+      <c r="R392" s="215"/>
+      <c r="S392" s="215"/>
+      <c r="T392" s="215"/>
+    </row>
+    <row r="393" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="221"/>
+      <c r="C393" s="215"/>
+      <c r="D393" s="215"/>
+      <c r="E393" s="215"/>
+      <c r="F393" s="215"/>
+      <c r="G393" s="215"/>
+      <c r="H393" s="215"/>
+      <c r="I393" s="215"/>
+      <c r="J393" s="215"/>
+      <c r="K393" s="215"/>
+      <c r="L393" s="215"/>
+      <c r="M393" s="215"/>
+      <c r="N393" s="215"/>
+      <c r="O393" s="215"/>
+      <c r="P393" s="215"/>
+      <c r="Q393" s="215"/>
+      <c r="R393" s="215"/>
+      <c r="S393" s="215"/>
+      <c r="T393" s="215"/>
     </row>
     <row r="394" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B394" s="235"/>
-      <c r="C394" s="229"/>
-      <c r="D394" s="229" t="s">
+      <c r="B394" s="221"/>
+      <c r="C394" s="215"/>
+      <c r="D394" s="215" t="s">
+        <v>166</v>
+      </c>
+      <c r="E394" s="215"/>
+      <c r="F394" s="215"/>
+      <c r="G394" s="215"/>
+      <c r="H394" s="128"/>
+      <c r="I394" s="128"/>
+      <c r="J394" s="128"/>
+      <c r="K394" s="128"/>
+      <c r="L394" s="215"/>
+      <c r="M394" s="215"/>
+      <c r="N394" s="215"/>
+      <c r="O394" s="215"/>
+      <c r="P394" s="215"/>
+      <c r="Q394" s="215"/>
+      <c r="R394" s="215"/>
+      <c r="S394" s="215"/>
+      <c r="T394" s="215"/>
+    </row>
+    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B395" s="221"/>
+      <c r="C395" s="215"/>
+      <c r="D395" s="215" t="s">
+        <v>99</v>
+      </c>
+      <c r="E395" s="215"/>
+      <c r="F395" s="215"/>
+      <c r="G395" s="215"/>
+      <c r="H395" s="138"/>
+      <c r="I395" s="138"/>
+      <c r="J395" s="138"/>
+      <c r="K395" s="138"/>
+      <c r="L395" s="215"/>
+      <c r="M395" s="215"/>
+      <c r="N395" s="215"/>
+      <c r="O395" s="215"/>
+      <c r="P395" s="215"/>
+      <c r="Q395" s="215"/>
+      <c r="R395" s="215"/>
+      <c r="S395" s="215"/>
+      <c r="T395" s="215"/>
+    </row>
+    <row r="396" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="221"/>
+      <c r="C396" s="215"/>
+      <c r="D396" s="215"/>
+      <c r="E396" s="215"/>
+      <c r="F396" s="215"/>
+      <c r="G396" s="215"/>
+      <c r="H396" s="138"/>
+      <c r="I396" s="138"/>
+      <c r="J396" s="138"/>
+      <c r="K396" s="138"/>
+      <c r="L396" s="215"/>
+      <c r="M396" s="215"/>
+      <c r="N396" s="215"/>
+      <c r="O396" s="215"/>
+      <c r="P396" s="215"/>
+      <c r="Q396" s="215"/>
+      <c r="R396" s="215"/>
+      <c r="S396" s="215"/>
+      <c r="T396" s="215"/>
+    </row>
+    <row r="397" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="221"/>
+      <c r="C397" s="215"/>
+      <c r="D397" s="215"/>
+      <c r="E397" s="215"/>
+      <c r="F397" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="G397" s="215" t="s">
+        <v>89</v>
+      </c>
+      <c r="H397" s="215" t="s">
+        <v>167</v>
+      </c>
+      <c r="I397" s="215"/>
+      <c r="J397" s="215"/>
+      <c r="K397" s="215"/>
+      <c r="L397" s="215"/>
+      <c r="M397" s="215"/>
+      <c r="N397" s="215"/>
+      <c r="O397" s="215"/>
+      <c r="P397" s="215"/>
+      <c r="Q397" s="215"/>
+      <c r="R397" s="215"/>
+      <c r="S397" s="215"/>
+      <c r="T397" s="215"/>
+    </row>
+    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B398" s="221"/>
+      <c r="C398" s="215"/>
+      <c r="D398" s="215"/>
+      <c r="E398" s="215"/>
+      <c r="F398" s="228">
+        <f>F360</f>
+        <v>1.2578</v>
+      </c>
+      <c r="G398" s="215" t="s">
+        <v>89</v>
+      </c>
+      <c r="H398" s="215" t="s">
+        <v>168</v>
+      </c>
+      <c r="I398" s="215"/>
+      <c r="J398" s="215"/>
+      <c r="K398" s="215"/>
+      <c r="L398" s="215"/>
+      <c r="M398" s="215"/>
+      <c r="N398" s="215"/>
+      <c r="O398" s="215"/>
+      <c r="P398" s="215"/>
+      <c r="Q398" s="215"/>
+      <c r="R398" s="215"/>
+      <c r="S398" s="215"/>
+      <c r="T398" s="215"/>
+    </row>
+    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B399" s="221"/>
+      <c r="C399" s="215"/>
+      <c r="D399" s="215"/>
+      <c r="E399" s="215"/>
+      <c r="F399" s="228">
+        <f>F397+F398</f>
+        <v>1.7578</v>
+      </c>
+      <c r="G399" s="215" t="s">
+        <v>89</v>
+      </c>
+      <c r="H399" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="E394" s="229"/>
-      <c r="F394" s="229"/>
-      <c r="G394" s="229"/>
-      <c r="H394" s="229"/>
-      <c r="I394" s="229"/>
-      <c r="J394" s="229"/>
-      <c r="K394" s="229"/>
-      <c r="L394" s="229"/>
-      <c r="M394" s="229"/>
-      <c r="N394" s="229"/>
-      <c r="O394" s="229"/>
-      <c r="P394" s="229"/>
-      <c r="Q394" s="229"/>
-      <c r="R394" s="229"/>
-      <c r="S394" s="229"/>
-      <c r="T394" s="229"/>
-    </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B395" s="235"/>
-      <c r="C395" s="229"/>
-      <c r="D395" s="229" t="s">
-        <v>102</v>
-      </c>
-      <c r="E395" s="229"/>
-      <c r="F395" s="229"/>
-      <c r="G395" s="229"/>
-      <c r="H395" s="229"/>
-      <c r="I395" s="229"/>
-      <c r="J395" s="229"/>
-      <c r="K395" s="229"/>
-      <c r="L395" s="229"/>
-      <c r="M395" s="229"/>
-      <c r="N395" s="229"/>
-      <c r="O395" s="229"/>
-      <c r="P395" s="229"/>
-      <c r="Q395" s="229"/>
-      <c r="R395" s="229"/>
-      <c r="S395" s="229"/>
-      <c r="T395" s="229"/>
-    </row>
-    <row r="396" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B396" s="235"/>
-      <c r="C396" s="229"/>
-      <c r="D396" s="229"/>
-      <c r="E396" s="229"/>
-      <c r="F396" s="229"/>
-      <c r="G396" s="229"/>
-      <c r="H396" s="229"/>
-      <c r="I396" s="229"/>
-      <c r="J396" s="229"/>
-      <c r="K396" s="229"/>
-      <c r="L396" s="229"/>
-      <c r="M396" s="229"/>
-      <c r="N396" s="229"/>
-      <c r="O396" s="229"/>
-      <c r="P396" s="229"/>
-      <c r="Q396" s="229"/>
-      <c r="R396" s="229"/>
-      <c r="S396" s="229"/>
-      <c r="T396" s="229"/>
-    </row>
-    <row r="397" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B397" s="235"/>
-      <c r="C397" s="229"/>
-      <c r="D397" s="229"/>
-      <c r="E397" s="229"/>
-      <c r="F397" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="G397" s="229" t="s">
+      <c r="I399" s="215"/>
+      <c r="J399" s="215"/>
+      <c r="K399" s="215"/>
+      <c r="L399" s="215"/>
+      <c r="M399" s="215"/>
+      <c r="N399" s="215"/>
+      <c r="O399" s="215"/>
+      <c r="P399" s="215"/>
+      <c r="Q399" s="215"/>
+      <c r="R399" s="215"/>
+      <c r="S399" s="215"/>
+      <c r="T399" s="215"/>
+    </row>
+    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B400" s="221"/>
+      <c r="C400" s="215"/>
+      <c r="D400" s="215"/>
+      <c r="E400" s="215"/>
+      <c r="F400" s="215"/>
+      <c r="G400" s="215"/>
+      <c r="H400" s="215"/>
+      <c r="I400" s="215"/>
+      <c r="J400" s="215"/>
+      <c r="K400" s="215"/>
+      <c r="L400" s="215"/>
+      <c r="M400" s="215"/>
+      <c r="N400" s="215"/>
+      <c r="O400" s="215"/>
+      <c r="P400" s="215"/>
+      <c r="Q400" s="215"/>
+      <c r="R400" s="215"/>
+      <c r="S400" s="215"/>
+      <c r="T400" s="215"/>
+    </row>
+    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B401" s="221"/>
+      <c r="C401" s="215"/>
+      <c r="D401" s="215"/>
+      <c r="E401" s="215"/>
+      <c r="F401" s="215"/>
+      <c r="G401" s="215"/>
+      <c r="H401" s="215"/>
+      <c r="I401" s="215"/>
+      <c r="J401" s="215"/>
+      <c r="K401" s="215"/>
+      <c r="L401" s="215"/>
+      <c r="M401" s="215"/>
+      <c r="N401" s="215"/>
+      <c r="O401" s="215"/>
+      <c r="P401" s="215"/>
+      <c r="Q401" s="215"/>
+      <c r="R401" s="215"/>
+      <c r="S401" s="215"/>
+      <c r="T401" s="215"/>
+    </row>
+    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B402" s="221"/>
+      <c r="C402" s="215"/>
+      <c r="D402" s="215"/>
+      <c r="E402" s="215"/>
+      <c r="F402" s="228"/>
+      <c r="G402" s="215"/>
+      <c r="H402" s="215"/>
+      <c r="I402" s="215"/>
+      <c r="J402" s="215"/>
+      <c r="K402" s="215"/>
+      <c r="L402" s="215"/>
+      <c r="M402" s="215"/>
+      <c r="N402" s="215"/>
+      <c r="O402" s="215"/>
+      <c r="P402" s="215"/>
+      <c r="Q402" s="215"/>
+      <c r="R402" s="215"/>
+      <c r="S402" s="215"/>
+      <c r="T402" s="215"/>
+    </row>
+    <row r="403" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B403" s="221"/>
+      <c r="C403" s="215"/>
+      <c r="D403" s="215"/>
+      <c r="E403" s="215"/>
+      <c r="F403" s="248"/>
+      <c r="G403" s="215"/>
+      <c r="H403" s="215"/>
+      <c r="I403" s="215"/>
+      <c r="J403" s="215"/>
+      <c r="K403" s="215"/>
+      <c r="L403" s="215"/>
+      <c r="M403" s="215"/>
+      <c r="N403" s="215"/>
+      <c r="O403" s="215"/>
+      <c r="P403" s="215"/>
+      <c r="Q403" s="215"/>
+      <c r="R403" s="215"/>
+      <c r="S403" s="215"/>
+      <c r="T403" s="215"/>
+    </row>
+    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B404" s="221"/>
+      <c r="C404" s="215"/>
+      <c r="D404" s="215"/>
+      <c r="E404" s="215"/>
+      <c r="F404" s="215"/>
+      <c r="G404" s="215"/>
+      <c r="I404" s="215"/>
+      <c r="J404" s="215"/>
+      <c r="K404" s="215"/>
+      <c r="L404" s="215"/>
+      <c r="M404" s="215"/>
+      <c r="N404" s="215"/>
+      <c r="O404" s="215"/>
+      <c r="P404" s="215"/>
+      <c r="Q404" s="215"/>
+      <c r="R404" s="215"/>
+      <c r="S404" s="215"/>
+      <c r="T404" s="215"/>
+    </row>
+    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B405" s="221"/>
+      <c r="C405" s="215"/>
+      <c r="D405" s="215"/>
+      <c r="E405" s="215"/>
+      <c r="F405" s="215"/>
+      <c r="G405" s="215"/>
+      <c r="I405" s="215"/>
+      <c r="J405" s="215"/>
+      <c r="K405" s="215"/>
+      <c r="L405" s="215"/>
+      <c r="M405" s="215"/>
+      <c r="N405" s="215"/>
+      <c r="O405" s="215"/>
+      <c r="P405" s="215"/>
+      <c r="Q405" s="215"/>
+      <c r="R405" s="215"/>
+      <c r="S405" s="215"/>
+      <c r="T405" s="215"/>
+    </row>
+    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B406" s="221"/>
+      <c r="C406" s="215"/>
+      <c r="D406" s="215"/>
+      <c r="E406" s="215"/>
+      <c r="F406" s="215"/>
+      <c r="G406" s="215"/>
+      <c r="I406" s="215"/>
+      <c r="J406" s="215"/>
+      <c r="K406" s="215"/>
+      <c r="L406" s="215"/>
+      <c r="M406" s="215"/>
+      <c r="N406" s="215"/>
+      <c r="O406" s="215"/>
+      <c r="P406" s="215"/>
+      <c r="Q406" s="215"/>
+      <c r="R406" s="215"/>
+      <c r="S406" s="215"/>
+      <c r="T406" s="215"/>
+    </row>
+    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B407" s="221"/>
+      <c r="C407" s="215"/>
+      <c r="D407" s="215"/>
+      <c r="E407" s="215"/>
+      <c r="F407" s="215"/>
+      <c r="G407" s="215"/>
+      <c r="I407" s="215"/>
+      <c r="J407" s="215"/>
+      <c r="K407" s="215"/>
+      <c r="L407" s="215"/>
+      <c r="M407" s="215"/>
+      <c r="N407" s="215"/>
+      <c r="O407" s="215"/>
+      <c r="P407" s="215"/>
+      <c r="Q407" s="215"/>
+      <c r="R407" s="215"/>
+      <c r="S407" s="215"/>
+      <c r="T407" s="215"/>
+    </row>
+    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B408" s="221"/>
+      <c r="C408" s="215"/>
+      <c r="D408" s="215"/>
+      <c r="E408" s="215"/>
+      <c r="F408" s="229">
+        <f>F399/(1+F363)-F364</f>
+        <v>0.95880914049586796</v>
+      </c>
+      <c r="G408" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="H397" s="229" t="s">
+      <c r="H408" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="I397" s="229"/>
-      <c r="J397" s="229"/>
-      <c r="K397" s="229"/>
-      <c r="L397" s="229"/>
-      <c r="M397" s="229"/>
-      <c r="N397" s="229"/>
-      <c r="O397" s="229"/>
-      <c r="P397" s="229"/>
-      <c r="Q397" s="229"/>
-      <c r="R397" s="229"/>
-      <c r="S397" s="229"/>
-      <c r="T397" s="229"/>
-    </row>
-    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B398" s="235"/>
-      <c r="C398" s="229"/>
-      <c r="D398" s="229"/>
-      <c r="E398" s="229"/>
-      <c r="F398" s="242">
-        <f>F360</f>
-        <v>1.0448</v>
-      </c>
-      <c r="G398" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="H398" s="229" t="s">
-        <v>171</v>
-      </c>
-      <c r="I398" s="229"/>
-      <c r="J398" s="229"/>
-      <c r="K398" s="229"/>
-      <c r="L398" s="229"/>
-      <c r="M398" s="229"/>
-      <c r="N398" s="229"/>
-      <c r="O398" s="229"/>
-      <c r="P398" s="229"/>
-      <c r="Q398" s="229"/>
-      <c r="R398" s="229"/>
-      <c r="S398" s="229"/>
-      <c r="T398" s="229"/>
-    </row>
-    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B399" s="235"/>
-      <c r="C399" s="229"/>
-      <c r="D399" s="229"/>
-      <c r="E399" s="229"/>
-      <c r="F399" s="242">
-        <f>F397+F398</f>
-        <v>1.5448</v>
-      </c>
-      <c r="G399" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="H399" s="229" t="s">
-        <v>172</v>
-      </c>
-      <c r="I399" s="229"/>
-      <c r="J399" s="229"/>
-      <c r="K399" s="229"/>
-      <c r="L399" s="229"/>
-      <c r="M399" s="229"/>
-      <c r="N399" s="229"/>
-      <c r="O399" s="229"/>
-      <c r="P399" s="229"/>
-      <c r="Q399" s="229"/>
-      <c r="R399" s="229"/>
-      <c r="S399" s="229"/>
-      <c r="T399" s="229"/>
-    </row>
-    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B400" s="235"/>
-      <c r="C400" s="229"/>
-      <c r="D400" s="229"/>
-      <c r="E400" s="229"/>
-      <c r="F400" s="229"/>
-      <c r="G400" s="229"/>
-      <c r="H400" s="229"/>
-      <c r="I400" s="229"/>
-      <c r="J400" s="229"/>
-      <c r="K400" s="229"/>
-      <c r="L400" s="229"/>
-      <c r="M400" s="229"/>
-      <c r="N400" s="229"/>
-      <c r="O400" s="229"/>
-      <c r="P400" s="229"/>
-      <c r="Q400" s="229"/>
-      <c r="R400" s="229"/>
-      <c r="S400" s="229"/>
-      <c r="T400" s="229"/>
-    </row>
-    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B401" s="235"/>
-      <c r="C401" s="229"/>
-      <c r="D401" s="229"/>
-      <c r="E401" s="229"/>
-      <c r="F401" s="229">
-        <f>F364</f>
-        <v>0.48205999999999999</v>
-      </c>
-      <c r="G401" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="H401" s="229" t="s">
-        <v>94</v>
-      </c>
-      <c r="I401" s="229"/>
-      <c r="J401" s="229"/>
-      <c r="K401" s="229"/>
-      <c r="L401" s="229"/>
-      <c r="M401" s="229"/>
-      <c r="N401" s="229"/>
-      <c r="O401" s="229"/>
-      <c r="P401" s="229"/>
-      <c r="Q401" s="229"/>
-      <c r="R401" s="229"/>
-      <c r="S401" s="229"/>
-      <c r="T401" s="229"/>
-    </row>
-    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B402" s="235"/>
-      <c r="C402" s="229"/>
-      <c r="D402" s="229"/>
-      <c r="E402" s="229"/>
-      <c r="F402" s="242">
-        <f>F365</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G402" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="H402" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="I402" s="229"/>
-      <c r="J402" s="229"/>
-      <c r="K402" s="229"/>
-      <c r="L402" s="229"/>
-      <c r="M402" s="229"/>
-      <c r="N402" s="229"/>
-      <c r="O402" s="229"/>
-      <c r="P402" s="229"/>
-      <c r="Q402" s="229"/>
-      <c r="R402" s="229"/>
-      <c r="S402" s="229"/>
-      <c r="T402" s="229"/>
-    </row>
-    <row r="403" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B403" s="235"/>
-      <c r="C403" s="229"/>
-      <c r="D403" s="229"/>
-      <c r="E403" s="229"/>
-      <c r="F403" s="229">
-        <f>F363</f>
-        <v>21</v>
-      </c>
-      <c r="G403" s="229" t="s">
-        <v>96</v>
-      </c>
-      <c r="H403" s="229" t="s">
-        <v>95</v>
-      </c>
-      <c r="I403" s="229"/>
-      <c r="J403" s="229"/>
-      <c r="K403" s="229"/>
-      <c r="L403" s="229"/>
-      <c r="M403" s="229"/>
-      <c r="N403" s="229"/>
-      <c r="O403" s="229"/>
-      <c r="P403" s="229"/>
-      <c r="Q403" s="229"/>
-      <c r="R403" s="229"/>
-      <c r="S403" s="229"/>
-      <c r="T403" s="229"/>
-    </row>
-    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B404" s="235"/>
-      <c r="C404" s="229"/>
-      <c r="D404" s="229"/>
-      <c r="E404" s="229"/>
-      <c r="F404" s="229"/>
-      <c r="G404" s="229"/>
-      <c r="H404" s="229"/>
-      <c r="I404" s="229"/>
-      <c r="J404" s="229"/>
-      <c r="K404" s="229"/>
-      <c r="L404" s="229"/>
-      <c r="M404" s="229"/>
-      <c r="N404" s="229"/>
-      <c r="O404" s="229"/>
-      <c r="P404" s="229"/>
-      <c r="Q404" s="229"/>
-      <c r="R404" s="229"/>
-      <c r="S404" s="229"/>
-      <c r="T404" s="229"/>
-    </row>
-    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B405" s="235"/>
-      <c r="C405" s="229"/>
-      <c r="D405" s="229"/>
-      <c r="E405" s="229"/>
-      <c r="F405" s="229"/>
-      <c r="G405" s="229"/>
-      <c r="H405" s="229"/>
-      <c r="I405" s="229"/>
-      <c r="J405" s="229"/>
-      <c r="K405" s="229"/>
-      <c r="L405" s="229"/>
-      <c r="M405" s="229"/>
-      <c r="N405" s="229"/>
-      <c r="O405" s="229"/>
-      <c r="P405" s="229"/>
-      <c r="Q405" s="229"/>
-      <c r="R405" s="229"/>
-      <c r="S405" s="229"/>
-      <c r="T405" s="229"/>
-    </row>
-    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B406" s="235"/>
-      <c r="C406" s="229"/>
-      <c r="D406" s="229"/>
-      <c r="E406" s="229"/>
-      <c r="F406" s="229"/>
-      <c r="G406" s="229"/>
-      <c r="H406" s="229"/>
-      <c r="I406" s="229"/>
-      <c r="J406" s="229"/>
-      <c r="K406" s="229"/>
-      <c r="L406" s="229"/>
-      <c r="M406" s="229"/>
-      <c r="N406" s="229"/>
-      <c r="O406" s="229"/>
-      <c r="P406" s="229"/>
-      <c r="Q406" s="229"/>
-      <c r="R406" s="229"/>
-      <c r="S406" s="229"/>
-      <c r="T406" s="229"/>
-    </row>
-    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B407" s="235"/>
-      <c r="C407" s="229"/>
-      <c r="D407" s="229"/>
-      <c r="E407" s="229"/>
-      <c r="F407" s="229"/>
-      <c r="G407" s="229"/>
-      <c r="H407" s="229"/>
-      <c r="I407" s="229"/>
-      <c r="J407" s="229"/>
-      <c r="K407" s="229"/>
-      <c r="L407" s="229"/>
-      <c r="M407" s="229"/>
-      <c r="N407" s="229"/>
-      <c r="O407" s="229"/>
-      <c r="P407" s="229"/>
-      <c r="Q407" s="229"/>
-      <c r="R407" s="229"/>
-      <c r="S407" s="229"/>
-      <c r="T407" s="229"/>
-    </row>
-    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B408" s="235"/>
-      <c r="C408" s="229"/>
-      <c r="D408" s="229"/>
-      <c r="E408" s="229"/>
-      <c r="F408" s="243">
-        <f>F399/1.21-F402-F401</f>
-        <v>0.78663421487603302</v>
-      </c>
-      <c r="G408" s="229" t="s">
-        <v>89</v>
-      </c>
-      <c r="H408" s="229" t="s">
-        <v>173</v>
-      </c>
-      <c r="I408" s="229"/>
-      <c r="J408" s="229"/>
-      <c r="K408" s="229"/>
-      <c r="L408" s="229"/>
-      <c r="M408" s="229"/>
-      <c r="N408" s="229"/>
-      <c r="O408" s="229"/>
-      <c r="P408" s="229"/>
-      <c r="Q408" s="229"/>
-      <c r="R408" s="229"/>
-      <c r="S408" s="229"/>
-      <c r="T408" s="229"/>
+      <c r="I408" s="215"/>
+      <c r="J408" s="215"/>
+      <c r="K408" s="215"/>
+      <c r="L408" s="215"/>
+      <c r="M408" s="215"/>
+      <c r="N408" s="215"/>
+      <c r="O408" s="215"/>
+      <c r="P408" s="215"/>
+      <c r="Q408" s="215"/>
+      <c r="R408" s="215"/>
+      <c r="S408" s="215"/>
+      <c r="T408" s="215"/>
     </row>
     <row r="409" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B409" s="235"/>
-      <c r="C409" s="229"/>
-      <c r="D409" s="229"/>
-      <c r="E409" s="229"/>
-      <c r="F409" s="244">
+      <c r="B409" s="221"/>
+      <c r="C409" s="215"/>
+      <c r="D409" s="215"/>
+      <c r="E409" s="215"/>
+      <c r="F409" s="230">
         <f>F408/F13</f>
-        <v>2.2674409380560496E-2</v>
-      </c>
-      <c r="G409" s="229" t="s">
+        <v>2.7637281163587279E-2</v>
+      </c>
+      <c r="G409" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="H409" s="229"/>
-      <c r="I409" s="229"/>
-      <c r="J409" s="229"/>
-      <c r="K409" s="229"/>
-      <c r="L409" s="229"/>
-      <c r="M409" s="229"/>
-      <c r="N409" s="229"/>
-      <c r="O409" s="229"/>
-      <c r="P409" s="229"/>
-      <c r="Q409" s="229"/>
-      <c r="R409" s="229"/>
-      <c r="S409" s="229"/>
-      <c r="T409" s="229"/>
+      <c r="H409" s="215"/>
+      <c r="I409" s="215"/>
+      <c r="J409" s="215"/>
+      <c r="K409" s="215"/>
+      <c r="L409" s="215"/>
+      <c r="M409" s="215"/>
+      <c r="N409" s="215"/>
+      <c r="O409" s="215"/>
+      <c r="P409" s="215"/>
+      <c r="Q409" s="215"/>
+      <c r="R409" s="215"/>
+      <c r="S409" s="215"/>
+      <c r="T409" s="215"/>
+    </row>
+    <row r="410" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H410" s="215"/>
+      <c r="I410" s="215"/>
+      <c r="J410" s="215"/>
+      <c r="K410" s="215"/>
+    </row>
+    <row r="411" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H411" s="215"/>
+      <c r="I411" s="215"/>
+      <c r="J411" s="215"/>
+      <c r="K411" s="215"/>
+    </row>
+    <row r="412" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H412" s="215"/>
+      <c r="I412" s="215"/>
+      <c r="J412" s="215"/>
+      <c r="K412" s="215"/>
+    </row>
+    <row r="413" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I413" s="215"/>
+      <c r="J413" s="215"/>
+      <c r="K413" s="215"/>
+    </row>
+    <row r="414" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H414" s="215"/>
+      <c r="I414" s="215"/>
+      <c r="J414" s="215"/>
+      <c r="K414" s="215"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13467,17 +13561,17 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="230" t="s">
-        <v>137</v>
+      <c r="A4" s="216" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/carriers_source_analyses/bio_kerosene.carrier.xlsx
+++ b/carriers_source_analyses/bio_kerosene.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519A7AE-FBDB-0B41-BDB5-AB18234CE578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24020" yWindow="1120" windowWidth="25600" windowHeight="26920" tabRatio="762" activeTab="5"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,7 +39,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="172">
   <si>
     <t>Source</t>
   </si>
@@ -261,9 +262,6 @@
   </si>
   <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1986</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -701,7 +699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -714,7 +712,7 @@
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="57">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2334,6 +2332,20 @@
     <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="56" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="362" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="4" borderId="18" xfId="362" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2376,20 +2388,6 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="56" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="56" fillId="19" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="362" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="28" fillId="4" borderId="18" xfId="362" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2762,6 +2760,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2783,7 +2784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2821,7 +2828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2859,7 +2872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2897,7 +2916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2935,7 +2960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2973,7 +3004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvPr id="6" name="Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3027,7 +3064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3065,7 +3108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Right Arrow 30"/>
+        <xdr:cNvPr id="31" name="Right Arrow 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3119,7 +3168,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3157,7 +3212,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3203,7 +3264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3249,7 +3316,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3295,7 +3368,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3347,7 +3426,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3807,15 +3892,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
@@ -3824,42 +3909,42 @@
     <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3868,17 +3953,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="96" t="s">
         <v>15</v>
@@ -3886,13 +3971,13 @@
       <c r="C9" s="97"/>
       <c r="D9" s="155"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="98"/>
       <c r="C10" s="99"/>
       <c r="D10" s="156"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="98" t="s">
         <v>16</v>
@@ -3902,7 +3987,7 @@
       </c>
       <c r="D11" s="156"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="98"/>
       <c r="C12" s="20" t="s">
@@ -3910,7 +3995,7 @@
       </c>
       <c r="D12" s="156"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="98"/>
       <c r="C13" s="101" t="s">
@@ -3918,7 +4003,7 @@
       </c>
       <c r="D13" s="156"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="98"/>
       <c r="C14" s="99" t="s">
@@ -3926,13 +4011,13 @@
       </c>
       <c r="D14" s="156"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="98"/>
       <c r="C15" s="99"/>
       <c r="D15" s="156"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="98" t="s">
         <v>21</v>
@@ -3942,7 +4027,7 @@
       </c>
       <c r="D16" s="156"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="98"/>
       <c r="C17" s="103" t="s">
@@ -3950,7 +4035,7 @@
       </c>
       <c r="D17" s="156"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="98"/>
       <c r="C18" s="104" t="s">
@@ -3958,7 +4043,7 @@
       </c>
       <c r="D18" s="156"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="98"/>
       <c r="C19" s="105" t="s">
@@ -3966,7 +4051,7 @@
       </c>
       <c r="D19" s="156"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
@@ -3974,7 +4059,7 @@
       </c>
       <c r="D20" s="156"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="106"/>
       <c r="C21" s="108" t="s">
@@ -3982,7 +4067,7 @@
       </c>
       <c r="D21" s="156"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="106"/>
       <c r="C22" s="109" t="s">
@@ -3990,39 +4075,39 @@
       </c>
       <c r="D22" s="156"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="106"/>
       <c r="C23" s="110" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="156"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="157"/>
       <c r="C24" s="158"/>
       <c r="D24" s="159"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="176">
         <v>42227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="C28" s="175" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="175" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="175" t="s">
+    <row r="30" spans="1:4">
+      <c r="C30" s="175" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="175" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4032,17 +4117,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -4057,42 +4142,42 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="231" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="233"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="236"/>
-    </row>
-    <row r="4" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="237"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="237" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="239"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="240"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="242"/>
+    </row>
+    <row r="4" spans="2:10" ht="63" customHeight="1">
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="245"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4103,7 +4188,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="111"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4124,7 +4209,7 @@
       </c>
       <c r="J7" s="115"/>
     </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4135,10 +4220,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4148,7 +4233,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="121" t="s">
         <v>37</v>
@@ -4170,7 +4255,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="130" t="s">
         <v>38</v>
@@ -4186,14 +4271,14 @@
       <c r="G11" s="130"/>
       <c r="H11" s="32"/>
       <c r="I11" s="179" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>57</v>
@@ -4206,11 +4291,11 @@
       <c r="G12" s="130"/>
       <c r="H12" s="32"/>
       <c r="I12" s="212" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="37" t="s">
         <v>39</v>
@@ -4224,7 +4309,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="191" t="s">
@@ -4232,10 +4317,10 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
       <c r="C14" s="192" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>50</v>
@@ -4246,45 +4331,24 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="190" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="191" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="132">
-        <f>'Research data'!G11</f>
-        <v>5767200</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4296,15 +4360,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -4319,41 +4383,41 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="231" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="240"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="237" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="246"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="234"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="241"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="240"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="242"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="248"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4364,7 +4428,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="111"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4385,7 +4449,7 @@
       </c>
       <c r="J7" s="115"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4396,7 +4460,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>36</v>
@@ -4409,10 +4473,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="116"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="189" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
@@ -4422,7 +4486,7 @@
       <c r="I10" s="130"/>
       <c r="J10" s="116"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="133" t="s">
         <v>44</v>
@@ -4431,7 +4495,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="123">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
@@ -4444,7 +4508,7 @@
       </c>
       <c r="J11" s="116"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="133" t="s">
         <v>45</v>
@@ -4453,7 +4517,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="123">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G15</f>
         <v>1.47E-2</v>
       </c>
       <c r="F12" s="37"/>
@@ -4466,7 +4530,7 @@
       </c>
       <c r="J12" s="116"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="133" t="s">
         <v>49</v>
@@ -4475,7 +4539,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="123">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G16</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F13" s="37"/>
@@ -4488,7 +4552,7 @@
       </c>
       <c r="J13" s="116"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="133" t="s">
         <v>48</v>
@@ -4497,7 +4561,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="123">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G17</f>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F14" s="37"/>
@@ -4510,7 +4574,7 @@
       </c>
       <c r="J14" s="116"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="133" t="s">
         <v>39</v>
@@ -4519,7 +4583,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="123">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
@@ -4532,7 +4596,7 @@
       </c>
       <c r="J15" s="116"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="133" t="s">
         <v>47</v>
@@ -4541,7 +4605,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="123">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
@@ -4554,7 +4618,7 @@
       </c>
       <c r="J16" s="116"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="133" t="s">
         <v>46</v>
@@ -4563,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G21</f>
+        <f>'Research data'!G20</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="37"/>
@@ -4576,7 +4640,7 @@
       </c>
       <c r="J17" s="116"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="41"/>
       <c r="C18" s="130"/>
       <c r="D18" s="130"/>
@@ -4587,10 +4651,10 @@
       <c r="I18" s="130"/>
       <c r="J18" s="116"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="189" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="130"/>
@@ -4600,7 +4664,7 @@
       <c r="I19" s="130"/>
       <c r="J19" s="116"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="133" t="s">
         <v>44</v>
@@ -4622,7 +4686,7 @@
       </c>
       <c r="J20" s="116"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="133" t="s">
         <v>45</v>
@@ -4644,7 +4708,7 @@
       </c>
       <c r="J21" s="116"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="133" t="s">
         <v>49</v>
@@ -4666,7 +4730,7 @@
       </c>
       <c r="J22" s="116"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="133" t="s">
         <v>48</v>
@@ -4688,7 +4752,7 @@
       </c>
       <c r="J23" s="116"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="41"/>
       <c r="C24" s="133" t="s">
         <v>39</v>
@@ -4710,7 +4774,7 @@
       </c>
       <c r="J24" s="116"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="133" t="s">
         <v>47</v>
@@ -4732,7 +4796,7 @@
       </c>
       <c r="J25" s="116"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="133" t="s">
         <v>46</v>
@@ -4754,7 +4818,7 @@
       </c>
       <c r="J26" s="116"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -4776,17 +4840,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
@@ -4808,8 +4872,8 @@
     <col min="19" max="16384" width="10.83203125" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="75"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -4828,7 +4892,7 @@
       <c r="Q2" s="77"/>
       <c r="R2" s="78"/>
     </row>
-    <row r="3" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="120" t="s">
         <v>30</v>
@@ -4845,7 +4909,7 @@
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -4853,17 +4917,17 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -4882,7 +4946,7 @@
       <c r="Q4" s="119"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="79"/>
       <c r="C5" s="20" t="s">
         <v>59</v>
@@ -4903,7 +4967,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="79"/>
       <c r="C6" s="134" t="s">
         <v>37</v>
@@ -4932,7 +4996,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="135" t="s">
         <v>38</v>
@@ -4964,13 +5028,13 @@
       <c r="P7" s="177"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="214" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="135" t="s">
         <v>56</v>
@@ -4999,10 +5063,10 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="214" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="136" t="s">
         <v>39</v>
@@ -5031,10 +5095,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>39</v>
@@ -5063,52 +5127,38 @@
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="214" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="79"/>
-      <c r="C11" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="136" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="132">
-        <f>K11</f>
-        <v>5767200</v>
-      </c>
-      <c r="H11" s="86"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="132">
-        <f>Notes!F281</f>
-        <v>5767200</v>
-      </c>
+      <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="214" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="144"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="79"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5120,16 +5170,16 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="144"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="79"/>
-      <c r="C13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="113"/>
+      <c r="C13" s="217" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="113"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5139,75 +5189,85 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="144"/>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="214" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="217" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="113"/>
+      <c r="C14" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="123">
+        <f>M14</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="86"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="123">
+        <f>Notes!H82</f>
+        <v>0</v>
+      </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="214" t="s">
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="144" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="79"/>
       <c r="C15" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="123">
-        <f>M15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="86"/>
+        <f t="shared" ref="G15:G19" si="0">M15</f>
+        <v>1.47E-2</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="123">
-        <f>Notes!H82</f>
-        <v>0</v>
+        <f>Notes!H83</f>
+        <v>1.47E-2</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="83"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="144" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="79"/>
       <c r="C16" s="137" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="123">
-        <f t="shared" ref="G16:G20" si="0">M16</f>
-        <v>1.47E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5215,8 +5275,8 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="123">
-        <f>Notes!H83</f>
-        <v>1.47E-2</v>
+        <f>Notes!H84</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -5226,10 +5286,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -5238,7 +5298,7 @@
       </c>
       <c r="G17" s="123">
         <f t="shared" si="0"/>
-        <v>9.4000000000000004E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5246,8 +5306,8 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="123">
-        <f>Notes!H84</f>
-        <v>9.4000000000000004E-3</v>
+        <f>Notes!H85</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -5257,44 +5317,44 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="79"/>
       <c r="C18" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="24" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="123">
         <f t="shared" si="0"/>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="86"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="123">
-        <f>Notes!H85</f>
-        <v>6.9999999999999999E-4</v>
+        <f>Notes!H86</f>
+        <v>0</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="83"/>
       <c r="R18" s="144" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="24" t="s">
         <v>50</v>
       </c>
@@ -5302,13 +5362,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="123">
-        <f>Notes!H86</f>
+        <f>Notes!H87</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
@@ -5319,127 +5379,96 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="79"/>
       <c r="C20" s="137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="48">
+        <f>M20</f>
+        <v>0.6</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="123">
-        <f>Notes!H87</f>
-        <v>0</v>
+      <c r="M20" s="48">
+        <v>0.6</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="144" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="79"/>
-      <c r="C21" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="48">
-        <f>M21</f>
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="48">
-        <v>0.6</v>
-      </c>
+      <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="83"/>
-      <c r="R21" s="144" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="144"/>
-    </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="144"/>
+    </row>
+    <row r="22" spans="2:18" ht="17" thickBot="1">
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+    </row>
+    <row r="24" spans="2:18">
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18">
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18">
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18">
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R29" s="144"/>
+    <row r="28" spans="2:18">
+      <c r="R28" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5448,8 +5477,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L20"/>
@@ -5458,7 +5487,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
@@ -5473,8 +5502,8 @@
     <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -5487,7 +5516,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -5502,7 +5531,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5515,7 +5544,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -5544,7 +5573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -5557,17 +5586,17 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="149" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="146" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>64</v>
@@ -5584,30 +5613,30 @@
       </c>
       <c r="L7" s="71"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="54"/>
       <c r="C8" s="194" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="195"/>
       <c r="G8" s="57" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
       <c r="K8" s="207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="54"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -5620,7 +5649,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="54"/>
       <c r="C10" s="150" t="s">
         <v>40</v>
@@ -5630,7 +5659,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>68</v>
@@ -5641,11 +5670,11 @@
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="17" customHeight="1">
       <c r="B11" s="54"/>
       <c r="C11" s="62"/>
       <c r="D11" s="67"/>
@@ -5658,7 +5687,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="54"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -5671,14 +5700,14 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="54"/>
       <c r="C13" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="146"/>
       <c r="G13" s="62" t="s">
@@ -5696,7 +5725,7 @@
       </c>
       <c r="L13" s="66"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="54"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -5709,7 +5738,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="66"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
@@ -5722,7 +5751,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="54"/>
       <c r="C16" s="63"/>
       <c r="D16" s="62"/>
@@ -5735,24 +5764,24 @@
       <c r="K16" s="68"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="54"/>
       <c r="E17" s="148"/>
       <c r="F17" s="148"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="54"/>
       <c r="C18" s="67"/>
       <c r="E18" s="148"/>
       <c r="F18" s="148"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="54"/>
       <c r="C19" s="129"/>
       <c r="E19" s="148"/>
       <c r="F19" s="148"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="54"/>
       <c r="E20" s="148"/>
       <c r="F20" s="148"/>
@@ -5764,15 +5793,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AB414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+    <sheetView topLeftCell="A354" workbookViewId="0">
       <selection activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="124" customWidth="1"/>
     <col min="2" max="2" width="5" style="124" customWidth="1"/>
@@ -5783,8 +5812,8 @@
     <col min="9" max="16384" width="7" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="26" customFormat="1">
       <c r="B2" s="127"/>
       <c r="C2" s="128" t="s">
         <v>25</v>
@@ -5812,7 +5841,7 @@
       <c r="T2" s="128"/>
       <c r="U2" s="128"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="125"/>
       <c r="C3" s="126"/>
       <c r="D3" s="126"/>
@@ -5834,10 +5863,10 @@
       <c r="T3" s="126"/>
       <c r="U3" s="126"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="125"/>
       <c r="C4" s="211" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="138"/>
       <c r="E4" s="138"/>
@@ -5862,7 +5891,7 @@
       <c r="X4" s="138"/>
       <c r="Y4" s="138"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="125"/>
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
@@ -5888,10 +5917,10 @@
       <c r="X5" s="138"/>
       <c r="Y5" s="138"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="125"/>
       <c r="C6" s="213" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -5916,10 +5945,10 @@
       <c r="X6" s="138"/>
       <c r="Y6" s="138"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="125"/>
       <c r="C7" s="213" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -5944,7 +5973,7 @@
       <c r="X7" s="138"/>
       <c r="Y7" s="138"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="125"/>
       <c r="C8" s="138"/>
       <c r="D8" s="138"/>
@@ -5969,7 +5998,7 @@
       <c r="X8" s="138"/>
       <c r="Y8" s="138"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="125"/>
       <c r="C9" s="138"/>
       <c r="D9" s="138"/>
@@ -5994,7 +6023,7 @@
       <c r="X9" s="138"/>
       <c r="Y9" s="138"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="125"/>
       <c r="C10" s="138"/>
       <c r="D10" s="138"/>
@@ -6018,7 +6047,7 @@
       <c r="X10" s="138"/>
       <c r="Y10" s="138"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="125"/>
       <c r="C11" s="138"/>
       <c r="D11" s="138"/>
@@ -6026,7 +6055,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="G11" s="211" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="140"/>
       <c r="I11" s="138"/>
@@ -6047,7 +6076,7 @@
       <c r="X11" s="138"/>
       <c r="Y11" s="138"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="125"/>
       <c r="C12" s="138"/>
       <c r="D12" s="138"/>
@@ -6077,7 +6106,7 @@
       <c r="X12" s="138"/>
       <c r="Y12" s="138"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="125"/>
       <c r="C13" s="138"/>
       <c r="D13" s="138"/>
@@ -6108,7 +6137,7 @@
       <c r="X13" s="138"/>
       <c r="Y13" s="138"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="125"/>
       <c r="C14" s="138"/>
       <c r="D14" s="138"/>
@@ -6134,7 +6163,7 @@
       <c r="X14" s="138"/>
       <c r="Y14" s="138"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="125"/>
       <c r="C15" s="138"/>
       <c r="D15" s="138"/>
@@ -6160,7 +6189,7 @@
       <c r="X15" s="138"/>
       <c r="Y15" s="138"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="125"/>
       <c r="C16" s="138"/>
       <c r="D16" s="138"/>
@@ -6186,7 +6215,7 @@
       <c r="X16" s="138"/>
       <c r="Y16" s="138"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="125"/>
       <c r="C17" s="138"/>
       <c r="D17" s="138"/>
@@ -6211,7 +6240,7 @@
       <c r="X17" s="138"/>
       <c r="Y17" s="138"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="125"/>
       <c r="C18" s="138"/>
       <c r="D18" s="138"/>
@@ -6237,7 +6266,7 @@
       <c r="X18" s="138"/>
       <c r="Y18" s="138"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="125"/>
       <c r="C19" s="138"/>
       <c r="D19" s="142"/>
@@ -6263,7 +6292,7 @@
       <c r="X19" s="138"/>
       <c r="Y19" s="138"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="125"/>
       <c r="C20" s="138"/>
       <c r="D20" s="142"/>
@@ -6289,7 +6318,7 @@
       <c r="X20" s="138"/>
       <c r="Y20" s="138"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="125"/>
       <c r="C21" s="138"/>
       <c r="D21" s="142"/>
@@ -6315,7 +6344,7 @@
       <c r="X21" s="138"/>
       <c r="Y21" s="138"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="125"/>
       <c r="C22" s="138"/>
       <c r="D22" s="142"/>
@@ -6341,7 +6370,7 @@
       <c r="X22" s="138"/>
       <c r="Y22" s="138"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="125"/>
       <c r="C23" s="138"/>
       <c r="D23" s="142"/>
@@ -6367,7 +6396,7 @@
       <c r="X23" s="138"/>
       <c r="Y23" s="138"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="125"/>
       <c r="C24" s="138"/>
       <c r="D24" s="142"/>
@@ -6393,7 +6422,7 @@
       <c r="X24" s="138"/>
       <c r="Y24" s="138"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="125"/>
       <c r="C25" s="138"/>
       <c r="D25" s="142"/>
@@ -6419,7 +6448,7 @@
       <c r="X25" s="138"/>
       <c r="Y25" s="138"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="125"/>
       <c r="C26" s="138"/>
       <c r="D26" s="142"/>
@@ -6445,7 +6474,7 @@
       <c r="X26" s="138"/>
       <c r="Y26" s="138"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="125"/>
       <c r="C27" s="138"/>
       <c r="D27" s="142"/>
@@ -6471,7 +6500,7 @@
       <c r="X27" s="138"/>
       <c r="Y27" s="138"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="125"/>
       <c r="C28" s="138"/>
       <c r="D28" s="142"/>
@@ -6497,7 +6526,7 @@
       <c r="X28" s="138"/>
       <c r="Y28" s="138"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="125"/>
       <c r="D29" s="174"/>
       <c r="E29" s="142"/>
@@ -6506,7 +6535,7 @@
       <c r="H29" s="142"/>
       <c r="I29" s="174"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="125"/>
       <c r="D30" s="174"/>
       <c r="E30" s="142"/>
@@ -6515,7 +6544,7 @@
       <c r="H30" s="142"/>
       <c r="I30" s="174"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="125"/>
       <c r="D31" s="174"/>
       <c r="E31" s="174"/>
@@ -6524,7 +6553,7 @@
       <c r="H31" s="174"/>
       <c r="I31" s="174"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="125"/>
       <c r="D32" s="174"/>
       <c r="E32" s="142"/>
@@ -6533,7 +6562,7 @@
       <c r="H32" s="142"/>
       <c r="I32" s="174"/>
     </row>
-    <row r="33" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" customFormat="1">
       <c r="B33" s="125"/>
       <c r="D33" s="174"/>
       <c r="E33" s="142"/>
@@ -6542,7 +6571,7 @@
       <c r="H33" s="142"/>
       <c r="I33" s="174"/>
     </row>
-    <row r="34" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" customFormat="1">
       <c r="B34" s="125"/>
       <c r="D34" s="174"/>
       <c r="E34" s="142"/>
@@ -6551,7 +6580,7 @@
       <c r="H34" s="142"/>
       <c r="I34" s="174"/>
     </row>
-    <row r="35" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" customFormat="1">
       <c r="B35" s="125"/>
       <c r="D35" s="174"/>
       <c r="E35" s="142"/>
@@ -6560,7 +6589,7 @@
       <c r="H35" s="142"/>
       <c r="I35" s="174"/>
     </row>
-    <row r="36" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" customFormat="1">
       <c r="B36" s="125"/>
       <c r="D36" s="174"/>
       <c r="E36" s="142"/>
@@ -6569,7 +6598,7 @@
       <c r="H36" s="142"/>
       <c r="I36" s="174"/>
     </row>
-    <row r="37" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" customFormat="1">
       <c r="B37" s="125"/>
       <c r="D37" s="174"/>
       <c r="E37" s="142"/>
@@ -6578,7 +6607,7 @@
       <c r="H37" s="142"/>
       <c r="I37" s="174"/>
     </row>
-    <row r="38" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" customFormat="1">
       <c r="B38" s="125"/>
       <c r="D38" s="174"/>
       <c r="E38" s="142"/>
@@ -6587,7 +6616,7 @@
       <c r="H38" s="142"/>
       <c r="I38" s="174"/>
     </row>
-    <row r="39" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" customFormat="1">
       <c r="B39" s="125"/>
       <c r="D39" s="174"/>
       <c r="E39" s="174"/>
@@ -6596,7 +6625,7 @@
       <c r="H39" s="174"/>
       <c r="I39" s="174"/>
     </row>
-    <row r="40" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" customFormat="1">
       <c r="B40" s="125"/>
       <c r="D40" s="174"/>
       <c r="E40" s="174"/>
@@ -6605,7 +6634,7 @@
       <c r="H40" s="174"/>
       <c r="I40" s="174"/>
     </row>
-    <row r="41" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" customFormat="1">
       <c r="B41" s="125"/>
       <c r="D41" s="174"/>
       <c r="E41" s="174"/>
@@ -6614,7 +6643,7 @@
       <c r="H41" s="174"/>
       <c r="I41" s="174"/>
     </row>
-    <row r="42" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" customFormat="1">
       <c r="B42" s="125"/>
       <c r="D42" s="174"/>
       <c r="E42" s="174"/>
@@ -6623,7 +6652,7 @@
       <c r="H42" s="174"/>
       <c r="I42" s="174"/>
     </row>
-    <row r="43" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" customFormat="1">
       <c r="B43" s="125"/>
       <c r="D43" s="174"/>
       <c r="E43" s="174"/>
@@ -6632,7 +6661,7 @@
       <c r="H43" s="174"/>
       <c r="I43" s="174"/>
     </row>
-    <row r="44" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" customFormat="1">
       <c r="B44" s="125"/>
       <c r="D44" s="174"/>
       <c r="E44" s="174"/>
@@ -6641,7 +6670,7 @@
       <c r="H44" s="174"/>
       <c r="I44" s="174"/>
     </row>
-    <row r="45" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" customFormat="1">
       <c r="B45" s="125"/>
       <c r="D45" s="174"/>
       <c r="E45" s="174"/>
@@ -6650,7 +6679,7 @@
       <c r="H45" s="174"/>
       <c r="I45" s="174"/>
     </row>
-    <row r="46" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" customFormat="1">
       <c r="B46" s="125"/>
       <c r="D46" s="174"/>
       <c r="E46" s="174"/>
@@ -6659,7 +6688,7 @@
       <c r="H46" s="174"/>
       <c r="I46" s="174"/>
     </row>
-    <row r="47" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" customFormat="1">
       <c r="B47" s="125"/>
       <c r="D47" s="174"/>
       <c r="E47" s="174"/>
@@ -6668,7 +6697,7 @@
       <c r="H47" s="174"/>
       <c r="I47" s="174"/>
     </row>
-    <row r="48" spans="2:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" customFormat="1">
       <c r="B48" s="125"/>
       <c r="D48" s="174"/>
       <c r="E48" s="174"/>
@@ -6677,7 +6706,7 @@
       <c r="H48" s="174"/>
       <c r="I48" s="174"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" customFormat="1">
       <c r="B49" s="125"/>
       <c r="D49" s="174"/>
       <c r="E49" s="174"/>
@@ -6686,7 +6715,7 @@
       <c r="H49" s="174"/>
       <c r="I49" s="174"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" customFormat="1">
       <c r="B50" s="125"/>
       <c r="D50" s="174"/>
       <c r="E50" s="174"/>
@@ -6695,7 +6724,7 @@
       <c r="H50" s="174"/>
       <c r="I50" s="174"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" customFormat="1">
       <c r="B51" s="125"/>
       <c r="D51" s="174"/>
       <c r="E51" s="174"/>
@@ -6704,37 +6733,37 @@
       <c r="H51" s="174"/>
       <c r="I51" s="174"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" customFormat="1">
       <c r="B52" s="125"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" customFormat="1">
       <c r="B53" s="125"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" customFormat="1">
       <c r="B54" s="125"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" customFormat="1">
       <c r="B55" s="125"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" customFormat="1">
       <c r="B56" s="125"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" customFormat="1">
       <c r="B57" s="125"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" customFormat="1">
       <c r="B58" s="125"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" customFormat="1">
       <c r="B59" s="125"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" customFormat="1">
       <c r="B60" s="125"/>
     </row>
-    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="125"/>
     </row>
-    <row r="62" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" s="26" customFormat="1">
       <c r="B62" s="128"/>
       <c r="C62" s="128" t="s">
         <v>25</v>
@@ -6762,7 +6791,7 @@
       <c r="T62" s="128"/>
       <c r="U62" s="128"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" customFormat="1">
       <c r="B63" s="125"/>
       <c r="C63" s="143"/>
       <c r="D63" s="138"/>
@@ -6788,10 +6817,10 @@
       <c r="X63" s="138"/>
       <c r="Y63" s="138"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" customFormat="1" ht="21">
       <c r="B64" s="125"/>
       <c r="C64" s="151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="138"/>
       <c r="E64" s="138"/>
@@ -6816,7 +6845,7 @@
       <c r="X64" s="138"/>
       <c r="Y64" s="138"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="125"/>
       <c r="C65" s="138"/>
       <c r="D65" s="138"/>
@@ -6842,7 +6871,7 @@
       <c r="X65" s="138"/>
       <c r="Y65" s="138"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" customFormat="1">
       <c r="B66" s="125"/>
       <c r="C66" s="138"/>
       <c r="D66" s="138"/>
@@ -6868,34 +6897,34 @@
       <c r="X66" s="138"/>
       <c r="Y66" s="138"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25">
       <c r="B67" s="125"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25">
       <c r="B68" s="125"/>
       <c r="D68" s="124">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25">
       <c r="B69" s="125"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25">
       <c r="B70" s="125"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25">
       <c r="B71" s="125"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25">
       <c r="B72" s="125"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25">
       <c r="B73" s="125"/>
       <c r="E73" s="152" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25">
       <c r="B74" s="125"/>
       <c r="E74" s="138" t="s">
         <v>44</v>
@@ -6906,14 +6935,14 @@
         <v>0</v>
       </c>
       <c r="I74" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J74" s="138"/>
       <c r="K74" s="138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25">
       <c r="B75" s="125"/>
       <c r="E75" s="138" t="s">
         <v>45</v>
@@ -6924,12 +6953,12 @@
         <v>14.7</v>
       </c>
       <c r="I75" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J75" s="138"/>
       <c r="K75" s="138"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25">
       <c r="B76" s="125"/>
       <c r="E76" s="138" t="s">
         <v>49</v>
@@ -6940,12 +6969,12 @@
         <v>9.4</v>
       </c>
       <c r="I76" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J76" s="138"/>
       <c r="K76" s="138"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25">
       <c r="B77" s="125"/>
       <c r="D77" s="138"/>
       <c r="E77" s="138" t="s">
@@ -6957,12 +6986,12 @@
         <v>0.7</v>
       </c>
       <c r="I77" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" s="138"/>
       <c r="K77" s="138"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25">
       <c r="B78" s="125"/>
       <c r="D78" s="138"/>
       <c r="E78" s="138" t="s">
@@ -6974,12 +7003,12 @@
         <v>0</v>
       </c>
       <c r="I78" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J78" s="138"/>
       <c r="K78" s="138"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25">
       <c r="B79" s="125"/>
       <c r="D79" s="138"/>
       <c r="E79" s="138" t="s">
@@ -6991,14 +7020,14 @@
         <v>0</v>
       </c>
       <c r="I79" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J79" s="138"/>
       <c r="K79" s="138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25">
       <c r="B80" s="125"/>
       <c r="D80" s="138"/>
       <c r="E80" s="138"/>
@@ -7008,7 +7037,7 @@
       <c r="I80" s="138"/>
       <c r="J80" s="138"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11">
       <c r="B81" s="125"/>
       <c r="D81" s="138"/>
       <c r="E81" s="138"/>
@@ -7018,7 +7047,7 @@
       <c r="I81" s="138"/>
       <c r="J81" s="138"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11">
       <c r="B82" s="125"/>
       <c r="D82" s="138"/>
       <c r="E82" s="138" t="s">
@@ -7031,14 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I82" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J82" s="138"/>
       <c r="K82" s="138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
       <c r="B83" s="125"/>
       <c r="E83" s="138" t="s">
         <v>45</v>
@@ -7050,12 +7079,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="I83" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J83" s="138"/>
       <c r="K83" s="138"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11">
       <c r="B84" s="125"/>
       <c r="E84" s="138" t="s">
         <v>49</v>
@@ -7067,12 +7096,12 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I84" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J84" s="138"/>
       <c r="K84" s="138"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11">
       <c r="B85" s="125"/>
       <c r="E85" s="138" t="s">
         <v>48</v>
@@ -7084,12 +7113,12 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I85" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J85" s="138"/>
       <c r="K85" s="138"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11">
       <c r="B86" s="125"/>
       <c r="E86" s="138" t="s">
         <v>39</v>
@@ -7101,12 +7130,12 @@
         <v>0</v>
       </c>
       <c r="I86" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J86" s="138"/>
       <c r="K86" s="138"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11">
       <c r="B87" s="125"/>
       <c r="E87" s="138" t="s">
         <v>47</v>
@@ -7118,20 +7147,20 @@
         <v>0</v>
       </c>
       <c r="I87" s="138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J87" s="138"/>
       <c r="K87" s="138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
       <c r="B88" s="125"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11">
       <c r="B89" s="125"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11">
       <c r="B90" s="125"/>
       <c r="E90" s="153"/>
       <c r="F90" s="154"/>
@@ -7141,7 +7170,7 @@
       <c r="J90" s="154"/>
       <c r="K90" s="154"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11">
       <c r="B91" s="125"/>
       <c r="E91" s="138"/>
       <c r="F91" s="138"/>
@@ -7151,7 +7180,7 @@
       <c r="J91" s="138"/>
       <c r="K91" s="138"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11">
       <c r="B92" s="125"/>
       <c r="E92" s="138"/>
       <c r="F92" s="138"/>
@@ -7161,7 +7190,7 @@
       <c r="J92" s="138"/>
       <c r="K92" s="138"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11">
       <c r="B93" s="125"/>
       <c r="E93" s="138"/>
       <c r="F93" s="138"/>
@@ -7171,7 +7200,7 @@
       <c r="J93" s="138"/>
       <c r="K93" s="138"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11">
       <c r="B94" s="125"/>
       <c r="E94" s="138"/>
       <c r="F94" s="138"/>
@@ -7181,7 +7210,7 @@
       <c r="J94" s="138"/>
       <c r="K94" s="138"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11">
       <c r="B95" s="125"/>
       <c r="E95" s="138"/>
       <c r="F95" s="138"/>
@@ -7191,7 +7220,7 @@
       <c r="J95" s="138"/>
       <c r="K95" s="138"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11">
       <c r="B96" s="125"/>
       <c r="E96" s="138"/>
       <c r="F96" s="138"/>
@@ -7201,7 +7230,7 @@
       <c r="J96" s="138"/>
       <c r="K96" s="138"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11">
       <c r="B97" s="125"/>
       <c r="E97" s="138"/>
       <c r="F97" s="138"/>
@@ -7211,7 +7240,7 @@
       <c r="J97" s="138"/>
       <c r="K97" s="154"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11">
       <c r="B98" s="125"/>
       <c r="E98" s="138"/>
       <c r="F98" s="138"/>
@@ -7221,7 +7250,7 @@
       <c r="J98" s="138"/>
       <c r="K98" s="154"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11">
       <c r="B99" s="125"/>
       <c r="E99" s="138"/>
       <c r="F99" s="138"/>
@@ -7231,7 +7260,7 @@
       <c r="J99" s="138"/>
       <c r="K99" s="138"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11">
       <c r="B100" s="125"/>
       <c r="E100" s="138"/>
       <c r="F100" s="138"/>
@@ -7241,7 +7270,7 @@
       <c r="J100" s="138"/>
       <c r="K100" s="138"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11">
       <c r="B101" s="125"/>
       <c r="E101" s="138"/>
       <c r="F101" s="138"/>
@@ -7251,7 +7280,7 @@
       <c r="J101" s="138"/>
       <c r="K101" s="138"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11">
       <c r="B102" s="125"/>
       <c r="E102" s="138"/>
       <c r="F102" s="138"/>
@@ -7261,7 +7290,7 @@
       <c r="J102" s="138"/>
       <c r="K102" s="138"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11">
       <c r="B103" s="125"/>
       <c r="E103" s="138"/>
       <c r="F103" s="138"/>
@@ -7271,7 +7300,7 @@
       <c r="J103" s="138"/>
       <c r="K103" s="138"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11">
       <c r="B104" s="125"/>
       <c r="E104" s="138"/>
       <c r="F104" s="138"/>
@@ -7281,67 +7310,67 @@
       <c r="J104" s="138"/>
       <c r="K104" s="138"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11">
       <c r="B105" s="125"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11">
       <c r="B106" s="125"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11">
       <c r="B107" s="125"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11">
       <c r="B108" s="125"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11">
       <c r="B109" s="125"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11">
       <c r="B110" s="125"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11">
       <c r="B111" s="125"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11">
       <c r="B112" s="125"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25">
       <c r="B113" s="125"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25">
       <c r="B114" s="125"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25">
       <c r="B115" s="125"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25">
       <c r="B116" s="125"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25">
       <c r="B117" s="125"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25">
       <c r="B118" s="125"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25">
       <c r="B119" s="125"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25">
       <c r="B120" s="125"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25">
       <c r="B121" s="125"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25">
       <c r="B122" s="125"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25">
       <c r="B123" s="125"/>
     </row>
-    <row r="124" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="17" thickBot="1">
       <c r="B124" s="125"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25">
       <c r="A125" s="160"/>
       <c r="B125" s="161"/>
       <c r="C125" s="161" t="s">
@@ -7374,7 +7403,7 @@
       <c r="X125" s="160"/>
       <c r="Y125" s="160"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25">
       <c r="A126" s="162"/>
       <c r="B126" s="163"/>
       <c r="C126" s="138"/>
@@ -7401,11 +7430,11 @@
       <c r="X126" s="138"/>
       <c r="Y126" s="138"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25">
       <c r="A127" s="162"/>
       <c r="B127" s="163"/>
       <c r="C127" s="160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D127" s="138"/>
       <c r="E127" s="138"/>
@@ -7430,11 +7459,11 @@
       <c r="X127" s="138"/>
       <c r="Y127" s="138"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25">
       <c r="A128" s="162"/>
       <c r="B128" s="163"/>
       <c r="C128" s="164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D128" s="138"/>
       <c r="E128" s="138"/>
@@ -7459,7 +7488,7 @@
       <c r="X128" s="138"/>
       <c r="Y128" s="138"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25">
       <c r="A129" s="162"/>
       <c r="B129" s="163"/>
       <c r="C129" s="138"/>
@@ -7486,12 +7515,12 @@
       <c r="X129" s="138"/>
       <c r="Y129" s="138"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25">
       <c r="A130" s="162"/>
       <c r="B130" s="163"/>
       <c r="C130" s="138"/>
       <c r="D130" s="138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E130" s="138"/>
       <c r="F130" s="138"/>
@@ -7515,7 +7544,7 @@
       <c r="X130" s="138"/>
       <c r="Y130" s="138"/>
     </row>
-    <row r="131" spans="1:25" ht="39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="48">
       <c r="A131" s="162"/>
       <c r="B131" s="163"/>
       <c r="C131" s="138"/>
@@ -7526,16 +7555,16 @@
       <c r="F131" s="138"/>
       <c r="G131" s="138"/>
       <c r="H131" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="I131" s="182" t="s">
-        <v>85</v>
-      </c>
       <c r="J131" s="183" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K131" s="171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L131" s="138"/>
       <c r="M131" s="138"/>
@@ -7549,12 +7578,12 @@
       <c r="U131" s="138"/>
       <c r="V131" s="138"/>
     </row>
-    <row r="132" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="17" thickBot="1">
       <c r="A132" s="162"/>
       <c r="B132" s="163"/>
       <c r="C132" s="138"/>
       <c r="D132" s="138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E132" s="162"/>
       <c r="F132" s="138"/>
@@ -7562,10 +7591,10 @@
       <c r="H132" s="166"/>
       <c r="I132" s="167"/>
       <c r="J132" s="184" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K132" s="172" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L132" s="138"/>
       <c r="M132" s="138"/>
@@ -7579,20 +7608,20 @@
       <c r="U132" s="138"/>
       <c r="V132" s="138"/>
     </row>
-    <row r="133" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="17" thickBot="1">
       <c r="A133" s="162"/>
       <c r="B133" s="163"/>
       <c r="C133" s="138"/>
       <c r="D133" s="138"/>
       <c r="E133" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F133" s="168">
         <f>AVERAGE(J133:J137)</f>
         <v>401.60399999999998</v>
       </c>
       <c r="G133" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H133" s="169">
         <v>42408</v>
@@ -7618,20 +7647,20 @@
       <c r="U133" s="138"/>
       <c r="V133" s="138"/>
     </row>
-    <row r="134" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="17" thickBot="1">
       <c r="A134" s="162"/>
       <c r="B134" s="163"/>
       <c r="C134" s="138"/>
       <c r="D134" s="138"/>
       <c r="E134" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F134" s="170">
         <f>F133/1000</f>
         <v>0.40160399999999996</v>
       </c>
       <c r="G134" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H134" s="169">
         <v>42401</v>
@@ -7657,7 +7686,7 @@
       <c r="U134" s="138"/>
       <c r="V134" s="138"/>
     </row>
-    <row r="135" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="17" thickBot="1">
       <c r="A135" s="162"/>
       <c r="B135" s="163"/>
       <c r="C135" s="138"/>
@@ -7689,22 +7718,22 @@
       <c r="U135" s="138"/>
       <c r="V135" s="138"/>
     </row>
-    <row r="136" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="17" thickBot="1">
       <c r="A136" s="162"/>
       <c r="B136" s="163"/>
       <c r="C136" s="138"/>
       <c r="D136" s="138" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E136" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F136" s="168">
         <f>AVERAGE(K133:K137)</f>
         <v>1427.2</v>
       </c>
       <c r="G136" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H136" s="169">
         <v>42387</v>
@@ -7730,20 +7759,20 @@
       <c r="U136" s="138"/>
       <c r="V136" s="138"/>
     </row>
-    <row r="137" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="17" thickBot="1">
       <c r="A137" s="162"/>
       <c r="B137" s="163"/>
       <c r="C137" s="138"/>
       <c r="D137" s="138"/>
       <c r="E137" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F137" s="170">
         <f>F136/1000</f>
         <v>1.4272</v>
       </c>
       <c r="G137" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H137" s="169">
         <v>42380</v>
@@ -7769,7 +7798,7 @@
       <c r="U137" s="138"/>
       <c r="V137" s="138"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25">
       <c r="A138" s="162"/>
       <c r="B138" s="163"/>
       <c r="C138" s="138"/>
@@ -7801,12 +7830,12 @@
       <c r="U138" s="138"/>
       <c r="V138" s="138"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25">
       <c r="A139" s="162"/>
       <c r="B139" s="163"/>
       <c r="C139" s="138"/>
       <c r="D139" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E139" s="138"/>
       <c r="F139" s="173"/>
@@ -7835,21 +7864,21 @@
       <c r="U139" s="138"/>
       <c r="V139" s="138"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25">
       <c r="A140" s="162"/>
       <c r="B140" s="163"/>
       <c r="C140" s="138"/>
       <c r="D140" s="138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E140" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F140" s="138">
         <v>21</v>
       </c>
       <c r="G140" s="138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H140" s="169">
         <v>42345</v>
@@ -7875,22 +7904,22 @@
       <c r="U140" s="138"/>
       <c r="V140" s="138"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25">
       <c r="A141" s="162"/>
       <c r="B141" s="163"/>
       <c r="C141" s="138"/>
       <c r="D141" s="138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E141" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F141" s="138">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G141" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H141" s="169">
         <v>42338</v>
@@ -7916,22 +7945,22 @@
       <c r="U141" s="138"/>
       <c r="V141" s="138"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25">
       <c r="A142" s="162"/>
       <c r="B142" s="163"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E142" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F142" s="173">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G142" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H142" s="169">
         <v>42331</v>
@@ -7957,7 +7986,7 @@
       <c r="U142" s="138"/>
       <c r="V142" s="138"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25">
       <c r="A143" s="162"/>
       <c r="B143" s="163"/>
       <c r="C143" s="138"/>
@@ -7989,22 +8018,22 @@
       <c r="U143" s="138"/>
       <c r="V143" s="138"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25">
       <c r="A144" s="162"/>
       <c r="B144" s="163"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E144" s="162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F144" s="173">
         <f>(F142+F141+F134)*1.21</f>
         <v>1.4225655399999999</v>
       </c>
       <c r="G144" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H144" s="169">
         <v>42317</v>
@@ -8030,7 +8059,7 @@
       <c r="U144" s="138"/>
       <c r="V144" s="138"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22">
       <c r="A145" s="162"/>
       <c r="B145" s="163"/>
       <c r="C145" s="138"/>
@@ -8062,7 +8091,7 @@
       <c r="U145" s="138"/>
       <c r="V145" s="138"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22">
       <c r="A146" s="162"/>
       <c r="B146" s="163"/>
       <c r="C146" s="138"/>
@@ -8094,7 +8123,7 @@
       <c r="U146" s="138"/>
       <c r="V146" s="138"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22">
       <c r="A147" s="162"/>
       <c r="B147" s="163"/>
       <c r="C147" s="138"/>
@@ -8126,7 +8155,7 @@
       <c r="U147" s="138"/>
       <c r="V147" s="138"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22">
       <c r="A148" s="162"/>
       <c r="B148" s="163"/>
       <c r="C148" s="138"/>
@@ -8158,7 +8187,7 @@
       <c r="U148" s="138"/>
       <c r="V148" s="138"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22">
       <c r="A149" s="162"/>
       <c r="B149" s="163"/>
       <c r="C149" s="138"/>
@@ -8190,7 +8219,7 @@
       <c r="U149" s="138"/>
       <c r="V149" s="138"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22">
       <c r="A150" s="162"/>
       <c r="B150" s="163"/>
       <c r="C150" s="138"/>
@@ -8222,7 +8251,7 @@
       <c r="U150" s="138"/>
       <c r="V150" s="138"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22">
       <c r="A151" s="162"/>
       <c r="B151" s="163"/>
       <c r="C151" s="138"/>
@@ -8254,7 +8283,7 @@
       <c r="U151" s="138"/>
       <c r="V151" s="138"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22">
       <c r="A152" s="162"/>
       <c r="B152" s="163"/>
       <c r="C152" s="162"/>
@@ -8286,7 +8315,7 @@
       <c r="U152" s="162"/>
       <c r="V152" s="162"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22">
       <c r="A153" s="162"/>
       <c r="B153" s="163"/>
       <c r="C153" s="162"/>
@@ -8318,7 +8347,7 @@
       <c r="U153" s="162"/>
       <c r="V153" s="162"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22">
       <c r="A154" s="162"/>
       <c r="B154" s="163"/>
       <c r="C154" s="162"/>
@@ -8350,7 +8379,7 @@
       <c r="U154" s="162"/>
       <c r="V154" s="162"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22">
       <c r="A155" s="162"/>
       <c r="B155" s="163"/>
       <c r="C155" s="162"/>
@@ -8382,7 +8411,7 @@
       <c r="U155" s="162"/>
       <c r="V155" s="162"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22">
       <c r="A156" s="162"/>
       <c r="B156" s="163"/>
       <c r="C156" s="162"/>
@@ -8414,7 +8443,7 @@
       <c r="U156" s="162"/>
       <c r="V156" s="162"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22">
       <c r="A157" s="162"/>
       <c r="B157" s="163"/>
       <c r="C157" s="162"/>
@@ -8446,7 +8475,7 @@
       <c r="U157" s="162"/>
       <c r="V157" s="162"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22">
       <c r="A158" s="162"/>
       <c r="B158" s="163"/>
       <c r="C158" s="162"/>
@@ -8478,7 +8507,7 @@
       <c r="U158" s="162"/>
       <c r="V158" s="162"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22">
       <c r="A159" s="162"/>
       <c r="B159" s="163"/>
       <c r="C159" s="162"/>
@@ -8510,7 +8539,7 @@
       <c r="U159" s="162"/>
       <c r="V159" s="162"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22">
       <c r="A160" s="162"/>
       <c r="B160" s="163"/>
       <c r="C160" s="162"/>
@@ -8542,7 +8571,7 @@
       <c r="U160" s="162"/>
       <c r="V160" s="162"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25">
       <c r="A161" s="162"/>
       <c r="B161" s="163"/>
       <c r="C161" s="162"/>
@@ -8574,7 +8603,7 @@
       <c r="U161" s="162"/>
       <c r="V161" s="162"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25">
       <c r="A162" s="162"/>
       <c r="B162" s="163"/>
       <c r="C162" s="162"/>
@@ -8606,8 +8635,8 @@
       <c r="U162" s="162"/>
       <c r="V162" s="162"/>
     </row>
-    <row r="167" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="17" thickBot="1"/>
+    <row r="168" spans="1:25">
       <c r="B168" s="196"/>
       <c r="C168" s="161" t="s">
         <v>25</v>
@@ -8639,7 +8668,7 @@
       <c r="X168" s="160"/>
       <c r="Y168" s="160"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25">
       <c r="B169" s="163"/>
       <c r="C169" s="154"/>
       <c r="D169" s="154"/>
@@ -8665,10 +8694,10 @@
       <c r="X169" s="154"/>
       <c r="Y169" s="154"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25">
       <c r="B170" s="163"/>
       <c r="C170" s="197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D170" s="198"/>
       <c r="E170" s="198"/>
@@ -8693,7 +8722,7 @@
       <c r="X170" s="138"/>
       <c r="Y170" s="138"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25">
       <c r="B171" s="163"/>
       <c r="C171" s="138"/>
       <c r="D171" s="138"/>
@@ -8719,7 +8748,7 @@
       <c r="X171" s="138"/>
       <c r="Y171" s="138"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25">
       <c r="B172" s="163"/>
       <c r="C172" s="138"/>
       <c r="D172" s="138"/>
@@ -8745,7 +8774,7 @@
       <c r="X172" s="138"/>
       <c r="Y172" s="138"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25">
       <c r="B173" s="163"/>
       <c r="C173" s="162"/>
       <c r="D173" s="162"/>
@@ -8771,7 +8800,7 @@
       <c r="X173" s="162"/>
       <c r="Y173" s="162"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25">
       <c r="B174" s="163"/>
       <c r="C174" s="162"/>
       <c r="D174" s="162"/>
@@ -8797,7 +8826,7 @@
       <c r="X174" s="162"/>
       <c r="Y174" s="162"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25">
       <c r="B175" s="163"/>
       <c r="C175" s="162"/>
       <c r="D175" s="162"/>
@@ -8823,7 +8852,7 @@
       <c r="X175" s="162"/>
       <c r="Y175" s="162"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25">
       <c r="B176" s="163"/>
       <c r="C176" s="162"/>
       <c r="D176" s="162"/>
@@ -8849,7 +8878,7 @@
       <c r="X176" s="162"/>
       <c r="Y176" s="162"/>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:25">
       <c r="B177" s="163"/>
       <c r="C177" s="162"/>
       <c r="D177" s="162"/>
@@ -8875,7 +8904,7 @@
       <c r="X177" s="162"/>
       <c r="Y177" s="162"/>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:25">
       <c r="B178" s="163"/>
       <c r="C178" s="162"/>
       <c r="D178" s="162"/>
@@ -8901,7 +8930,7 @@
       <c r="X178" s="162"/>
       <c r="Y178" s="162"/>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:25">
       <c r="B179" s="163"/>
       <c r="C179" s="162"/>
       <c r="D179" s="162"/>
@@ -8927,7 +8956,7 @@
       <c r="X179" s="162"/>
       <c r="Y179" s="162"/>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:25">
       <c r="B180" s="163"/>
       <c r="C180" s="162"/>
       <c r="D180" s="162"/>
@@ -8953,7 +8982,7 @@
       <c r="X180" s="162"/>
       <c r="Y180" s="162"/>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:25">
       <c r="B181" s="163"/>
       <c r="C181" s="162"/>
       <c r="D181" s="162"/>
@@ -8979,7 +9008,7 @@
       <c r="X181" s="162"/>
       <c r="Y181" s="162"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:25">
       <c r="B182" s="163"/>
       <c r="C182" s="162"/>
       <c r="D182" s="162"/>
@@ -9005,7 +9034,7 @@
       <c r="X182" s="162"/>
       <c r="Y182" s="162"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:25">
       <c r="B183" s="163"/>
       <c r="C183" s="162"/>
       <c r="D183" s="162"/>
@@ -9031,7 +9060,7 @@
       <c r="X183" s="162"/>
       <c r="Y183" s="162"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:25">
       <c r="B184" s="163"/>
       <c r="C184" s="162"/>
       <c r="D184" s="162"/>
@@ -9057,7 +9086,7 @@
       <c r="X184" s="162"/>
       <c r="Y184" s="162"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:25">
       <c r="B185" s="201"/>
       <c r="C185" s="202"/>
       <c r="D185" s="202"/>
@@ -9083,7 +9112,7 @@
       <c r="X185" s="162"/>
       <c r="Y185" s="162"/>
     </row>
-    <row r="186" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:25">
       <c r="B186" s="201"/>
       <c r="C186" s="202"/>
       <c r="D186" s="202"/>
@@ -9109,7 +9138,7 @@
       <c r="X186" s="162"/>
       <c r="Y186" s="162"/>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:25">
       <c r="B187" s="201"/>
       <c r="C187" s="202"/>
       <c r="D187" s="202"/>
@@ -9135,7 +9164,7 @@
       <c r="X187" s="162"/>
       <c r="Y187" s="162"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:25">
       <c r="B188" s="201"/>
       <c r="C188" s="202"/>
       <c r="D188" s="202"/>
@@ -9161,7 +9190,7 @@
       <c r="X188" s="162"/>
       <c r="Y188" s="162"/>
     </row>
-    <row r="189" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:25">
       <c r="B189" s="201"/>
       <c r="C189" s="202"/>
       <c r="D189" s="202"/>
@@ -9187,7 +9216,7 @@
       <c r="X189" s="162"/>
       <c r="Y189" s="162"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:25">
       <c r="B190" s="201"/>
       <c r="C190" s="202"/>
       <c r="D190" s="202"/>
@@ -9213,7 +9242,7 @@
       <c r="X190" s="162"/>
       <c r="Y190" s="162"/>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:25">
       <c r="B191" s="201"/>
       <c r="C191" s="202"/>
       <c r="D191" s="202"/>
@@ -9239,7 +9268,7 @@
       <c r="X191" s="162"/>
       <c r="Y191" s="162"/>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:25">
       <c r="B192" s="201"/>
       <c r="C192" s="202"/>
       <c r="D192" s="202"/>
@@ -9265,7 +9294,7 @@
       <c r="X192" s="162"/>
       <c r="Y192" s="162"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16">
       <c r="B193" s="203"/>
       <c r="C193" s="203"/>
       <c r="D193" s="203"/>
@@ -9282,7 +9311,7 @@
       <c r="O193" s="203"/>
       <c r="P193" s="203"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16">
       <c r="B194" s="203"/>
       <c r="C194" s="203"/>
       <c r="D194" s="203"/>
@@ -9299,7 +9328,7 @@
       <c r="O194" s="203"/>
       <c r="P194" s="203"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16">
       <c r="B195" s="203"/>
       <c r="C195" s="203"/>
       <c r="D195" s="203"/>
@@ -9312,10 +9341,10 @@
         <v>79600</v>
       </c>
       <c r="I195" s="204" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J195" s="206" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K195" s="203"/>
       <c r="L195" s="203"/>
@@ -9324,7 +9353,7 @@
       <c r="O195" s="203"/>
       <c r="P195" s="203"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16">
       <c r="B196" s="203"/>
       <c r="C196" s="203"/>
       <c r="D196" s="203"/>
@@ -9336,7 +9365,7 @@
         <v>1000000</v>
       </c>
       <c r="I196" s="204" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J196" s="203"/>
       <c r="K196" s="203"/>
@@ -9346,7 +9375,7 @@
       <c r="O196" s="203"/>
       <c r="P196" s="203"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16">
       <c r="B197" s="203"/>
       <c r="C197" s="203"/>
       <c r="D197" s="203"/>
@@ -9358,7 +9387,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="I197" s="204" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J197" s="203"/>
       <c r="K197" s="203"/>
@@ -9368,7 +9397,7 @@
       <c r="O197" s="203"/>
       <c r="P197" s="203"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16">
       <c r="B198" s="203"/>
       <c r="C198" s="203"/>
       <c r="D198" s="203"/>
@@ -9385,7 +9414,7 @@
       <c r="O198" s="203"/>
       <c r="P198" s="203"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16">
       <c r="B199" s="203"/>
       <c r="C199" s="203"/>
       <c r="D199" s="203"/>
@@ -9402,7 +9431,7 @@
       <c r="O199" s="203"/>
       <c r="P199" s="203"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16">
       <c r="B200" s="203"/>
       <c r="C200" s="203"/>
       <c r="D200" s="203"/>
@@ -9419,7 +9448,7 @@
       <c r="O200" s="203"/>
       <c r="P200" s="203"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16">
       <c r="B201" s="203"/>
       <c r="C201" s="203"/>
       <c r="D201" s="203"/>
@@ -9436,7 +9465,7 @@
       <c r="O201" s="203"/>
       <c r="P201" s="203"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16">
       <c r="B202" s="203"/>
       <c r="C202" s="203"/>
       <c r="D202" s="203"/>
@@ -9453,7 +9482,7 @@
       <c r="O202" s="203"/>
       <c r="P202" s="203"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16">
       <c r="B203" s="203"/>
       <c r="C203" s="203"/>
       <c r="D203" s="203"/>
@@ -9461,7 +9490,7 @@
       <c r="F203" s="203"/>
       <c r="G203" s="203"/>
       <c r="H203" s="208" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I203" s="203"/>
       <c r="J203" s="203"/>
@@ -9472,7 +9501,7 @@
       <c r="O203" s="203"/>
       <c r="P203" s="203"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16">
       <c r="B204" s="203"/>
       <c r="C204" s="203"/>
       <c r="D204" s="203"/>
@@ -9489,7 +9518,7 @@
       <c r="O204" s="203"/>
       <c r="P204" s="203"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:16">
       <c r="B205" s="203"/>
       <c r="C205" s="203"/>
       <c r="D205" s="203"/>
@@ -9500,7 +9529,7 @@
         <v>27.4</v>
       </c>
       <c r="I205" s="208" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J205" s="203"/>
       <c r="K205" s="203"/>
@@ -9510,7 +9539,7 @@
       <c r="O205" s="203"/>
       <c r="P205" s="203"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16">
       <c r="B206" s="203"/>
       <c r="C206" s="203"/>
       <c r="D206" s="203"/>
@@ -9522,7 +9551,7 @@
         <v>1000000</v>
       </c>
       <c r="I206" s="208" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J206" s="203"/>
       <c r="K206" s="203"/>
@@ -9532,7 +9561,7 @@
       <c r="O206" s="203"/>
       <c r="P206" s="203"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16">
       <c r="B207" s="203"/>
       <c r="C207" s="203"/>
       <c r="D207" s="203"/>
@@ -9544,7 +9573,7 @@
         <v>1000000</v>
       </c>
       <c r="I207" s="208" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J207" s="203"/>
       <c r="K207" s="203"/>
@@ -9554,7 +9583,7 @@
       <c r="O207" s="203"/>
       <c r="P207" s="203"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:16">
       <c r="B208" s="203"/>
       <c r="C208" s="203"/>
       <c r="D208" s="203"/>
@@ -9576,7 +9605,7 @@
       <c r="O208" s="203"/>
       <c r="P208" s="203"/>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:16">
       <c r="B209" s="203"/>
       <c r="C209" s="203"/>
       <c r="D209" s="203"/>
@@ -9593,7 +9622,7 @@
       <c r="O209" s="203"/>
       <c r="P209" s="203"/>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:16">
       <c r="B210" s="203"/>
       <c r="C210" s="203"/>
       <c r="D210" s="203"/>
@@ -9610,7 +9639,7 @@
       <c r="O210" s="203"/>
       <c r="P210" s="203"/>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:16">
       <c r="B211" s="203"/>
       <c r="C211" s="203"/>
       <c r="D211" s="203"/>
@@ -9627,7 +9656,7 @@
       <c r="O211" s="203"/>
       <c r="P211" s="203"/>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:16">
       <c r="B212" s="203"/>
       <c r="C212" s="203"/>
       <c r="D212" s="203"/>
@@ -9642,7 +9671,7 @@
       <c r="O212" s="203"/>
       <c r="P212" s="203"/>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:16">
       <c r="B213" s="203"/>
       <c r="C213" s="203"/>
       <c r="D213" s="203"/>
@@ -9657,7 +9686,7 @@
       <c r="O213" s="203"/>
       <c r="P213" s="203"/>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:16">
       <c r="B214" s="203"/>
       <c r="C214" s="203"/>
       <c r="D214" s="203"/>
@@ -9674,8 +9703,8 @@
       <c r="O214" s="203"/>
       <c r="P214" s="203"/>
     </row>
-    <row r="245" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:25" ht="17" thickBot="1"/>
+    <row r="246" spans="2:25">
       <c r="B246" s="196"/>
       <c r="C246" s="161" t="s">
         <v>25</v>
@@ -9707,7 +9736,7 @@
       <c r="X246" s="160"/>
       <c r="Y246" s="160"/>
     </row>
-    <row r="247" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:25">
       <c r="B247" s="163"/>
       <c r="C247" s="154"/>
       <c r="D247" s="154"/>
@@ -9733,9 +9762,9 @@
       <c r="X247" s="154"/>
       <c r="Y247" s="154"/>
     </row>
-    <row r="248" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:25">
       <c r="C248" s="138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D248" s="138"/>
       <c r="E248" s="138"/>
@@ -9745,7 +9774,7 @@
       <c r="I248" s="138"/>
       <c r="J248" s="138"/>
     </row>
-    <row r="249" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:25">
       <c r="C249" s="138"/>
       <c r="D249" s="138"/>
       <c r="E249" s="138"/>
@@ -9755,7 +9784,7 @@
       <c r="I249" s="138"/>
       <c r="J249" s="138"/>
     </row>
-    <row r="250" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:25">
       <c r="C250" s="138"/>
       <c r="D250" s="138">
         <v>17</v>
@@ -9767,7 +9796,7 @@
       <c r="I250" s="138"/>
       <c r="J250" s="138"/>
     </row>
-    <row r="251" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:25">
       <c r="C251" s="138"/>
       <c r="D251" s="138"/>
       <c r="E251" s="138"/>
@@ -9777,7 +9806,7 @@
       <c r="I251" s="138"/>
       <c r="J251" s="138"/>
     </row>
-    <row r="252" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:25">
       <c r="C252" s="138"/>
       <c r="D252" s="138"/>
       <c r="E252" s="138"/>
@@ -9787,7 +9816,7 @@
       <c r="I252" s="138"/>
       <c r="J252" s="138"/>
     </row>
-    <row r="253" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:25">
       <c r="C253" s="138"/>
       <c r="D253" s="138"/>
       <c r="E253" s="138"/>
@@ -9797,7 +9826,7 @@
       <c r="I253" s="138"/>
       <c r="J253" s="138"/>
     </row>
-    <row r="254" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:25">
       <c r="C254" s="138"/>
       <c r="D254" s="138"/>
       <c r="E254" s="138"/>
@@ -9807,7 +9836,7 @@
       <c r="I254" s="138"/>
       <c r="J254" s="138"/>
     </row>
-    <row r="255" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:25">
       <c r="C255" s="138"/>
       <c r="D255" s="138">
         <v>26</v>
@@ -9819,10 +9848,10 @@
       <c r="I255" s="138"/>
       <c r="J255" s="138"/>
     </row>
-    <row r="256" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:25">
       <c r="C256" s="138"/>
       <c r="D256" s="218" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E256" s="138"/>
       <c r="F256" s="138"/>
@@ -9831,7 +9860,7 @@
       <c r="I256" s="138"/>
       <c r="J256" s="138"/>
     </row>
-    <row r="257" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:10">
       <c r="C257" s="138"/>
       <c r="D257" s="138"/>
       <c r="E257" s="138"/>
@@ -9841,7 +9870,7 @@
       <c r="I257" s="138"/>
       <c r="J257" s="138"/>
     </row>
-    <row r="258" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:10">
       <c r="C258" s="138"/>
       <c r="D258" s="138"/>
       <c r="E258" s="138"/>
@@ -9851,7 +9880,7 @@
       <c r="I258" s="138"/>
       <c r="J258" s="138"/>
     </row>
-    <row r="259" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:10">
       <c r="C259" s="138"/>
       <c r="D259" s="138"/>
       <c r="E259" s="138"/>
@@ -9861,7 +9890,7 @@
       <c r="I259" s="138"/>
       <c r="J259" s="138"/>
     </row>
-    <row r="260" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:10">
       <c r="C260" s="138"/>
       <c r="D260" s="138"/>
       <c r="E260" s="138"/>
@@ -9871,7 +9900,7 @@
       <c r="I260" s="138"/>
       <c r="J260" s="138"/>
     </row>
-    <row r="261" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:10">
       <c r="C261" s="138"/>
       <c r="D261" s="138"/>
       <c r="E261" s="138"/>
@@ -9881,7 +9910,7 @@
       <c r="I261" s="138"/>
       <c r="J261" s="138"/>
     </row>
-    <row r="262" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:10">
       <c r="C262" s="138"/>
       <c r="D262" s="138"/>
       <c r="E262" s="138"/>
@@ -9891,7 +9920,7 @@
       <c r="I262" s="138"/>
       <c r="J262" s="138"/>
     </row>
-    <row r="263" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:10">
       <c r="C263" s="138"/>
       <c r="D263" s="138"/>
       <c r="E263" s="138"/>
@@ -9901,7 +9930,7 @@
       <c r="I263" s="138"/>
       <c r="J263" s="138"/>
     </row>
-    <row r="264" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:10">
       <c r="C264" s="138"/>
       <c r="D264" s="138"/>
       <c r="E264" s="138"/>
@@ -9911,7 +9940,7 @@
       <c r="I264" s="138"/>
       <c r="J264" s="138"/>
     </row>
-    <row r="265" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:10">
       <c r="C265" s="138"/>
       <c r="D265" s="138"/>
       <c r="E265" s="138"/>
@@ -9921,7 +9950,7 @@
       <c r="I265" s="138"/>
       <c r="J265" s="138"/>
     </row>
-    <row r="266" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:10">
       <c r="C266" s="138"/>
       <c r="D266" s="138"/>
       <c r="E266" s="138"/>
@@ -9931,7 +9960,7 @@
       <c r="I266" s="138"/>
       <c r="J266" s="138"/>
     </row>
-    <row r="267" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:10">
       <c r="C267" s="138"/>
       <c r="D267" s="138"/>
       <c r="E267" s="138"/>
@@ -9941,7 +9970,7 @@
       <c r="I267" s="138"/>
       <c r="J267" s="138"/>
     </row>
-    <row r="268" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:10">
       <c r="C268" s="138"/>
       <c r="D268" s="138"/>
       <c r="E268" s="138"/>
@@ -9951,7 +9980,7 @@
       <c r="I268" s="138"/>
       <c r="J268" s="138"/>
     </row>
-    <row r="269" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:10">
       <c r="C269" s="138"/>
       <c r="D269" s="215"/>
       <c r="E269" s="138"/>
@@ -9961,7 +9990,7 @@
       <c r="I269" s="138"/>
       <c r="J269" s="138"/>
     </row>
-    <row r="270" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:10">
       <c r="C270" s="138"/>
       <c r="D270" s="138"/>
       <c r="E270" s="138"/>
@@ -9971,7 +10000,7 @@
       <c r="I270" s="138"/>
       <c r="J270" s="138"/>
     </row>
-    <row r="271" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:10">
       <c r="C271" s="138"/>
       <c r="D271" s="138">
         <v>26</v>
@@ -9983,7 +10012,7 @@
       <c r="I271" s="138"/>
       <c r="J271" s="138"/>
     </row>
-    <row r="272" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:10">
       <c r="C272" s="138"/>
       <c r="D272" s="138"/>
       <c r="E272" s="138"/>
@@ -9993,7 +10022,7 @@
       <c r="I272" s="138"/>
       <c r="J272" s="138"/>
     </row>
-    <row r="273" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:10">
       <c r="C273" s="138"/>
       <c r="D273" s="138"/>
       <c r="E273" s="138"/>
@@ -10003,7 +10032,7 @@
       <c r="I273" s="138"/>
       <c r="J273" s="138"/>
     </row>
-    <row r="274" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:10">
       <c r="C274" s="138"/>
       <c r="D274" s="138"/>
       <c r="E274" s="215"/>
@@ -10013,11 +10042,11 @@
       <c r="I274" s="215"/>
       <c r="J274" s="215"/>
     </row>
-    <row r="275" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:10">
       <c r="C275" s="138"/>
       <c r="D275" s="138"/>
       <c r="E275" s="141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F275" s="215"/>
       <c r="G275" s="215"/>
@@ -10025,7 +10054,7 @@
       <c r="I275" s="215"/>
       <c r="J275" s="215"/>
     </row>
-    <row r="276" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:10">
       <c r="C276" s="138"/>
       <c r="D276" s="138"/>
       <c r="E276" s="215"/>
@@ -10033,55 +10062,55 @@
         <v>1600</v>
       </c>
       <c r="G276" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="H276" s="138" t="s">
         <v>144</v>
-      </c>
-      <c r="H276" s="138" t="s">
-        <v>145</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
     </row>
-    <row r="277" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:10">
       <c r="C277" s="138"/>
       <c r="D277" s="138"/>
       <c r="E277" s="138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F277" s="138">
         <v>4.5</v>
       </c>
       <c r="G277" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="H277" s="138" t="s">
         <v>147</v>
-      </c>
-      <c r="H277" s="138" t="s">
-        <v>148</v>
       </c>
       <c r="I277" s="138">
         <v>1485</v>
       </c>
       <c r="J277" s="138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="278" spans="3:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="278" spans="3:10">
       <c r="C278" s="138"/>
       <c r="D278" s="138"/>
       <c r="E278" s="138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F278" s="138">
         <v>3.25</v>
       </c>
       <c r="G278" s="138" t="s">
+        <v>150</v>
+      </c>
+      <c r="H278" s="138" t="s">
         <v>151</v>
-      </c>
-      <c r="H278" s="138" t="s">
-        <v>152</v>
       </c>
       <c r="I278"/>
       <c r="J278"/>
     </row>
-    <row r="279" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:10">
       <c r="C279" s="138"/>
       <c r="D279" s="138"/>
       <c r="E279" s="138"/>
@@ -10091,7 +10120,7 @@
       <c r="I279"/>
       <c r="J279"/>
     </row>
-    <row r="280" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:10">
       <c r="C280" s="138"/>
       <c r="D280" s="138"/>
       <c r="E280" s="138"/>
@@ -10100,13 +10129,13 @@
         <v>160000</v>
       </c>
       <c r="G280" s="138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H280" s="138"/>
       <c r="I280"/>
       <c r="J280"/>
     </row>
-    <row r="281" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:10">
       <c r="C281" s="138"/>
       <c r="D281" s="138"/>
       <c r="E281" s="138"/>
@@ -10121,8 +10150,8 @@
       <c r="I281"/>
       <c r="J281"/>
     </row>
-    <row r="290" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:28" ht="17" thickBot="1"/>
+    <row r="291" spans="2:28">
       <c r="B291" s="127"/>
       <c r="C291" s="128" t="s">
         <v>25</v>
@@ -10157,7 +10186,7 @@
       <c r="AA291" s="26"/>
       <c r="AB291" s="26"/>
     </row>
-    <row r="292" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:28">
       <c r="B292" s="221"/>
       <c r="C292" s="222"/>
       <c r="D292" s="222"/>
@@ -10186,7 +10215,7 @@
       <c r="AA292" s="215"/>
       <c r="AB292" s="215"/>
     </row>
-    <row r="293" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:28">
       <c r="B293" s="221"/>
       <c r="C293" s="138" t="s">
         <v>62</v>
@@ -10217,7 +10246,7 @@
       <c r="AA293"/>
       <c r="AB293"/>
     </row>
-    <row r="294" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:28">
       <c r="B294" s="221"/>
       <c r="C294" s="138"/>
       <c r="D294" s="138"/>
@@ -10246,7 +10275,7 @@
       <c r="AA294"/>
       <c r="AB294"/>
     </row>
-    <row r="295" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:28">
       <c r="B295" s="221"/>
       <c r="C295" s="138"/>
       <c r="D295" s="138"/>
@@ -10275,7 +10304,7 @@
       <c r="AA295"/>
       <c r="AB295"/>
     </row>
-    <row r="296" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:28">
       <c r="B296" s="221"/>
       <c r="C296" s="138"/>
       <c r="D296" s="138"/>
@@ -10304,21 +10333,21 @@
       <c r="AA296"/>
       <c r="AB296"/>
     </row>
-    <row r="297" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:28">
       <c r="B297" s="221"/>
       <c r="C297" s="138"/>
       <c r="D297" s="138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E297"/>
       <c r="F297" s="138">
         <v>890</v>
       </c>
       <c r="G297" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="H297" s="140" t="s">
         <v>154</v>
-      </c>
-      <c r="H297" s="140" t="s">
-        <v>155</v>
       </c>
       <c r="I297" s="138"/>
       <c r="J297" s="138"/>
@@ -10341,7 +10370,7 @@
       <c r="AA297"/>
       <c r="AB297"/>
     </row>
-    <row r="298" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:28">
       <c r="B298" s="221"/>
       <c r="C298" s="138"/>
       <c r="D298" s="138"/>
@@ -10350,10 +10379,10 @@
         <v>40.5</v>
       </c>
       <c r="G298" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="H298" s="140" t="s">
         <v>156</v>
-      </c>
-      <c r="H298" s="140" t="s">
-        <v>157</v>
       </c>
       <c r="I298" s="138"/>
       <c r="J298" s="138"/>
@@ -10376,7 +10405,7 @@
       <c r="AA298"/>
       <c r="AB298"/>
     </row>
-    <row r="299" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:28">
       <c r="B299" s="221"/>
       <c r="C299" s="138"/>
       <c r="D299" s="138"/>
@@ -10386,10 +10415,10 @@
         <v>0.89</v>
       </c>
       <c r="G299" t="s">
+        <v>157</v>
+      </c>
+      <c r="H299" s="140" t="s">
         <v>158</v>
-      </c>
-      <c r="H299" s="140" t="s">
-        <v>159</v>
       </c>
       <c r="I299" s="138"/>
       <c r="J299" s="138"/>
@@ -10412,7 +10441,7 @@
       <c r="AA299"/>
       <c r="AB299"/>
     </row>
-    <row r="300" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:28">
       <c r="B300" s="221"/>
       <c r="C300" s="138"/>
       <c r="D300" s="138"/>
@@ -10425,7 +10454,7 @@
         <v>63</v>
       </c>
       <c r="H300" s="140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I300" s="138"/>
       <c r="J300" s="138"/>
@@ -10448,7 +10477,7 @@
       <c r="AA300"/>
       <c r="AB300"/>
     </row>
-    <row r="301" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:28">
       <c r="B301" s="221"/>
       <c r="C301" s="138"/>
       <c r="D301" s="138"/>
@@ -10477,7 +10506,7 @@
       <c r="AA301"/>
       <c r="AB301"/>
     </row>
-    <row r="302" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:28">
       <c r="B302" s="221"/>
       <c r="C302" s="138"/>
       <c r="D302" s="138"/>
@@ -10506,7 +10535,7 @@
       <c r="AA302"/>
       <c r="AB302"/>
     </row>
-    <row r="303" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:28">
       <c r="B303" s="221"/>
       <c r="C303" s="138"/>
       <c r="D303" s="138"/>
@@ -10535,7 +10564,7 @@
       <c r="AA303"/>
       <c r="AB303"/>
     </row>
-    <row r="304" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:28">
       <c r="B304" s="221"/>
       <c r="C304" s="138"/>
       <c r="D304" s="138"/>
@@ -10564,7 +10593,7 @@
       <c r="AA304"/>
       <c r="AB304"/>
     </row>
-    <row r="305" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:28">
       <c r="B305" s="221"/>
       <c r="C305" s="138"/>
       <c r="D305" s="138"/>
@@ -10593,7 +10622,7 @@
       <c r="AA305"/>
       <c r="AB305"/>
     </row>
-    <row r="306" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:28">
       <c r="B306" s="221"/>
       <c r="C306" s="138"/>
       <c r="D306" s="138"/>
@@ -10622,7 +10651,7 @@
       <c r="AA306"/>
       <c r="AB306"/>
     </row>
-    <row r="307" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:28">
       <c r="B307" s="221"/>
       <c r="C307" s="138"/>
       <c r="D307" s="138"/>
@@ -10651,7 +10680,7 @@
       <c r="AA307"/>
       <c r="AB307"/>
     </row>
-    <row r="308" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:28">
       <c r="B308" s="221"/>
       <c r="C308" s="138"/>
       <c r="D308" s="138"/>
@@ -10680,7 +10709,7 @@
       <c r="AA308"/>
       <c r="AB308"/>
     </row>
-    <row r="309" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:28">
       <c r="B309" s="221"/>
       <c r="C309" s="138"/>
       <c r="D309" s="138"/>
@@ -10709,7 +10738,7 @@
       <c r="AA309"/>
       <c r="AB309"/>
     </row>
-    <row r="310" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:28">
       <c r="B310" s="221"/>
       <c r="C310" s="138"/>
       <c r="D310" s="138"/>
@@ -10738,7 +10767,7 @@
       <c r="AA310"/>
       <c r="AB310"/>
     </row>
-    <row r="311" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:28">
       <c r="B311" s="221"/>
       <c r="C311" s="138"/>
       <c r="D311" s="138"/>
@@ -10767,7 +10796,7 @@
       <c r="AA311"/>
       <c r="AB311"/>
     </row>
-    <row r="312" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:28">
       <c r="B312" s="221"/>
       <c r="C312" s="138"/>
       <c r="D312" s="138"/>
@@ -10796,7 +10825,7 @@
       <c r="AA312"/>
       <c r="AB312"/>
     </row>
-    <row r="313" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:28">
       <c r="B313" s="221"/>
       <c r="C313" s="138"/>
       <c r="D313" s="138"/>
@@ -10825,7 +10854,7 @@
       <c r="AA313"/>
       <c r="AB313"/>
     </row>
-    <row r="314" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:28">
       <c r="B314" s="221"/>
       <c r="C314" s="138"/>
       <c r="D314" s="138"/>
@@ -10854,7 +10883,7 @@
       <c r="AA314"/>
       <c r="AB314"/>
     </row>
-    <row r="315" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:28">
       <c r="B315" s="221"/>
       <c r="C315" s="138"/>
       <c r="D315" s="138"/>
@@ -10883,7 +10912,7 @@
       <c r="AA315"/>
       <c r="AB315"/>
     </row>
-    <row r="316" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:28">
       <c r="B316" s="221"/>
       <c r="C316" s="138"/>
       <c r="D316" s="138"/>
@@ -10912,7 +10941,7 @@
       <c r="AA316"/>
       <c r="AB316"/>
     </row>
-    <row r="317" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:28">
       <c r="B317" s="221"/>
       <c r="C317" s="138"/>
       <c r="D317" s="138"/>
@@ -10941,7 +10970,7 @@
       <c r="AA317"/>
       <c r="AB317"/>
     </row>
-    <row r="318" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:28">
       <c r="B318" s="221"/>
       <c r="C318"/>
       <c r="D318"/>
@@ -10970,7 +10999,7 @@
       <c r="AA318"/>
       <c r="AB318"/>
     </row>
-    <row r="319" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:28">
       <c r="B319" s="221"/>
       <c r="C319"/>
       <c r="D319"/>
@@ -10999,7 +11028,7 @@
       <c r="AA319"/>
       <c r="AB319"/>
     </row>
-    <row r="320" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:28">
       <c r="B320" s="221"/>
       <c r="C320"/>
       <c r="D320"/>
@@ -11028,7 +11057,7 @@
       <c r="AA320"/>
       <c r="AB320"/>
     </row>
-    <row r="321" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:28">
       <c r="B321" s="221"/>
       <c r="C321"/>
       <c r="D321"/>
@@ -11057,7 +11086,7 @@
       <c r="AA321"/>
       <c r="AB321"/>
     </row>
-    <row r="322" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:28">
       <c r="B322" s="221"/>
       <c r="C322"/>
       <c r="D322"/>
@@ -11086,7 +11115,7 @@
       <c r="AA322"/>
       <c r="AB322"/>
     </row>
-    <row r="323" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:28">
       <c r="B323" s="221"/>
       <c r="C323"/>
       <c r="D323"/>
@@ -11115,7 +11144,7 @@
       <c r="AA323"/>
       <c r="AB323"/>
     </row>
-    <row r="324" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:28">
       <c r="B324" s="221"/>
       <c r="C324"/>
       <c r="D324"/>
@@ -11144,7 +11173,7 @@
       <c r="AA324"/>
       <c r="AB324"/>
     </row>
-    <row r="325" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:28">
       <c r="B325" s="221"/>
       <c r="C325"/>
       <c r="D325"/>
@@ -11173,7 +11202,7 @@
       <c r="AA325"/>
       <c r="AB325"/>
     </row>
-    <row r="326" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:28">
       <c r="B326" s="221"/>
       <c r="C326"/>
       <c r="D326"/>
@@ -11202,7 +11231,7 @@
       <c r="AA326"/>
       <c r="AB326"/>
     </row>
-    <row r="327" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:28">
       <c r="B327" s="221"/>
       <c r="C327"/>
       <c r="D327"/>
@@ -11231,7 +11260,7 @@
       <c r="AA327"/>
       <c r="AB327"/>
     </row>
-    <row r="328" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:28">
       <c r="B328" s="221"/>
       <c r="C328"/>
       <c r="D328"/>
@@ -11260,7 +11289,7 @@
       <c r="AA328"/>
       <c r="AB328"/>
     </row>
-    <row r="329" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:28">
       <c r="B329" s="221"/>
       <c r="C329"/>
       <c r="D329"/>
@@ -11289,7 +11318,7 @@
       <c r="AA329"/>
       <c r="AB329"/>
     </row>
-    <row r="330" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:28">
       <c r="B330" s="221"/>
       <c r="C330"/>
       <c r="D330"/>
@@ -11318,7 +11347,7 @@
       <c r="AA330"/>
       <c r="AB330"/>
     </row>
-    <row r="331" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:28">
       <c r="B331" s="221"/>
       <c r="C331"/>
       <c r="D331"/>
@@ -11347,7 +11376,7 @@
       <c r="AA331"/>
       <c r="AB331"/>
     </row>
-    <row r="332" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:28">
       <c r="B332" s="221"/>
       <c r="C332"/>
       <c r="D332"/>
@@ -11376,7 +11405,7 @@
       <c r="AA332"/>
       <c r="AB332"/>
     </row>
-    <row r="333" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:28">
       <c r="B333" s="221"/>
       <c r="C333"/>
       <c r="D333"/>
@@ -11405,7 +11434,7 @@
       <c r="AA333"/>
       <c r="AB333"/>
     </row>
-    <row r="334" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:28">
       <c r="B334" s="221"/>
       <c r="C334"/>
       <c r="D334"/>
@@ -11434,7 +11463,7 @@
       <c r="AA334"/>
       <c r="AB334"/>
     </row>
-    <row r="335" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:28">
       <c r="B335" s="221"/>
       <c r="C335"/>
       <c r="D335"/>
@@ -11463,7 +11492,7 @@
       <c r="AA335"/>
       <c r="AB335"/>
     </row>
-    <row r="336" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:28">
       <c r="B336" s="221"/>
       <c r="C336"/>
       <c r="D336"/>
@@ -11492,7 +11521,7 @@
       <c r="AA336"/>
       <c r="AB336"/>
     </row>
-    <row r="337" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:28">
       <c r="B337" s="221"/>
       <c r="C337"/>
       <c r="D337"/>
@@ -11521,7 +11550,7 @@
       <c r="AA337"/>
       <c r="AB337"/>
     </row>
-    <row r="338" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:28">
       <c r="B338" s="221"/>
       <c r="C338"/>
       <c r="D338"/>
@@ -11550,7 +11579,7 @@
       <c r="AA338"/>
       <c r="AB338"/>
     </row>
-    <row r="339" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:28">
       <c r="B339" s="221"/>
       <c r="C339"/>
       <c r="D339"/>
@@ -11579,7 +11608,7 @@
       <c r="AA339"/>
       <c r="AB339"/>
     </row>
-    <row r="340" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:28">
       <c r="B340" s="221"/>
       <c r="C340"/>
       <c r="D340"/>
@@ -11608,7 +11637,7 @@
       <c r="AA340"/>
       <c r="AB340"/>
     </row>
-    <row r="341" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:28">
       <c r="B341" s="221"/>
       <c r="C341"/>
       <c r="D341"/>
@@ -11637,7 +11666,7 @@
       <c r="AA341"/>
       <c r="AB341"/>
     </row>
-    <row r="342" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:28">
       <c r="B342" s="221"/>
       <c r="C342"/>
       <c r="D342"/>
@@ -11666,7 +11695,7 @@
       <c r="AA342"/>
       <c r="AB342"/>
     </row>
-    <row r="343" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:28">
       <c r="B343" s="221"/>
       <c r="C343"/>
       <c r="D343"/>
@@ -11695,7 +11724,7 @@
       <c r="AA343"/>
       <c r="AB343"/>
     </row>
-    <row r="344" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:28">
       <c r="B344" s="221"/>
       <c r="C344"/>
       <c r="D344"/>
@@ -11724,7 +11753,7 @@
       <c r="AA344"/>
       <c r="AB344"/>
     </row>
-    <row r="345" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:28">
       <c r="B345" s="221"/>
       <c r="C345"/>
       <c r="D345"/>
@@ -11753,7 +11782,7 @@
       <c r="AA345"/>
       <c r="AB345"/>
     </row>
-    <row r="346" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:28">
       <c r="B346" s="221"/>
       <c r="C346"/>
       <c r="D346"/>
@@ -11782,7 +11811,7 @@
       <c r="AA346"/>
       <c r="AB346"/>
     </row>
-    <row r="347" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:28" ht="17" thickBot="1">
       <c r="B347" s="221"/>
       <c r="C347"/>
       <c r="D347"/>
@@ -11811,7 +11840,7 @@
       <c r="AA347"/>
       <c r="AB347"/>
     </row>
-    <row r="348" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:28">
       <c r="B348" s="128"/>
       <c r="C348" s="128" t="s">
         <v>25</v>
@@ -11838,7 +11867,7 @@
       <c r="S348" s="128"/>
       <c r="T348" s="128"/>
     </row>
-    <row r="349" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:28">
       <c r="B349" s="221"/>
       <c r="C349" s="143"/>
       <c r="D349" s="138"/>
@@ -11859,10 +11888,10 @@
       <c r="S349" s="138"/>
       <c r="T349" s="138"/>
     </row>
-    <row r="350" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:28">
       <c r="B350" s="163"/>
       <c r="C350" s="160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D350" s="138"/>
       <c r="E350" s="138"/>
@@ -11882,10 +11911,10 @@
       <c r="S350" s="138"/>
       <c r="T350" s="138"/>
     </row>
-    <row r="351" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:28">
       <c r="B351" s="163"/>
       <c r="C351" s="164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D351" s="138"/>
       <c r="E351" s="138"/>
@@ -11905,7 +11934,7 @@
       <c r="S351" s="138"/>
       <c r="T351" s="138"/>
     </row>
-    <row r="352" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:28">
       <c r="B352" s="163"/>
       <c r="C352" s="138"/>
       <c r="D352" s="162"/>
@@ -11926,11 +11955,11 @@
       <c r="S352" s="138"/>
       <c r="T352" s="138"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:20">
       <c r="B353" s="163"/>
       <c r="C353" s="138"/>
       <c r="D353" s="138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E353" s="138"/>
       <c r="F353" s="138"/>
@@ -11949,7 +11978,7 @@
       <c r="S353" s="138"/>
       <c r="T353" s="138"/>
     </row>
-    <row r="354" spans="2:20" ht="77" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:20" ht="84">
       <c r="B354" s="163"/>
       <c r="C354" s="138"/>
       <c r="D354" s="165" t="s">
@@ -11959,16 +11988,16 @@
       <c r="F354" s="138"/>
       <c r="G354" s="138"/>
       <c r="H354" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I354" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="I354" s="182" t="s">
-        <v>85</v>
-      </c>
       <c r="J354" s="223" t="s">
+        <v>161</v>
+      </c>
+      <c r="K354" s="171" t="s">
         <v>162</v>
-      </c>
-      <c r="K354" s="171" t="s">
-        <v>163</v>
       </c>
       <c r="L354" s="138"/>
       <c r="M354" s="138"/>
@@ -11980,11 +12009,11 @@
       <c r="S354" s="138"/>
       <c r="T354" s="138"/>
     </row>
-    <row r="355" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:20" ht="17" thickBot="1">
       <c r="B355" s="163"/>
       <c r="C355" s="138"/>
       <c r="D355" s="138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E355" s="162"/>
       <c r="F355" s="138"/>
@@ -11992,10 +12021,10 @@
       <c r="H355" s="166"/>
       <c r="I355" s="167"/>
       <c r="J355" s="224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K355" s="172" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L355" s="138"/>
       <c r="M355" s="138"/>
@@ -12007,28 +12036,28 @@
       <c r="S355" s="138"/>
       <c r="T355" s="138"/>
     </row>
-    <row r="356" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:20" ht="17" thickBot="1">
       <c r="B356" s="163"/>
       <c r="C356" s="138"/>
       <c r="D356" s="138"/>
       <c r="E356" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F356" s="168">
         <f>AVERAGE(J356:J360)</f>
         <v>545.58600000000001</v>
       </c>
       <c r="G356" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="H356" s="245">
+        <v>87</v>
+      </c>
+      <c r="H356" s="231">
         <v>43059</v>
       </c>
       <c r="I356" s="167"/>
-      <c r="J356" s="246">
+      <c r="J356" s="232">
         <v>550.71</v>
       </c>
-      <c r="K356" s="247">
+      <c r="K356" s="233">
         <v>1264</v>
       </c>
       <c r="L356" s="138"/>
@@ -12041,28 +12070,28 @@
       <c r="S356" s="138"/>
       <c r="T356" s="138"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:20">
       <c r="B357" s="163"/>
       <c r="C357" s="138"/>
       <c r="D357" s="138"/>
       <c r="E357" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F357" s="138">
         <f>F356/1000</f>
         <v>0.54558600000000002</v>
       </c>
       <c r="G357" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="H357" s="245">
+        <v>88</v>
+      </c>
+      <c r="H357" s="231">
         <v>43052</v>
       </c>
       <c r="I357" s="167"/>
-      <c r="J357" s="246">
+      <c r="J357" s="232">
         <v>559.79999999999995</v>
       </c>
-      <c r="K357" s="247">
+      <c r="K357" s="233">
         <v>1275</v>
       </c>
       <c r="L357" s="138"/>
@@ -12075,21 +12104,21 @@
       <c r="S357" s="138"/>
       <c r="T357" s="138"/>
     </row>
-    <row r="358" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:20" ht="17" thickBot="1">
       <c r="B358" s="163"/>
       <c r="C358" s="138"/>
       <c r="D358" s="138"/>
       <c r="E358" s="138"/>
       <c r="F358" s="138"/>
       <c r="G358" s="138"/>
-      <c r="H358" s="245">
+      <c r="H358" s="231">
         <v>43045</v>
       </c>
       <c r="I358" s="167"/>
-      <c r="J358" s="246">
+      <c r="J358" s="232">
         <v>550.71</v>
       </c>
-      <c r="K358" s="247">
+      <c r="K358" s="233">
         <v>1264</v>
       </c>
       <c r="L358" s="138"/>
@@ -12102,30 +12131,30 @@
       <c r="S358" s="138"/>
       <c r="T358" s="138"/>
     </row>
-    <row r="359" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:20" ht="17" thickBot="1">
       <c r="B359" s="163"/>
       <c r="C359" s="138"/>
       <c r="D359" s="138" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E359" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F359" s="168">
         <f>AVERAGE(K356:K360)</f>
         <v>1257.8</v>
       </c>
       <c r="G359" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="H359" s="245">
+        <v>87</v>
+      </c>
+      <c r="H359" s="231">
         <v>43038</v>
       </c>
       <c r="I359" s="167"/>
-      <c r="J359" s="246">
+      <c r="J359" s="232">
         <v>535.01</v>
       </c>
-      <c r="K359" s="247">
+      <c r="K359" s="233">
         <v>1245</v>
       </c>
       <c r="L359" s="138"/>
@@ -12138,28 +12167,28 @@
       <c r="S359" s="138"/>
       <c r="T359" s="138"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:20">
       <c r="B360" s="163"/>
       <c r="C360" s="138"/>
       <c r="D360" s="138"/>
       <c r="E360" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F360" s="138">
         <f>F359/1000</f>
         <v>1.2578</v>
       </c>
       <c r="G360" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="H360" s="245">
+        <v>88</v>
+      </c>
+      <c r="H360" s="231">
         <v>43031</v>
       </c>
       <c r="I360" s="167"/>
-      <c r="J360" s="246">
+      <c r="J360" s="232">
         <v>531.70000000000005</v>
       </c>
-      <c r="K360" s="247">
+      <c r="K360" s="233">
         <v>1241</v>
       </c>
       <c r="L360" s="138"/>
@@ -12172,7 +12201,7 @@
       <c r="S360" s="138"/>
       <c r="T360" s="138"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:20">
       <c r="B361" s="163"/>
       <c r="C361" s="138"/>
       <c r="D361" s="138"/>
@@ -12201,11 +12230,11 @@
       <c r="S361" s="138"/>
       <c r="T361" s="138"/>
     </row>
-    <row r="362" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:20" ht="17" thickBot="1">
       <c r="B362" s="163"/>
       <c r="C362" s="138"/>
       <c r="D362" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E362" s="138"/>
       <c r="F362" s="173"/>
@@ -12232,20 +12261,20 @@
       <c r="S362" s="138"/>
       <c r="T362" s="138"/>
     </row>
-    <row r="363" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:20" ht="17" thickBot="1">
       <c r="B363" s="163"/>
       <c r="C363" s="138"/>
       <c r="D363" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="E363" s="162" t="s">
+        <v>163</v>
+      </c>
+      <c r="F363" s="235">
+        <v>0.21</v>
+      </c>
+      <c r="G363" s="138" t="s">
         <v>93</v>
-      </c>
-      <c r="E363" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="F363" s="249">
-        <v>0.21</v>
-      </c>
-      <c r="G363" s="138" t="s">
-        <v>94</v>
       </c>
       <c r="H363" s="169">
         <v>42394</v>
@@ -12269,21 +12298,21 @@
       <c r="S363" s="138"/>
       <c r="T363" s="138"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:20">
       <c r="B364" s="163"/>
       <c r="C364" s="138"/>
       <c r="D364" s="138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E364" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F364" s="138">
         <f>F360/(1+F363)-F357</f>
         <v>0.4939181322314049</v>
       </c>
       <c r="G364" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H364" s="169">
         <v>42387</v>
@@ -12307,7 +12336,7 @@
       <c r="S364" s="138"/>
       <c r="T364" s="138"/>
     </row>
-    <row r="365" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:20">
       <c r="B365" s="163"/>
       <c r="C365" s="138"/>
       <c r="D365" s="138"/>
@@ -12336,7 +12365,7 @@
       <c r="S365" s="138"/>
       <c r="T365" s="138"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:20">
       <c r="B366" s="163"/>
       <c r="C366" s="138"/>
       <c r="D366" s="138"/>
@@ -12365,21 +12394,21 @@
       <c r="S366" s="138"/>
       <c r="T366" s="138"/>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:20">
       <c r="B367" s="163"/>
       <c r="C367" s="138"/>
       <c r="D367" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E367" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="F367" s="250">
+        <v>163</v>
+      </c>
+      <c r="F367" s="236">
         <f>(F365+F364+F357)*1.21</f>
         <v>1.2577999999999998</v>
       </c>
       <c r="G367" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H367" s="169">
         <v>42352</v>
@@ -12403,7 +12432,7 @@
       <c r="S367" s="138"/>
       <c r="T367" s="138"/>
     </row>
-    <row r="368" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:20">
       <c r="B368" s="163"/>
       <c r="C368" s="138"/>
       <c r="D368" s="138"/>
@@ -12432,7 +12461,7 @@
       <c r="S368" s="138"/>
       <c r="T368" s="138"/>
     </row>
-    <row r="369" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:20">
       <c r="B369" s="163"/>
       <c r="C369" s="138"/>
       <c r="D369" s="138"/>
@@ -12461,7 +12490,7 @@
       <c r="S369" s="138"/>
       <c r="T369" s="138"/>
     </row>
-    <row r="370" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:20">
       <c r="B370" s="163"/>
       <c r="C370" s="138"/>
       <c r="D370" s="138"/>
@@ -12490,7 +12519,7 @@
       <c r="S370" s="138"/>
       <c r="T370" s="138"/>
     </row>
-    <row r="371" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:20">
       <c r="B371" s="163"/>
       <c r="C371" s="138"/>
       <c r="D371" s="138"/>
@@ -12519,7 +12548,7 @@
       <c r="S371" s="138"/>
       <c r="T371" s="138"/>
     </row>
-    <row r="372" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:20">
       <c r="B372" s="163"/>
       <c r="C372" s="138"/>
       <c r="D372" s="138"/>
@@ -12548,7 +12577,7 @@
       <c r="S372" s="138"/>
       <c r="T372" s="138"/>
     </row>
-    <row r="373" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:20">
       <c r="B373" s="163"/>
       <c r="C373" s="138"/>
       <c r="D373" s="138"/>
@@ -12577,7 +12606,7 @@
       <c r="S373" s="138"/>
       <c r="T373" s="138"/>
     </row>
-    <row r="374" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:20">
       <c r="B374" s="163"/>
       <c r="C374" s="138"/>
       <c r="D374" s="138"/>
@@ -12606,7 +12635,7 @@
       <c r="S374" s="138"/>
       <c r="T374" s="138"/>
     </row>
-    <row r="375" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:20">
       <c r="B375" s="163"/>
       <c r="C375" s="162"/>
       <c r="D375" s="162"/>
@@ -12635,7 +12664,7 @@
       <c r="S375" s="162"/>
       <c r="T375" s="162"/>
     </row>
-    <row r="376" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:20">
       <c r="B376" s="163"/>
       <c r="C376" s="162"/>
       <c r="D376" s="162"/>
@@ -12664,7 +12693,7 @@
       <c r="S376" s="162"/>
       <c r="T376" s="162"/>
     </row>
-    <row r="377" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:20">
       <c r="B377" s="163"/>
       <c r="C377" s="162"/>
       <c r="D377" s="162"/>
@@ -12693,7 +12722,7 @@
       <c r="S377" s="162"/>
       <c r="T377" s="162"/>
     </row>
-    <row r="378" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:20">
       <c r="B378" s="163"/>
       <c r="C378" s="162"/>
       <c r="D378" s="162"/>
@@ -12722,7 +12751,7 @@
       <c r="S378" s="162"/>
       <c r="T378" s="162"/>
     </row>
-    <row r="379" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:20">
       <c r="B379" s="163"/>
       <c r="C379" s="162"/>
       <c r="D379" s="162"/>
@@ -12751,7 +12780,7 @@
       <c r="S379" s="162"/>
       <c r="T379" s="162"/>
     </row>
-    <row r="380" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:20">
       <c r="B380" s="163"/>
       <c r="C380" s="162"/>
       <c r="D380" s="162"/>
@@ -12780,7 +12809,7 @@
       <c r="S380" s="162"/>
       <c r="T380" s="162"/>
     </row>
-    <row r="381" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:20">
       <c r="B381" s="163"/>
       <c r="C381" s="162"/>
       <c r="D381" s="162"/>
@@ -12809,7 +12838,7 @@
       <c r="S381" s="162"/>
       <c r="T381" s="162"/>
     </row>
-    <row r="382" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:20">
       <c r="B382" s="163"/>
       <c r="C382" s="162"/>
       <c r="D382" s="162"/>
@@ -12838,7 +12867,7 @@
       <c r="S382" s="162"/>
       <c r="T382" s="162"/>
     </row>
-    <row r="383" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:20">
       <c r="B383" s="163"/>
       <c r="C383" s="162"/>
       <c r="D383" s="162"/>
@@ -12867,7 +12896,7 @@
       <c r="S383" s="162"/>
       <c r="T383" s="162"/>
     </row>
-    <row r="384" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:20">
       <c r="B384" s="163"/>
       <c r="C384" s="162"/>
       <c r="D384" s="162"/>
@@ -12896,7 +12925,7 @@
       <c r="S384" s="162"/>
       <c r="T384" s="162"/>
     </row>
-    <row r="385" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:20">
       <c r="B385" s="163"/>
       <c r="C385" s="162"/>
       <c r="D385" s="162"/>
@@ -12925,7 +12954,7 @@
       <c r="S385" s="162"/>
       <c r="T385" s="162"/>
     </row>
-    <row r="386" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:20">
       <c r="B386" s="163"/>
       <c r="C386" s="215"/>
       <c r="D386" s="215"/>
@@ -12954,7 +12983,7 @@
       <c r="S386" s="215"/>
       <c r="T386" s="215"/>
     </row>
-    <row r="387" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:20">
       <c r="B387" s="163"/>
       <c r="C387" s="215"/>
       <c r="D387" s="215"/>
@@ -12983,7 +13012,7 @@
       <c r="S387" s="215"/>
       <c r="T387" s="215"/>
     </row>
-    <row r="388" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:20" ht="17" thickBot="1">
       <c r="B388" s="163"/>
       <c r="C388" s="215"/>
       <c r="D388" s="215"/>
@@ -13012,7 +13041,7 @@
       <c r="S388" s="215"/>
       <c r="T388" s="215"/>
     </row>
-    <row r="389" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:20">
       <c r="B389" s="128"/>
       <c r="C389" s="128" t="s">
         <v>25</v>
@@ -13047,7 +13076,7 @@
       <c r="S389" s="128"/>
       <c r="T389" s="128"/>
     </row>
-    <row r="390" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:20">
       <c r="B390" s="221"/>
       <c r="C390" s="143"/>
       <c r="D390" s="138"/>
@@ -13076,10 +13105,10 @@
       <c r="S390" s="138"/>
       <c r="T390" s="138"/>
     </row>
-    <row r="391" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:20">
       <c r="B391" s="221"/>
       <c r="C391" s="215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D391" s="138"/>
       <c r="E391" s="138"/>
@@ -13099,7 +13128,7 @@
       <c r="S391" s="138"/>
       <c r="T391" s="138"/>
     </row>
-    <row r="392" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:20">
       <c r="B392" s="221"/>
       <c r="C392" s="215"/>
       <c r="D392" s="215"/>
@@ -13120,7 +13149,7 @@
       <c r="S392" s="215"/>
       <c r="T392" s="215"/>
     </row>
-    <row r="393" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:20" ht="17" thickBot="1">
       <c r="B393" s="221"/>
       <c r="C393" s="215"/>
       <c r="D393" s="215"/>
@@ -13141,11 +13170,11 @@
       <c r="S393" s="215"/>
       <c r="T393" s="215"/>
     </row>
-    <row r="394" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:20">
       <c r="B394" s="221"/>
       <c r="C394" s="215"/>
       <c r="D394" s="215" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E394" s="215"/>
       <c r="F394" s="215"/>
@@ -13164,11 +13193,11 @@
       <c r="S394" s="215"/>
       <c r="T394" s="215"/>
     </row>
-    <row r="395" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:20">
       <c r="B395" s="221"/>
       <c r="C395" s="215"/>
       <c r="D395" s="215" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E395" s="215"/>
       <c r="F395" s="215"/>
@@ -13187,7 +13216,7 @@
       <c r="S395" s="215"/>
       <c r="T395" s="215"/>
     </row>
-    <row r="396" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:20" ht="17" thickBot="1">
       <c r="B396" s="221"/>
       <c r="C396" s="215"/>
       <c r="D396" s="215"/>
@@ -13208,7 +13237,7 @@
       <c r="S396" s="215"/>
       <c r="T396" s="215"/>
     </row>
-    <row r="397" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:20" ht="17" thickBot="1">
       <c r="B397" s="221"/>
       <c r="C397" s="215"/>
       <c r="D397" s="215"/>
@@ -13217,10 +13246,10 @@
         <v>0.5</v>
       </c>
       <c r="G397" s="215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H397" s="215" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I397" s="215"/>
       <c r="J397" s="215"/>
@@ -13235,7 +13264,7 @@
       <c r="S397" s="215"/>
       <c r="T397" s="215"/>
     </row>
-    <row r="398" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:20">
       <c r="B398" s="221"/>
       <c r="C398" s="215"/>
       <c r="D398" s="215"/>
@@ -13245,10 +13274,10 @@
         <v>1.2578</v>
       </c>
       <c r="G398" s="215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H398" s="215" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I398" s="215"/>
       <c r="J398" s="215"/>
@@ -13263,7 +13292,7 @@
       <c r="S398" s="215"/>
       <c r="T398" s="215"/>
     </row>
-    <row r="399" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:20">
       <c r="B399" s="221"/>
       <c r="C399" s="215"/>
       <c r="D399" s="215"/>
@@ -13273,10 +13302,10 @@
         <v>1.7578</v>
       </c>
       <c r="G399" s="215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H399" s="215" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I399" s="215"/>
       <c r="J399" s="215"/>
@@ -13291,7 +13320,7 @@
       <c r="S399" s="215"/>
       <c r="T399" s="215"/>
     </row>
-    <row r="400" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:20">
       <c r="B400" s="221"/>
       <c r="C400" s="215"/>
       <c r="D400" s="215"/>
@@ -13312,7 +13341,7 @@
       <c r="S400" s="215"/>
       <c r="T400" s="215"/>
     </row>
-    <row r="401" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:20">
       <c r="B401" s="221"/>
       <c r="C401" s="215"/>
       <c r="D401" s="215"/>
@@ -13333,7 +13362,7 @@
       <c r="S401" s="215"/>
       <c r="T401" s="215"/>
     </row>
-    <row r="402" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:20">
       <c r="B402" s="221"/>
       <c r="C402" s="215"/>
       <c r="D402" s="215"/>
@@ -13354,12 +13383,12 @@
       <c r="S402" s="215"/>
       <c r="T402" s="215"/>
     </row>
-    <row r="403" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:20">
       <c r="B403" s="221"/>
       <c r="C403" s="215"/>
       <c r="D403" s="215"/>
       <c r="E403" s="215"/>
-      <c r="F403" s="248"/>
+      <c r="F403" s="234"/>
       <c r="G403" s="215"/>
       <c r="H403" s="215"/>
       <c r="I403" s="215"/>
@@ -13375,7 +13404,7 @@
       <c r="S403" s="215"/>
       <c r="T403" s="215"/>
     </row>
-    <row r="404" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:20">
       <c r="B404" s="221"/>
       <c r="C404" s="215"/>
       <c r="D404" s="215"/>
@@ -13395,7 +13424,7 @@
       <c r="S404" s="215"/>
       <c r="T404" s="215"/>
     </row>
-    <row r="405" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:20">
       <c r="B405" s="221"/>
       <c r="C405" s="215"/>
       <c r="D405" s="215"/>
@@ -13415,7 +13444,7 @@
       <c r="S405" s="215"/>
       <c r="T405" s="215"/>
     </row>
-    <row r="406" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:20">
       <c r="B406" s="221"/>
       <c r="C406" s="215"/>
       <c r="D406" s="215"/>
@@ -13435,7 +13464,7 @@
       <c r="S406" s="215"/>
       <c r="T406" s="215"/>
     </row>
-    <row r="407" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:20">
       <c r="B407" s="221"/>
       <c r="C407" s="215"/>
       <c r="D407" s="215"/>
@@ -13455,7 +13484,7 @@
       <c r="S407" s="215"/>
       <c r="T407" s="215"/>
     </row>
-    <row r="408" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:20">
       <c r="B408" s="221"/>
       <c r="C408" s="215"/>
       <c r="D408" s="215"/>
@@ -13465,10 +13494,10 @@
         <v>0.95880914049586796</v>
       </c>
       <c r="G408" s="215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H408" s="215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I408" s="215"/>
       <c r="J408" s="215"/>
@@ -13483,7 +13512,7 @@
       <c r="S408" s="215"/>
       <c r="T408" s="215"/>
     </row>
-    <row r="409" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:20">
       <c r="B409" s="221"/>
       <c r="C409" s="215"/>
       <c r="D409" s="215"/>
@@ -13509,30 +13538,30 @@
       <c r="S409" s="215"/>
       <c r="T409" s="215"/>
     </row>
-    <row r="410" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:20">
       <c r="H410" s="215"/>
       <c r="I410" s="215"/>
       <c r="J410" s="215"/>
       <c r="K410" s="215"/>
     </row>
-    <row r="411" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:20">
       <c r="H411" s="215"/>
       <c r="I411" s="215"/>
       <c r="J411" s="215"/>
       <c r="K411" s="215"/>
     </row>
-    <row r="412" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:20">
       <c r="H412" s="215"/>
       <c r="I412" s="215"/>
       <c r="J412" s="215"/>
       <c r="K412" s="215"/>
     </row>
-    <row r="413" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:20">
       <c r="I413" s="215"/>
       <c r="J413" s="215"/>
       <c r="K413" s="215"/>
     </row>
-    <row r="414" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:20">
       <c r="H414" s="215"/>
       <c r="I414" s="215"/>
       <c r="J414" s="215"/>
@@ -13540,8 +13569,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C128" r:id="rId1"/>
-    <hyperlink ref="C351" r:id="rId2"/>
+    <hyperlink ref="C128" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C351" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13550,28 +13579,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" customHeight="1">
+      <c r="A4" s="216" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="216" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/carriers_source_analyses/bio_kerosene.carrier.xlsx
+++ b/carriers_source_analyses/bio_kerosene.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519A7AE-FBDB-0B41-BDB5-AB18234CE578}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B3168E-2313-AA44-B936-ACB8FA3AB7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="500" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -44,6 +44,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="168">
   <si>
     <t>Source</t>
   </si>
@@ -183,9 +192,6 @@
     <t>Quintel assumption</t>
   </si>
   <si>
-    <t>Quintel definition</t>
-  </si>
-  <si>
     <t>co2_exploration_per_mj</t>
   </si>
   <si>
@@ -364,9 +370,6 @@
   </si>
   <si>
     <t>EC Oil Bulletin</t>
-  </si>
-  <si>
-    <t>EC Oil Bulletin and biotanken.nl</t>
   </si>
   <si>
     <t>Euro-super 95(I) incl tax</t>
@@ -425,12 +428,6 @@
     </r>
   </si>
   <si>
-    <t>CO2 emission from biomass is defined as 0</t>
-  </si>
-  <si>
-    <t>Actual CO2 emission from biomass</t>
-  </si>
-  <si>
     <t>IPCC</t>
   </si>
   <si>
@@ -700,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -709,7 +706,6 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
     <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="57">
@@ -1958,7 +1954,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2244,8 +2240,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="44" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,9 +2265,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -2752,7 +2743,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="362" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="362" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3900,13 +3891,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.33203125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1">
@@ -3929,10 +3920,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3941,7 +3932,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4089,7 +4080,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="176">
         <v>42227</v>
@@ -4097,17 +4088,17 @@
     </row>
     <row r="28" spans="1:4">
       <c r="C28" s="175" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="C29" s="175" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" s="175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4121,25 +4112,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4149,30 +4140,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="237" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="239"/>
+      <c r="B2" s="232" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="234"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="240"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="242"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="2:10" ht="63" customHeight="1">
-      <c r="B4" s="243"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="240"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
@@ -4223,7 +4214,7 @@
     <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4258,97 +4249,33 @@
     <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="130" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="180">
-        <f>'Research data'!G7</f>
-        <v>2.7637281163587279E-2</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>43.15</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="130"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="179" t="s">
-        <v>104</v>
+      <c r="I11" s="207" t="s">
+        <v>125</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>43.15</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="212" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="48">
-        <f>'Research data'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="190" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="191" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="192" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="123">
-        <f>'Research data'!G10</f>
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="190" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="191" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4368,19 +4295,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4390,27 +4317,27 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="237" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="246"/>
+      <c r="B2" s="232" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="240"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="247"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="248"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="245"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4475,8 +4402,8 @@
     </row>
     <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="189" t="s">
-        <v>107</v>
+      <c r="C10" s="187" t="s">
+        <v>105</v>
       </c>
       <c r="D10" s="130"/>
       <c r="E10" s="130"/>
@@ -4489,10 +4416,10 @@
     <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="123">
         <f>'Research data'!G14</f>
@@ -4500,21 +4427,21 @@
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="116"/>
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="123">
         <f>'Research data'!G15</f>
@@ -4522,21 +4449,21 @@
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="E13" s="123">
         <f>'Research data'!G16</f>
@@ -4544,21 +4471,21 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="116"/>
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="123">
         <f>'Research data'!G17</f>
@@ -4566,11 +4493,11 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="116"/>
     </row>
@@ -4580,7 +4507,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="123">
         <f>'Research data'!G18</f>
@@ -4588,21 +4515,21 @@
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="116"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="123">
         <f>'Research data'!G19</f>
@@ -4610,18 +4537,18 @@
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>1</v>
@@ -4632,11 +4559,11 @@
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="116"/>
     </row>
@@ -4653,8 +4580,8 @@
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="189" t="s">
-        <v>108</v>
+      <c r="C19" s="187" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="130"/>
@@ -4667,10 +4594,10 @@
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4678,21 +4605,21 @@
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="116"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4700,21 +4627,21 @@
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="116"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="E22" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4722,21 +4649,21 @@
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="116"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4744,11 +4671,11 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="116"/>
     </row>
@@ -4758,7 +4685,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4766,21 +4693,21 @@
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24" s="116"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="123" t="e">
         <f>'Research data'!#REF!</f>
@@ -4788,18 +4715,18 @@
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="116"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>1</v>
@@ -4810,11 +4737,11 @@
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="116"/>
     </row>
@@ -4850,26 +4777,26 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="73" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" style="73" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="74" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
     <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="74" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="74" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="74" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="74" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="74" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="74" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="74" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="74" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="74" customWidth="1"/>
     <col min="18" max="18" width="60" style="73" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="73"/>
+    <col min="19" max="16384" width="10.85546875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4909,18 +4836,18 @@
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
@@ -4949,7 +4876,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="79"/>
       <c r="C5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -5008,7 +4935,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="178">
         <f>O7</f>
@@ -5021,29 +4948,29 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="199">
+      <c r="O7" s="194">
         <f>Notes!F409</f>
         <v>2.7637281163587279E-2</v>
       </c>
       <c r="P7" s="177"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="214" t="s">
-        <v>138</v>
+      <c r="R7" s="209" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -5062,8 +4989,8 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="214" t="s">
-        <v>137</v>
+      <c r="R8" s="209" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
@@ -5078,7 +5005,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="47">
         <v>0</v>
@@ -5097,8 +5024,8 @@
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="193" t="s">
-        <v>112</v>
+      <c r="C10" s="188" t="s">
+        <v>108</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>39</v>
@@ -5107,7 +5034,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="123">
         <f>P10</f>
@@ -5121,13 +5048,13 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="200">
+      <c r="P10" s="195">
         <f>Notes!H197</f>
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="214" t="s">
-        <v>139</v>
+      <c r="R10" s="209" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -5172,8 +5099,8 @@
     </row>
     <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="79"/>
-      <c r="C13" s="217" t="s">
-        <v>136</v>
+      <c r="C13" s="212" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
@@ -5189,19 +5116,19 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="214" t="s">
-        <v>53</v>
+      <c r="R13" s="209" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="79"/>
       <c r="C14" s="137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="89"/>
       <c r="E14" s="89"/>
       <c r="F14" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="123">
         <f>M14</f>
@@ -5221,18 +5148,18 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="83"/>
       <c r="R14" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="79"/>
       <c r="C15" s="137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="123">
         <f t="shared" ref="G15:G19" si="0">M15</f>
@@ -5252,18 +5179,18 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="79"/>
       <c r="C16" s="137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="123">
         <f t="shared" si="0"/>
@@ -5283,18 +5210,18 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="79"/>
       <c r="C17" s="137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="123">
         <f t="shared" si="0"/>
@@ -5314,7 +5241,7 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
@@ -5325,7 +5252,7 @@
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="123">
         <f t="shared" si="0"/>
@@ -5345,18 +5272,18 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="83"/>
       <c r="R18" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="79"/>
       <c r="C19" s="137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="123">
         <f t="shared" si="0"/>
@@ -5376,13 +5303,13 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="79"/>
       <c r="C20" s="137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -5406,7 +5333,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="83"/>
       <c r="R20" s="144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
@@ -5487,19 +5414,19 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="49"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -5589,50 +5516,50 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>65</v>
-      </c>
       <c r="I7" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="71"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="54"/>
-      <c r="C8" s="194" t="s">
-        <v>113</v>
+      <c r="C8" s="189" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="63"/>
-      <c r="E8" s="195" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="195"/>
+      <c r="E8" s="190" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="190"/>
       <c r="G8" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="207" t="s">
-        <v>115</v>
+      <c r="K8" s="202" t="s">
+        <v>111</v>
       </c>
       <c r="L8" s="72"/>
     </row>
@@ -5656,21 +5583,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="58" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L10" s="72"/>
     </row>
@@ -5703,11 +5630,11 @@
     <row r="13" spans="2:12">
       <c r="B13" s="54"/>
       <c r="C13" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="146"/>
       <c r="G13" s="62" t="s">
@@ -5721,7 +5648,7 @@
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="66"/>
     </row>
@@ -5803,12 +5730,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="124" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="124" customWidth="1"/>
     <col min="2" max="2" width="5" style="124" customWidth="1"/>
     <col min="3" max="5" width="7" style="124"/>
-    <col min="6" max="6" width="10.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="124" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="124" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="124" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="124" customWidth="1"/>
     <col min="9" max="16384" width="7" style="124"/>
   </cols>
   <sheetData>
@@ -5819,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="128"/>
       <c r="F2" s="128" t="s">
@@ -5865,8 +5792,8 @@
     </row>
     <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="125"/>
-      <c r="C4" s="211" t="s">
-        <v>128</v>
+      <c r="C4" s="206" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="138"/>
       <c r="E4" s="138"/>
@@ -5919,8 +5846,8 @@
     </row>
     <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="125"/>
-      <c r="C6" s="213" t="s">
-        <v>131</v>
+      <c r="C6" s="208" t="s">
+        <v>127</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="138"/>
@@ -5947,8 +5874,8 @@
     </row>
     <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="125"/>
-      <c r="C7" s="213" t="s">
-        <v>130</v>
+      <c r="C7" s="208" t="s">
+        <v>126</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -6051,11 +5978,11 @@
       <c r="B11" s="125"/>
       <c r="C11" s="138"/>
       <c r="D11" s="138"/>
-      <c r="F11" s="211">
+      <c r="F11" s="206">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G11" s="211" t="s">
-        <v>127</v>
+      <c r="G11" s="206" t="s">
+        <v>123</v>
       </c>
       <c r="H11" s="140"/>
       <c r="I11" s="138"/>
@@ -6081,11 +6008,11 @@
       <c r="C12" s="138"/>
       <c r="D12" s="138"/>
       <c r="E12" s="138"/>
-      <c r="F12" s="211">
+      <c r="F12" s="206">
         <v>43.15</v>
       </c>
-      <c r="G12" s="211" t="s">
-        <v>57</v>
+      <c r="G12" s="206" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="138"/>
       <c r="I12" s="138"/>
@@ -6111,12 +6038,12 @@
       <c r="C13" s="138"/>
       <c r="D13" s="138"/>
       <c r="E13" s="138"/>
-      <c r="F13" s="211">
+      <c r="F13" s="206">
         <f>F11*F12</f>
         <v>34.692599999999999</v>
       </c>
-      <c r="G13" s="211" t="s">
-        <v>63</v>
+      <c r="G13" s="206" t="s">
+        <v>62</v>
       </c>
       <c r="H13" s="138"/>
       <c r="I13" s="138"/>
@@ -6349,7 +6276,7 @@
       <c r="C22" s="138"/>
       <c r="D22" s="142"/>
       <c r="E22" s="142"/>
-      <c r="F22" s="209"/>
+      <c r="F22" s="204"/>
       <c r="G22" s="142"/>
       <c r="H22" s="142"/>
       <c r="I22" s="142"/>
@@ -6375,7 +6302,7 @@
       <c r="C23" s="138"/>
       <c r="D23" s="142"/>
       <c r="E23" s="142"/>
-      <c r="F23" s="209"/>
+      <c r="F23" s="204"/>
       <c r="G23" s="142"/>
       <c r="H23" s="142"/>
       <c r="I23" s="142"/>
@@ -6611,7 +6538,7 @@
       <c r="B38" s="125"/>
       <c r="D38" s="174"/>
       <c r="E38" s="142"/>
-      <c r="F38" s="210"/>
+      <c r="F38" s="205"/>
       <c r="G38" s="142"/>
       <c r="H38" s="142"/>
       <c r="I38" s="174"/>
@@ -6769,7 +6696,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" s="128"/>
       <c r="F62" s="128" t="s">
@@ -6820,7 +6747,7 @@
     <row r="64" spans="2:25" customFormat="1" ht="21">
       <c r="B64" s="125"/>
       <c r="C64" s="151" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="138"/>
       <c r="E64" s="138"/>
@@ -6921,13 +6848,13 @@
     <row r="73" spans="2:25">
       <c r="B73" s="125"/>
       <c r="E73" s="152" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:25">
       <c r="B74" s="125"/>
       <c r="E74" s="138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" s="138"/>
       <c r="G74" s="138"/>
@@ -6935,17 +6862,17 @@
         <v>0</v>
       </c>
       <c r="I74" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J74" s="138"/>
       <c r="K74" s="138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="2:25">
       <c r="B75" s="125"/>
       <c r="E75" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" s="138"/>
       <c r="G75" s="138"/>
@@ -6953,7 +6880,7 @@
         <v>14.7</v>
       </c>
       <c r="I75" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J75" s="138"/>
       <c r="K75" s="138"/>
@@ -6961,7 +6888,7 @@
     <row r="76" spans="2:25">
       <c r="B76" s="125"/>
       <c r="E76" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" s="138"/>
       <c r="G76" s="138"/>
@@ -6969,7 +6896,7 @@
         <v>9.4</v>
       </c>
       <c r="I76" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J76" s="138"/>
       <c r="K76" s="138"/>
@@ -6978,7 +6905,7 @@
       <c r="B77" s="125"/>
       <c r="D77" s="138"/>
       <c r="E77" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" s="138"/>
       <c r="G77" s="138"/>
@@ -6986,7 +6913,7 @@
         <v>0.7</v>
       </c>
       <c r="I77" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J77" s="138"/>
       <c r="K77" s="138"/>
@@ -7003,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J78" s="138"/>
       <c r="K78" s="138"/>
@@ -7012,7 +6939,7 @@
       <c r="B79" s="125"/>
       <c r="D79" s="138"/>
       <c r="E79" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" s="138"/>
       <c r="G79" s="138"/>
@@ -7020,11 +6947,11 @@
         <v>0</v>
       </c>
       <c r="I79" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J79" s="138"/>
       <c r="K79" s="138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="2:25">
@@ -7051,7 +6978,7 @@
       <c r="B82" s="125"/>
       <c r="D82" s="138"/>
       <c r="E82" s="138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" s="138"/>
       <c r="G82" s="138"/>
@@ -7060,17 +6987,17 @@
         <v>0</v>
       </c>
       <c r="I82" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J82" s="138"/>
       <c r="K82" s="138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="125"/>
       <c r="E83" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" s="138"/>
       <c r="G83" s="138"/>
@@ -7079,7 +7006,7 @@
         <v>1.47E-2</v>
       </c>
       <c r="I83" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J83" s="138"/>
       <c r="K83" s="138"/>
@@ -7087,7 +7014,7 @@
     <row r="84" spans="2:11">
       <c r="B84" s="125"/>
       <c r="E84" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F84" s="138"/>
       <c r="G84" s="138"/>
@@ -7096,7 +7023,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I84" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J84" s="138"/>
       <c r="K84" s="138"/>
@@ -7104,7 +7031,7 @@
     <row r="85" spans="2:11">
       <c r="B85" s="125"/>
       <c r="E85" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85" s="138"/>
       <c r="G85" s="138"/>
@@ -7113,7 +7040,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I85" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J85" s="138"/>
       <c r="K85" s="138"/>
@@ -7130,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J86" s="138"/>
       <c r="K86" s="138"/>
@@ -7138,7 +7065,7 @@
     <row r="87" spans="2:11">
       <c r="B87" s="125"/>
       <c r="E87" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" s="138"/>
       <c r="G87" s="138"/>
@@ -7147,11 +7074,11 @@
         <v>0</v>
       </c>
       <c r="I87" s="138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J87" s="138"/>
       <c r="K87" s="138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -7377,7 +7304,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E125" s="161"/>
       <c r="F125" s="161" t="s">
@@ -7434,7 +7361,7 @@
       <c r="A127" s="162"/>
       <c r="B127" s="163"/>
       <c r="C127" s="160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D127" s="138"/>
       <c r="E127" s="138"/>
@@ -7463,7 +7390,7 @@
       <c r="A128" s="162"/>
       <c r="B128" s="163"/>
       <c r="C128" s="164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D128" s="138"/>
       <c r="E128" s="138"/>
@@ -7520,7 +7447,7 @@
       <c r="B130" s="163"/>
       <c r="C130" s="138"/>
       <c r="D130" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E130" s="138"/>
       <c r="F130" s="138"/>
@@ -7544,7 +7471,7 @@
       <c r="X130" s="138"/>
       <c r="Y130" s="138"/>
     </row>
-    <row r="131" spans="1:25" ht="48">
+    <row r="131" spans="1:25" ht="36">
       <c r="A131" s="162"/>
       <c r="B131" s="163"/>
       <c r="C131" s="138"/>
@@ -7554,17 +7481,17 @@
       <c r="E131" s="162"/>
       <c r="F131" s="138"/>
       <c r="G131" s="138"/>
-      <c r="H131" s="181" t="s">
+      <c r="H131" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="I131" s="182" t="s">
-        <v>84</v>
-      </c>
-      <c r="J131" s="183" t="s">
-        <v>106</v>
+      <c r="J131" s="181" t="s">
+        <v>104</v>
       </c>
       <c r="K131" s="171" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L131" s="138"/>
       <c r="M131" s="138"/>
@@ -7583,18 +7510,18 @@
       <c r="B132" s="163"/>
       <c r="C132" s="138"/>
       <c r="D132" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E132" s="162"/>
       <c r="F132" s="138"/>
       <c r="G132" s="138"/>
       <c r="H132" s="166"/>
       <c r="I132" s="167"/>
-      <c r="J132" s="184" t="s">
-        <v>85</v>
+      <c r="J132" s="182" t="s">
+        <v>84</v>
       </c>
       <c r="K132" s="172" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L132" s="138"/>
       <c r="M132" s="138"/>
@@ -7614,25 +7541,25 @@
       <c r="C133" s="138"/>
       <c r="D133" s="138"/>
       <c r="E133" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F133" s="168">
         <f>AVERAGE(J133:J137)</f>
         <v>401.60399999999998</v>
       </c>
       <c r="G133" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H133" s="169">
         <v>42408</v>
       </c>
-      <c r="I133" s="185">
+      <c r="I133" s="183">
         <v>1</v>
       </c>
-      <c r="J133" s="186">
+      <c r="J133" s="184">
         <v>395.65</v>
       </c>
-      <c r="K133" s="187">
+      <c r="K133" s="185">
         <v>1420</v>
       </c>
       <c r="L133" s="138"/>
@@ -7653,25 +7580,25 @@
       <c r="C134" s="138"/>
       <c r="D134" s="138"/>
       <c r="E134" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F134" s="170">
         <f>F133/1000</f>
         <v>0.40160399999999996</v>
       </c>
       <c r="G134" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H134" s="169">
         <v>42401</v>
       </c>
-      <c r="I134" s="185">
+      <c r="I134" s="183">
         <v>1</v>
       </c>
-      <c r="J134" s="186">
+      <c r="J134" s="184">
         <v>399.79</v>
       </c>
-      <c r="K134" s="188">
+      <c r="K134" s="186">
         <v>1425</v>
       </c>
       <c r="L134" s="138"/>
@@ -7697,13 +7624,13 @@
       <c r="H135" s="169">
         <v>42394</v>
       </c>
-      <c r="I135" s="185">
+      <c r="I135" s="183">
         <v>1</v>
       </c>
-      <c r="J135" s="186">
+      <c r="J135" s="184">
         <v>393.17</v>
       </c>
-      <c r="K135" s="188">
+      <c r="K135" s="186">
         <v>1417</v>
       </c>
       <c r="L135" s="138"/>
@@ -7723,28 +7650,28 @@
       <c r="B136" s="163"/>
       <c r="C136" s="138"/>
       <c r="D136" s="138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E136" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F136" s="168">
         <f>AVERAGE(K133:K137)</f>
         <v>1427.2</v>
       </c>
       <c r="G136" s="138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H136" s="169">
         <v>42387</v>
       </c>
-      <c r="I136" s="185">
+      <c r="I136" s="183">
         <v>1</v>
       </c>
-      <c r="J136" s="186">
+      <c r="J136" s="184">
         <v>402.27</v>
       </c>
-      <c r="K136" s="188">
+      <c r="K136" s="186">
         <v>1428</v>
       </c>
       <c r="L136" s="138"/>
@@ -7765,25 +7692,25 @@
       <c r="C137" s="138"/>
       <c r="D137" s="138"/>
       <c r="E137" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F137" s="170">
         <f>F136/1000</f>
         <v>1.4272</v>
       </c>
       <c r="G137" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H137" s="169">
         <v>42380</v>
       </c>
-      <c r="I137" s="185">
+      <c r="I137" s="183">
         <v>1</v>
       </c>
-      <c r="J137" s="186">
+      <c r="J137" s="184">
         <v>417.14</v>
       </c>
-      <c r="K137" s="188">
+      <c r="K137" s="186">
         <v>1446</v>
       </c>
       <c r="L137" s="138"/>
@@ -7809,13 +7736,13 @@
       <c r="H138" s="169">
         <v>42373</v>
       </c>
-      <c r="I138" s="185">
+      <c r="I138" s="183">
         <v>1</v>
       </c>
-      <c r="J138" s="186">
+      <c r="J138" s="184">
         <v>412.18</v>
       </c>
-      <c r="K138" s="188">
+      <c r="K138" s="186">
         <v>1440</v>
       </c>
       <c r="L138" s="138"/>
@@ -7835,7 +7762,7 @@
       <c r="B139" s="163"/>
       <c r="C139" s="138"/>
       <c r="D139" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E139" s="138"/>
       <c r="F139" s="173"/>
@@ -7843,13 +7770,13 @@
       <c r="H139" s="169">
         <v>42352</v>
       </c>
-      <c r="I139" s="185">
+      <c r="I139" s="183">
         <v>1</v>
       </c>
-      <c r="J139" s="186">
+      <c r="J139" s="184">
         <v>435.02</v>
       </c>
-      <c r="K139" s="188">
+      <c r="K139" s="186">
         <v>1463</v>
       </c>
       <c r="L139" s="138"/>
@@ -7869,27 +7796,27 @@
       <c r="B140" s="163"/>
       <c r="C140" s="138"/>
       <c r="D140" s="138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E140" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F140" s="138">
         <v>21</v>
       </c>
       <c r="G140" s="138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H140" s="169">
         <v>42345</v>
       </c>
-      <c r="I140" s="185">
+      <c r="I140" s="183">
         <v>1</v>
       </c>
-      <c r="J140" s="186">
+      <c r="J140" s="184">
         <v>452.38</v>
       </c>
-      <c r="K140" s="188">
+      <c r="K140" s="186">
         <v>1484</v>
       </c>
       <c r="L140" s="138"/>
@@ -7909,28 +7836,28 @@
       <c r="B141" s="163"/>
       <c r="C141" s="138"/>
       <c r="D141" s="138" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E141" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F141" s="138">
         <f>766.07/1000</f>
         <v>0.76607000000000003</v>
       </c>
       <c r="G141" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H141" s="169">
         <v>42338</v>
       </c>
-      <c r="I141" s="185">
+      <c r="I141" s="183">
         <v>1</v>
       </c>
-      <c r="J141" s="186">
+      <c r="J141" s="184">
         <v>459.81</v>
       </c>
-      <c r="K141" s="188">
+      <c r="K141" s="186">
         <v>1493</v>
       </c>
       <c r="L141" s="138"/>
@@ -7950,28 +7877,28 @@
       <c r="B142" s="163"/>
       <c r="C142" s="138"/>
       <c r="D142" s="138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E142" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F142" s="173">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G142" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H142" s="169">
         <v>42331</v>
       </c>
-      <c r="I142" s="185">
+      <c r="I142" s="183">
         <v>1</v>
       </c>
-      <c r="J142" s="186">
+      <c r="J142" s="184">
         <v>469.73</v>
       </c>
-      <c r="K142" s="188">
+      <c r="K142" s="186">
         <v>1505</v>
       </c>
       <c r="L142" s="138"/>
@@ -7997,13 +7924,13 @@
       <c r="H143" s="169">
         <v>42324</v>
       </c>
-      <c r="I143" s="185">
+      <c r="I143" s="183">
         <v>1</v>
       </c>
-      <c r="J143" s="186">
+      <c r="J143" s="184">
         <v>492.87</v>
       </c>
-      <c r="K143" s="188">
+      <c r="K143" s="186">
         <v>1533</v>
       </c>
       <c r="L143" s="138"/>
@@ -8023,28 +7950,28 @@
       <c r="B144" s="163"/>
       <c r="C144" s="138"/>
       <c r="D144" s="138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E144" s="162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F144" s="173">
         <f>(F142+F141+F134)*1.21</f>
         <v>1.4225655399999999</v>
       </c>
       <c r="G144" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H144" s="169">
         <v>42317</v>
       </c>
-      <c r="I144" s="185">
+      <c r="I144" s="183">
         <v>1</v>
       </c>
-      <c r="J144" s="186">
+      <c r="J144" s="184">
         <v>478</v>
       </c>
-      <c r="K144" s="188">
+      <c r="K144" s="186">
         <v>1515</v>
       </c>
       <c r="L144" s="138"/>
@@ -8070,13 +7997,13 @@
       <c r="H145" s="169">
         <v>42310</v>
       </c>
-      <c r="I145" s="185">
+      <c r="I145" s="183">
         <v>1</v>
       </c>
-      <c r="J145" s="186">
+      <c r="J145" s="184">
         <v>449.07</v>
       </c>
-      <c r="K145" s="188">
+      <c r="K145" s="186">
         <v>1480</v>
       </c>
       <c r="L145" s="138"/>
@@ -8102,13 +8029,13 @@
       <c r="H146" s="169">
         <v>42303</v>
       </c>
-      <c r="I146" s="185">
+      <c r="I146" s="183">
         <v>1</v>
       </c>
-      <c r="J146" s="186">
+      <c r="J146" s="184">
         <v>439.98</v>
       </c>
-      <c r="K146" s="188">
+      <c r="K146" s="186">
         <v>1469</v>
       </c>
       <c r="L146" s="138"/>
@@ -8134,13 +8061,13 @@
       <c r="H147" s="169">
         <v>42296</v>
       </c>
-      <c r="I147" s="185">
+      <c r="I147" s="183">
         <v>1</v>
       </c>
-      <c r="J147" s="186">
+      <c r="J147" s="184">
         <v>454.03</v>
       </c>
-      <c r="K147" s="188">
+      <c r="K147" s="186">
         <v>1486</v>
       </c>
       <c r="L147" s="138"/>
@@ -8166,13 +8093,13 @@
       <c r="H148" s="169">
         <v>42289</v>
       </c>
-      <c r="I148" s="185">
+      <c r="I148" s="183">
         <v>1</v>
       </c>
-      <c r="J148" s="186">
+      <c r="J148" s="184">
         <v>462.29</v>
       </c>
-      <c r="K148" s="188">
+      <c r="K148" s="186">
         <v>1496</v>
       </c>
       <c r="L148" s="138"/>
@@ -8198,13 +8125,13 @@
       <c r="H149" s="169">
         <v>42282</v>
       </c>
-      <c r="I149" s="185">
+      <c r="I149" s="183">
         <v>1</v>
       </c>
-      <c r="J149" s="186">
+      <c r="J149" s="184">
         <v>451.55</v>
       </c>
-      <c r="K149" s="188">
+      <c r="K149" s="186">
         <v>1483</v>
       </c>
       <c r="L149" s="138"/>
@@ -8230,13 +8157,13 @@
       <c r="H150" s="169">
         <v>42275</v>
       </c>
-      <c r="I150" s="185">
+      <c r="I150" s="183">
         <v>1</v>
       </c>
-      <c r="J150" s="186">
+      <c r="J150" s="184">
         <v>463.12</v>
       </c>
-      <c r="K150" s="188">
+      <c r="K150" s="186">
         <v>1497</v>
       </c>
       <c r="L150" s="138"/>
@@ -8262,13 +8189,13 @@
       <c r="H151" s="169">
         <v>42268</v>
       </c>
-      <c r="I151" s="185">
+      <c r="I151" s="183">
         <v>1</v>
       </c>
-      <c r="J151" s="186">
+      <c r="J151" s="184">
         <v>472.21</v>
       </c>
-      <c r="K151" s="188">
+      <c r="K151" s="186">
         <v>1508</v>
       </c>
       <c r="L151" s="138"/>
@@ -8294,13 +8221,13 @@
       <c r="H152" s="169">
         <v>42261</v>
       </c>
-      <c r="I152" s="185">
+      <c r="I152" s="183">
         <v>1</v>
       </c>
-      <c r="J152" s="186">
+      <c r="J152" s="184">
         <v>481.3</v>
       </c>
-      <c r="K152" s="188">
+      <c r="K152" s="186">
         <v>1519</v>
       </c>
       <c r="L152" s="162"/>
@@ -8326,13 +8253,13 @@
       <c r="H153" s="169">
         <v>42254</v>
       </c>
-      <c r="I153" s="185">
+      <c r="I153" s="183">
         <v>1</v>
       </c>
-      <c r="J153" s="186">
+      <c r="J153" s="184">
         <v>482.13</v>
       </c>
-      <c r="K153" s="188">
+      <c r="K153" s="186">
         <v>1520</v>
       </c>
       <c r="L153" s="162"/>
@@ -8358,13 +8285,13 @@
       <c r="H154" s="169">
         <v>42247</v>
       </c>
-      <c r="I154" s="185">
+      <c r="I154" s="183">
         <v>1</v>
       </c>
-      <c r="J154" s="186">
+      <c r="J154" s="184">
         <v>482.95</v>
       </c>
-      <c r="K154" s="188">
+      <c r="K154" s="186">
         <v>1521</v>
       </c>
       <c r="L154" s="162"/>
@@ -8390,13 +8317,13 @@
       <c r="H155" s="169">
         <v>42240</v>
       </c>
-      <c r="I155" s="185">
+      <c r="I155" s="183">
         <v>1</v>
       </c>
-      <c r="J155" s="186">
+      <c r="J155" s="184">
         <v>513.53</v>
       </c>
-      <c r="K155" s="188">
+      <c r="K155" s="186">
         <v>1558</v>
       </c>
       <c r="L155" s="162"/>
@@ -8422,13 +8349,13 @@
       <c r="H156" s="169">
         <v>42233</v>
       </c>
-      <c r="I156" s="185">
+      <c r="I156" s="183">
         <v>1</v>
       </c>
-      <c r="J156" s="186">
+      <c r="J156" s="184">
         <v>542.46</v>
       </c>
-      <c r="K156" s="188">
+      <c r="K156" s="186">
         <v>1593</v>
       </c>
       <c r="L156" s="162"/>
@@ -8454,13 +8381,13 @@
       <c r="H157" s="169">
         <v>42226</v>
       </c>
-      <c r="I157" s="185">
+      <c r="I157" s="183">
         <v>1</v>
       </c>
-      <c r="J157" s="186">
+      <c r="J157" s="184">
         <v>562.29</v>
       </c>
-      <c r="K157" s="188">
+      <c r="K157" s="186">
         <v>1617</v>
       </c>
       <c r="L157" s="162"/>
@@ -8486,13 +8413,13 @@
       <c r="H158" s="169">
         <v>42219</v>
       </c>
-      <c r="I158" s="185">
+      <c r="I158" s="183">
         <v>1</v>
       </c>
-      <c r="J158" s="186">
+      <c r="J158" s="184">
         <v>573.86</v>
       </c>
-      <c r="K158" s="188">
+      <c r="K158" s="186">
         <v>1631</v>
       </c>
       <c r="L158" s="162"/>
@@ -8518,13 +8445,13 @@
       <c r="H159" s="169">
         <v>42212</v>
       </c>
-      <c r="I159" s="185">
+      <c r="I159" s="183">
         <v>1</v>
       </c>
-      <c r="J159" s="186">
+      <c r="J159" s="184">
         <v>586.26</v>
       </c>
-      <c r="K159" s="188">
+      <c r="K159" s="186">
         <v>1646</v>
       </c>
       <c r="L159" s="162"/>
@@ -8550,13 +8477,13 @@
       <c r="H160" s="169">
         <v>42205</v>
       </c>
-      <c r="I160" s="185">
+      <c r="I160" s="183">
         <v>1</v>
       </c>
-      <c r="J160" s="186">
+      <c r="J160" s="184">
         <v>599.48</v>
       </c>
-      <c r="K160" s="188">
+      <c r="K160" s="186">
         <v>1662</v>
       </c>
       <c r="L160" s="162"/>
@@ -8582,13 +8509,13 @@
       <c r="H161" s="169">
         <v>42198</v>
       </c>
-      <c r="I161" s="185">
+      <c r="I161" s="183">
         <v>1</v>
       </c>
-      <c r="J161" s="186">
+      <c r="J161" s="184">
         <v>617.66999999999996</v>
       </c>
-      <c r="K161" s="188">
+      <c r="K161" s="186">
         <v>1684</v>
       </c>
       <c r="L161" s="162"/>
@@ -8614,13 +8541,13 @@
       <c r="H162" s="169">
         <v>42191</v>
       </c>
-      <c r="I162" s="185">
+      <c r="I162" s="183">
         <v>1</v>
       </c>
-      <c r="J162" s="186">
+      <c r="J162" s="184">
         <v>601.14</v>
       </c>
-      <c r="K162" s="188">
+      <c r="K162" s="186">
         <v>1664</v>
       </c>
       <c r="L162" s="162"/>
@@ -8637,12 +8564,12 @@
     </row>
     <row r="167" spans="1:25" ht="17" thickBot="1"/>
     <row r="168" spans="1:25">
-      <c r="B168" s="196"/>
+      <c r="B168" s="191"/>
       <c r="C168" s="161" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E168" s="161"/>
       <c r="F168" s="161" t="s">
@@ -8696,15 +8623,15 @@
     </row>
     <row r="170" spans="1:25">
       <c r="B170" s="163"/>
-      <c r="C170" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="D170" s="198"/>
-      <c r="E170" s="198"/>
-      <c r="F170" s="198"/>
-      <c r="G170" s="198"/>
-      <c r="H170" s="198"/>
-      <c r="I170" s="198"/>
+      <c r="C170" s="192" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" s="193"/>
+      <c r="E170" s="193"/>
+      <c r="F170" s="193"/>
+      <c r="G170" s="193"/>
+      <c r="H170" s="193"/>
+      <c r="I170" s="193"/>
       <c r="J170" s="138"/>
       <c r="K170" s="138"/>
       <c r="L170" s="138"/>
@@ -9087,21 +9014,21 @@
       <c r="Y184" s="162"/>
     </row>
     <row r="185" spans="2:25">
-      <c r="B185" s="201"/>
-      <c r="C185" s="202"/>
-      <c r="D185" s="202"/>
-      <c r="E185" s="202"/>
-      <c r="F185" s="202"/>
-      <c r="G185" s="202"/>
-      <c r="H185" s="202"/>
-      <c r="I185" s="202"/>
-      <c r="J185" s="202"/>
-      <c r="K185" s="202"/>
-      <c r="L185" s="202"/>
-      <c r="M185" s="202"/>
-      <c r="N185" s="202"/>
-      <c r="O185" s="202"/>
-      <c r="P185" s="202"/>
+      <c r="B185" s="196"/>
+      <c r="C185" s="197"/>
+      <c r="D185" s="197"/>
+      <c r="E185" s="197"/>
+      <c r="F185" s="197"/>
+      <c r="G185" s="197"/>
+      <c r="H185" s="197"/>
+      <c r="I185" s="197"/>
+      <c r="J185" s="197"/>
+      <c r="K185" s="197"/>
+      <c r="L185" s="197"/>
+      <c r="M185" s="197"/>
+      <c r="N185" s="197"/>
+      <c r="O185" s="197"/>
+      <c r="P185" s="197"/>
       <c r="Q185" s="162"/>
       <c r="R185" s="162"/>
       <c r="S185" s="162"/>
@@ -9113,21 +9040,21 @@
       <c r="Y185" s="162"/>
     </row>
     <row r="186" spans="2:25">
-      <c r="B186" s="201"/>
-      <c r="C186" s="202"/>
-      <c r="D186" s="202"/>
-      <c r="E186" s="202"/>
-      <c r="F186" s="202"/>
-      <c r="G186" s="202"/>
-      <c r="H186" s="202"/>
-      <c r="I186" s="202"/>
-      <c r="J186" s="202"/>
-      <c r="K186" s="202"/>
-      <c r="L186" s="202"/>
-      <c r="M186" s="202"/>
-      <c r="N186" s="202"/>
-      <c r="O186" s="202"/>
-      <c r="P186" s="202"/>
+      <c r="B186" s="196"/>
+      <c r="C186" s="197"/>
+      <c r="D186" s="197"/>
+      <c r="E186" s="197"/>
+      <c r="F186" s="197"/>
+      <c r="G186" s="197"/>
+      <c r="H186" s="197"/>
+      <c r="I186" s="197"/>
+      <c r="J186" s="197"/>
+      <c r="K186" s="197"/>
+      <c r="L186" s="197"/>
+      <c r="M186" s="197"/>
+      <c r="N186" s="197"/>
+      <c r="O186" s="197"/>
+      <c r="P186" s="197"/>
       <c r="Q186" s="162"/>
       <c r="R186" s="162"/>
       <c r="S186" s="162"/>
@@ -9139,21 +9066,21 @@
       <c r="Y186" s="162"/>
     </row>
     <row r="187" spans="2:25">
-      <c r="B187" s="201"/>
-      <c r="C187" s="202"/>
-      <c r="D187" s="202"/>
-      <c r="E187" s="202"/>
-      <c r="F187" s="202"/>
-      <c r="G187" s="202"/>
-      <c r="H187" s="202"/>
-      <c r="I187" s="202"/>
-      <c r="J187" s="202"/>
-      <c r="K187" s="202"/>
-      <c r="L187" s="202"/>
-      <c r="M187" s="202"/>
-      <c r="N187" s="202"/>
-      <c r="O187" s="202"/>
-      <c r="P187" s="202"/>
+      <c r="B187" s="196"/>
+      <c r="C187" s="197"/>
+      <c r="D187" s="197"/>
+      <c r="E187" s="197"/>
+      <c r="F187" s="197"/>
+      <c r="G187" s="197"/>
+      <c r="H187" s="197"/>
+      <c r="I187" s="197"/>
+      <c r="J187" s="197"/>
+      <c r="K187" s="197"/>
+      <c r="L187" s="197"/>
+      <c r="M187" s="197"/>
+      <c r="N187" s="197"/>
+      <c r="O187" s="197"/>
+      <c r="P187" s="197"/>
       <c r="Q187" s="162"/>
       <c r="R187" s="162"/>
       <c r="S187" s="162"/>
@@ -9165,21 +9092,21 @@
       <c r="Y187" s="162"/>
     </row>
     <row r="188" spans="2:25">
-      <c r="B188" s="201"/>
-      <c r="C188" s="202"/>
-      <c r="D188" s="202"/>
-      <c r="E188" s="202"/>
-      <c r="F188" s="202"/>
-      <c r="G188" s="202"/>
-      <c r="H188" s="202"/>
-      <c r="I188" s="202"/>
-      <c r="J188" s="202"/>
-      <c r="K188" s="202"/>
-      <c r="L188" s="202"/>
-      <c r="M188" s="202"/>
-      <c r="N188" s="202"/>
-      <c r="O188" s="202"/>
-      <c r="P188" s="202"/>
+      <c r="B188" s="196"/>
+      <c r="C188" s="197"/>
+      <c r="D188" s="197"/>
+      <c r="E188" s="197"/>
+      <c r="F188" s="197"/>
+      <c r="G188" s="197"/>
+      <c r="H188" s="197"/>
+      <c r="I188" s="197"/>
+      <c r="J188" s="197"/>
+      <c r="K188" s="197"/>
+      <c r="L188" s="197"/>
+      <c r="M188" s="197"/>
+      <c r="N188" s="197"/>
+      <c r="O188" s="197"/>
+      <c r="P188" s="197"/>
       <c r="Q188" s="162"/>
       <c r="R188" s="162"/>
       <c r="S188" s="162"/>
@@ -9191,21 +9118,21 @@
       <c r="Y188" s="162"/>
     </row>
     <row r="189" spans="2:25">
-      <c r="B189" s="201"/>
-      <c r="C189" s="202"/>
-      <c r="D189" s="202"/>
-      <c r="E189" s="203"/>
-      <c r="F189" s="203"/>
-      <c r="G189" s="203"/>
-      <c r="H189" s="203"/>
-      <c r="I189" s="203"/>
-      <c r="J189" s="204"/>
-      <c r="K189" s="202"/>
-      <c r="L189" s="202"/>
-      <c r="M189" s="202"/>
-      <c r="N189" s="202"/>
-      <c r="O189" s="202"/>
-      <c r="P189" s="202"/>
+      <c r="B189" s="196"/>
+      <c r="C189" s="197"/>
+      <c r="D189" s="197"/>
+      <c r="E189" s="198"/>
+      <c r="F189" s="198"/>
+      <c r="G189" s="198"/>
+      <c r="H189" s="198"/>
+      <c r="I189" s="198"/>
+      <c r="J189" s="199"/>
+      <c r="K189" s="197"/>
+      <c r="L189" s="197"/>
+      <c r="M189" s="197"/>
+      <c r="N189" s="197"/>
+      <c r="O189" s="197"/>
+      <c r="P189" s="197"/>
       <c r="Q189" s="162"/>
       <c r="R189" s="162"/>
       <c r="S189" s="162"/>
@@ -9217,21 +9144,21 @@
       <c r="Y189" s="162"/>
     </row>
     <row r="190" spans="2:25">
-      <c r="B190" s="201"/>
-      <c r="C190" s="202"/>
-      <c r="D190" s="202"/>
-      <c r="E190" s="203"/>
-      <c r="F190" s="203"/>
-      <c r="G190" s="203"/>
-      <c r="H190" s="203"/>
-      <c r="I190" s="203"/>
-      <c r="J190" s="204"/>
-      <c r="K190" s="202"/>
-      <c r="L190" s="202"/>
-      <c r="M190" s="202"/>
-      <c r="N190" s="202"/>
-      <c r="O190" s="202"/>
-      <c r="P190" s="202"/>
+      <c r="B190" s="196"/>
+      <c r="C190" s="197"/>
+      <c r="D190" s="197"/>
+      <c r="E190" s="198"/>
+      <c r="F190" s="198"/>
+      <c r="G190" s="198"/>
+      <c r="H190" s="198"/>
+      <c r="I190" s="198"/>
+      <c r="J190" s="199"/>
+      <c r="K190" s="197"/>
+      <c r="L190" s="197"/>
+      <c r="M190" s="197"/>
+      <c r="N190" s="197"/>
+      <c r="O190" s="197"/>
+      <c r="P190" s="197"/>
       <c r="Q190" s="162"/>
       <c r="R190" s="162"/>
       <c r="S190" s="162"/>
@@ -9243,21 +9170,21 @@
       <c r="Y190" s="162"/>
     </row>
     <row r="191" spans="2:25">
-      <c r="B191" s="201"/>
-      <c r="C191" s="202"/>
-      <c r="D191" s="202"/>
-      <c r="E191" s="203"/>
-      <c r="F191" s="203"/>
-      <c r="G191" s="203"/>
-      <c r="H191" s="203"/>
-      <c r="I191" s="203"/>
-      <c r="J191" s="204"/>
-      <c r="K191" s="202"/>
-      <c r="L191" s="202"/>
-      <c r="M191" s="202"/>
-      <c r="N191" s="202"/>
-      <c r="O191" s="202"/>
-      <c r="P191" s="202"/>
+      <c r="B191" s="196"/>
+      <c r="C191" s="197"/>
+      <c r="D191" s="197"/>
+      <c r="E191" s="198"/>
+      <c r="F191" s="198"/>
+      <c r="G191" s="198"/>
+      <c r="H191" s="198"/>
+      <c r="I191" s="198"/>
+      <c r="J191" s="199"/>
+      <c r="K191" s="197"/>
+      <c r="L191" s="197"/>
+      <c r="M191" s="197"/>
+      <c r="N191" s="197"/>
+      <c r="O191" s="197"/>
+      <c r="P191" s="197"/>
       <c r="Q191" s="162"/>
       <c r="R191" s="162"/>
       <c r="S191" s="162"/>
@@ -9269,21 +9196,21 @@
       <c r="Y191" s="162"/>
     </row>
     <row r="192" spans="2:25">
-      <c r="B192" s="201"/>
-      <c r="C192" s="202"/>
-      <c r="D192" s="202"/>
-      <c r="E192" s="202"/>
-      <c r="F192" s="202"/>
-      <c r="G192" s="202"/>
-      <c r="H192" s="202"/>
-      <c r="I192" s="202"/>
-      <c r="J192" s="202"/>
-      <c r="K192" s="202"/>
-      <c r="L192" s="202"/>
-      <c r="M192" s="202"/>
-      <c r="N192" s="202"/>
-      <c r="O192" s="202"/>
-      <c r="P192" s="202"/>
+      <c r="B192" s="196"/>
+      <c r="C192" s="197"/>
+      <c r="D192" s="197"/>
+      <c r="E192" s="197"/>
+      <c r="F192" s="197"/>
+      <c r="G192" s="197"/>
+      <c r="H192" s="197"/>
+      <c r="I192" s="197"/>
+      <c r="J192" s="197"/>
+      <c r="K192" s="197"/>
+      <c r="L192" s="197"/>
+      <c r="M192" s="197"/>
+      <c r="N192" s="197"/>
+      <c r="O192" s="197"/>
+      <c r="P192" s="197"/>
       <c r="Q192" s="162"/>
       <c r="R192" s="162"/>
       <c r="S192" s="162"/>
@@ -9295,422 +9222,422 @@
       <c r="Y192" s="162"/>
     </row>
     <row r="193" spans="2:16">
-      <c r="B193" s="203"/>
-      <c r="C193" s="203"/>
-      <c r="D193" s="203"/>
-      <c r="E193" s="203"/>
-      <c r="F193" s="203"/>
-      <c r="G193" s="203"/>
-      <c r="H193" s="203"/>
-      <c r="I193" s="203"/>
-      <c r="J193" s="203"/>
-      <c r="K193" s="203"/>
-      <c r="L193" s="203"/>
-      <c r="M193" s="203"/>
-      <c r="N193" s="203"/>
-      <c r="O193" s="203"/>
-      <c r="P193" s="203"/>
+      <c r="B193" s="198"/>
+      <c r="C193" s="198"/>
+      <c r="D193" s="198"/>
+      <c r="E193" s="198"/>
+      <c r="F193" s="198"/>
+      <c r="G193" s="198"/>
+      <c r="H193" s="198"/>
+      <c r="I193" s="198"/>
+      <c r="J193" s="198"/>
+      <c r="K193" s="198"/>
+      <c r="L193" s="198"/>
+      <c r="M193" s="198"/>
+      <c r="N193" s="198"/>
+      <c r="O193" s="198"/>
+      <c r="P193" s="198"/>
     </row>
     <row r="194" spans="2:16">
-      <c r="B194" s="203"/>
-      <c r="C194" s="203"/>
-      <c r="D194" s="203"/>
-      <c r="E194" s="203"/>
-      <c r="F194" s="203"/>
-      <c r="G194" s="203"/>
-      <c r="H194" s="203"/>
-      <c r="I194" s="203"/>
-      <c r="J194" s="203"/>
-      <c r="K194" s="203"/>
-      <c r="L194" s="203"/>
-      <c r="M194" s="203"/>
-      <c r="N194" s="203"/>
-      <c r="O194" s="203"/>
-      <c r="P194" s="203"/>
+      <c r="B194" s="198"/>
+      <c r="C194" s="198"/>
+      <c r="D194" s="198"/>
+      <c r="E194" s="198"/>
+      <c r="F194" s="198"/>
+      <c r="G194" s="198"/>
+      <c r="H194" s="198"/>
+      <c r="I194" s="198"/>
+      <c r="J194" s="198"/>
+      <c r="K194" s="198"/>
+      <c r="L194" s="198"/>
+      <c r="M194" s="198"/>
+      <c r="N194" s="198"/>
+      <c r="O194" s="198"/>
+      <c r="P194" s="198"/>
     </row>
     <row r="195" spans="2:16">
-      <c r="B195" s="203"/>
-      <c r="C195" s="203"/>
-      <c r="D195" s="203"/>
-      <c r="E195" s="204">
+      <c r="B195" s="198"/>
+      <c r="C195" s="198"/>
+      <c r="D195" s="198"/>
+      <c r="E195" s="199">
         <v>1.23</v>
       </c>
-      <c r="F195" s="205"/>
-      <c r="G195" s="204"/>
-      <c r="H195" s="204">
+      <c r="F195" s="200"/>
+      <c r="G195" s="199"/>
+      <c r="H195" s="199">
         <v>79600</v>
       </c>
-      <c r="I195" s="204" t="s">
-        <v>117</v>
-      </c>
-      <c r="J195" s="206" t="s">
-        <v>119</v>
-      </c>
-      <c r="K195" s="203"/>
-      <c r="L195" s="203"/>
-      <c r="M195" s="203"/>
-      <c r="N195" s="203"/>
-      <c r="O195" s="203"/>
-      <c r="P195" s="203"/>
+      <c r="I195" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="J195" s="201" t="s">
+        <v>115</v>
+      </c>
+      <c r="K195" s="198"/>
+      <c r="L195" s="198"/>
+      <c r="M195" s="198"/>
+      <c r="N195" s="198"/>
+      <c r="O195" s="198"/>
+      <c r="P195" s="198"/>
     </row>
     <row r="196" spans="2:16">
-      <c r="B196" s="203"/>
-      <c r="C196" s="203"/>
-      <c r="D196" s="203"/>
-      <c r="E196" s="204"/>
-      <c r="F196" s="205"/>
-      <c r="G196" s="204"/>
-      <c r="H196" s="204">
+      <c r="B196" s="198"/>
+      <c r="C196" s="198"/>
+      <c r="D196" s="198"/>
+      <c r="E196" s="199"/>
+      <c r="F196" s="200"/>
+      <c r="G196" s="199"/>
+      <c r="H196" s="199">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="I196" s="204" t="s">
-        <v>118</v>
-      </c>
-      <c r="J196" s="203"/>
-      <c r="K196" s="203"/>
-      <c r="L196" s="203"/>
-      <c r="M196" s="203"/>
-      <c r="N196" s="203"/>
-      <c r="O196" s="203"/>
-      <c r="P196" s="203"/>
+      <c r="I196" s="199" t="s">
+        <v>114</v>
+      </c>
+      <c r="J196" s="198"/>
+      <c r="K196" s="198"/>
+      <c r="L196" s="198"/>
+      <c r="M196" s="198"/>
+      <c r="N196" s="198"/>
+      <c r="O196" s="198"/>
+      <c r="P196" s="198"/>
     </row>
     <row r="197" spans="2:16">
-      <c r="B197" s="203"/>
-      <c r="C197" s="203"/>
-      <c r="D197" s="203"/>
-      <c r="E197" s="204"/>
-      <c r="F197" s="205"/>
-      <c r="G197" s="204"/>
-      <c r="H197" s="204">
+      <c r="B197" s="198"/>
+      <c r="C197" s="198"/>
+      <c r="D197" s="198"/>
+      <c r="E197" s="199"/>
+      <c r="F197" s="200"/>
+      <c r="G197" s="199"/>
+      <c r="H197" s="199">
         <f>H195/H196</f>
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="I197" s="204" t="s">
-        <v>117</v>
-      </c>
-      <c r="J197" s="203"/>
-      <c r="K197" s="203"/>
-      <c r="L197" s="203"/>
-      <c r="M197" s="203"/>
-      <c r="N197" s="203"/>
-      <c r="O197" s="203"/>
-      <c r="P197" s="203"/>
+      <c r="I197" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="J197" s="198"/>
+      <c r="K197" s="198"/>
+      <c r="L197" s="198"/>
+      <c r="M197" s="198"/>
+      <c r="N197" s="198"/>
+      <c r="O197" s="198"/>
+      <c r="P197" s="198"/>
     </row>
     <row r="198" spans="2:16">
-      <c r="B198" s="203"/>
-      <c r="C198" s="203"/>
-      <c r="D198" s="203"/>
-      <c r="E198" s="203"/>
-      <c r="F198" s="203"/>
-      <c r="G198" s="203"/>
-      <c r="H198" s="203"/>
-      <c r="I198" s="203"/>
-      <c r="J198" s="203"/>
-      <c r="K198" s="203"/>
-      <c r="L198" s="203"/>
-      <c r="M198" s="203"/>
-      <c r="N198" s="203"/>
-      <c r="O198" s="203"/>
-      <c r="P198" s="203"/>
+      <c r="B198" s="198"/>
+      <c r="C198" s="198"/>
+      <c r="D198" s="198"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="198"/>
+      <c r="G198" s="198"/>
+      <c r="H198" s="198"/>
+      <c r="I198" s="198"/>
+      <c r="J198" s="198"/>
+      <c r="K198" s="198"/>
+      <c r="L198" s="198"/>
+      <c r="M198" s="198"/>
+      <c r="N198" s="198"/>
+      <c r="O198" s="198"/>
+      <c r="P198" s="198"/>
     </row>
     <row r="199" spans="2:16">
-      <c r="B199" s="203"/>
-      <c r="C199" s="203"/>
-      <c r="D199" s="203"/>
-      <c r="E199" s="203"/>
-      <c r="F199" s="203"/>
-      <c r="G199" s="203"/>
-      <c r="H199" s="203"/>
-      <c r="I199" s="203"/>
-      <c r="J199" s="203"/>
-      <c r="K199" s="203"/>
-      <c r="L199" s="203"/>
-      <c r="M199" s="203"/>
-      <c r="N199" s="203"/>
-      <c r="O199" s="203"/>
-      <c r="P199" s="203"/>
+      <c r="B199" s="198"/>
+      <c r="C199" s="198"/>
+      <c r="D199" s="198"/>
+      <c r="E199" s="198"/>
+      <c r="F199" s="198"/>
+      <c r="G199" s="198"/>
+      <c r="H199" s="198"/>
+      <c r="I199" s="198"/>
+      <c r="J199" s="198"/>
+      <c r="K199" s="198"/>
+      <c r="L199" s="198"/>
+      <c r="M199" s="198"/>
+      <c r="N199" s="198"/>
+      <c r="O199" s="198"/>
+      <c r="P199" s="198"/>
     </row>
     <row r="200" spans="2:16">
-      <c r="B200" s="203"/>
-      <c r="C200" s="203"/>
-      <c r="D200" s="203"/>
-      <c r="E200" s="203"/>
-      <c r="F200" s="203"/>
-      <c r="G200" s="203"/>
-      <c r="H200" s="203"/>
-      <c r="I200" s="203"/>
-      <c r="J200" s="203"/>
-      <c r="K200" s="203"/>
-      <c r="L200" s="203"/>
-      <c r="M200" s="203"/>
-      <c r="N200" s="203"/>
-      <c r="O200" s="203"/>
-      <c r="P200" s="203"/>
+      <c r="B200" s="198"/>
+      <c r="C200" s="198"/>
+      <c r="D200" s="198"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="198"/>
+      <c r="G200" s="198"/>
+      <c r="H200" s="198"/>
+      <c r="I200" s="198"/>
+      <c r="J200" s="198"/>
+      <c r="K200" s="198"/>
+      <c r="L200" s="198"/>
+      <c r="M200" s="198"/>
+      <c r="N200" s="198"/>
+      <c r="O200" s="198"/>
+      <c r="P200" s="198"/>
     </row>
     <row r="201" spans="2:16">
-      <c r="B201" s="203"/>
-      <c r="C201" s="203"/>
-      <c r="D201" s="203"/>
-      <c r="E201" s="203"/>
-      <c r="F201" s="203"/>
-      <c r="G201" s="203"/>
-      <c r="H201" s="203"/>
-      <c r="I201" s="203"/>
-      <c r="J201" s="203"/>
-      <c r="K201" s="203"/>
-      <c r="L201" s="203"/>
-      <c r="M201" s="203"/>
-      <c r="N201" s="203"/>
-      <c r="O201" s="203"/>
-      <c r="P201" s="203"/>
+      <c r="B201" s="198"/>
+      <c r="C201" s="198"/>
+      <c r="D201" s="198"/>
+      <c r="E201" s="198"/>
+      <c r="F201" s="198"/>
+      <c r="G201" s="198"/>
+      <c r="H201" s="198"/>
+      <c r="I201" s="198"/>
+      <c r="J201" s="198"/>
+      <c r="K201" s="198"/>
+      <c r="L201" s="198"/>
+      <c r="M201" s="198"/>
+      <c r="N201" s="198"/>
+      <c r="O201" s="198"/>
+      <c r="P201" s="198"/>
     </row>
     <row r="202" spans="2:16">
-      <c r="B202" s="203"/>
-      <c r="C202" s="203"/>
-      <c r="D202" s="203"/>
-      <c r="E202" s="203"/>
-      <c r="F202" s="203"/>
-      <c r="G202" s="203"/>
-      <c r="H202" s="203"/>
-      <c r="I202" s="203"/>
-      <c r="J202" s="203"/>
-      <c r="K202" s="203"/>
-      <c r="L202" s="203"/>
-      <c r="M202" s="203"/>
-      <c r="N202" s="203"/>
-      <c r="O202" s="203"/>
-      <c r="P202" s="203"/>
+      <c r="B202" s="198"/>
+      <c r="C202" s="198"/>
+      <c r="D202" s="198"/>
+      <c r="E202" s="198"/>
+      <c r="F202" s="198"/>
+      <c r="G202" s="198"/>
+      <c r="H202" s="198"/>
+      <c r="I202" s="198"/>
+      <c r="J202" s="198"/>
+      <c r="K202" s="198"/>
+      <c r="L202" s="198"/>
+      <c r="M202" s="198"/>
+      <c r="N202" s="198"/>
+      <c r="O202" s="198"/>
+      <c r="P202" s="198"/>
     </row>
     <row r="203" spans="2:16">
-      <c r="B203" s="203"/>
-      <c r="C203" s="203"/>
-      <c r="D203" s="203"/>
-      <c r="E203" s="203"/>
-      <c r="F203" s="203"/>
-      <c r="G203" s="203"/>
-      <c r="H203" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="I203" s="203"/>
-      <c r="J203" s="203"/>
-      <c r="K203" s="203"/>
-      <c r="L203" s="203"/>
-      <c r="M203" s="203"/>
-      <c r="N203" s="203"/>
-      <c r="O203" s="203"/>
-      <c r="P203" s="203"/>
+      <c r="B203" s="198"/>
+      <c r="C203" s="198"/>
+      <c r="D203" s="198"/>
+      <c r="E203" s="198"/>
+      <c r="F203" s="198"/>
+      <c r="G203" s="198"/>
+      <c r="H203" s="203" t="s">
+        <v>119</v>
+      </c>
+      <c r="I203" s="198"/>
+      <c r="J203" s="198"/>
+      <c r="K203" s="198"/>
+      <c r="L203" s="198"/>
+      <c r="M203" s="198"/>
+      <c r="N203" s="198"/>
+      <c r="O203" s="198"/>
+      <c r="P203" s="198"/>
     </row>
     <row r="204" spans="2:16">
-      <c r="B204" s="203"/>
-      <c r="C204" s="203"/>
-      <c r="D204" s="203"/>
-      <c r="E204" s="203"/>
-      <c r="F204" s="203"/>
-      <c r="G204" s="203"/>
-      <c r="H204" s="203"/>
-      <c r="I204" s="203"/>
-      <c r="J204" s="203"/>
-      <c r="K204" s="203"/>
-      <c r="L204" s="203"/>
-      <c r="M204" s="203"/>
-      <c r="N204" s="203"/>
-      <c r="O204" s="203"/>
-      <c r="P204" s="203"/>
+      <c r="B204" s="198"/>
+      <c r="C204" s="198"/>
+      <c r="D204" s="198"/>
+      <c r="E204" s="198"/>
+      <c r="F204" s="198"/>
+      <c r="G204" s="198"/>
+      <c r="H204" s="198"/>
+      <c r="I204" s="198"/>
+      <c r="J204" s="198"/>
+      <c r="K204" s="198"/>
+      <c r="L204" s="198"/>
+      <c r="M204" s="198"/>
+      <c r="N204" s="198"/>
+      <c r="O204" s="198"/>
+      <c r="P204" s="198"/>
     </row>
     <row r="205" spans="2:16">
-      <c r="B205" s="203"/>
-      <c r="C205" s="203"/>
-      <c r="D205" s="203"/>
-      <c r="E205" s="203"/>
-      <c r="F205" s="203"/>
-      <c r="G205" s="203"/>
-      <c r="H205" s="203">
+      <c r="B205" s="198"/>
+      <c r="C205" s="198"/>
+      <c r="D205" s="198"/>
+      <c r="E205" s="198"/>
+      <c r="F205" s="198"/>
+      <c r="G205" s="198"/>
+      <c r="H205" s="198">
         <v>27.4</v>
       </c>
-      <c r="I205" s="208" t="s">
-        <v>124</v>
-      </c>
-      <c r="J205" s="203"/>
-      <c r="K205" s="203"/>
-      <c r="L205" s="203"/>
-      <c r="M205" s="203"/>
-      <c r="N205" s="203"/>
-      <c r="O205" s="203"/>
-      <c r="P205" s="203"/>
+      <c r="I205" s="203" t="s">
+        <v>120</v>
+      </c>
+      <c r="J205" s="198"/>
+      <c r="K205" s="198"/>
+      <c r="L205" s="198"/>
+      <c r="M205" s="198"/>
+      <c r="N205" s="198"/>
+      <c r="O205" s="198"/>
+      <c r="P205" s="198"/>
     </row>
     <row r="206" spans="2:16">
-      <c r="B206" s="203"/>
-      <c r="C206" s="203"/>
-      <c r="D206" s="203"/>
-      <c r="E206" s="203"/>
-      <c r="F206" s="203"/>
-      <c r="G206" s="203"/>
-      <c r="H206" s="204">
+      <c r="B206" s="198"/>
+      <c r="C206" s="198"/>
+      <c r="D206" s="198"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="198"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="199">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="I206" s="208" t="s">
-        <v>125</v>
-      </c>
-      <c r="J206" s="203"/>
-      <c r="K206" s="203"/>
-      <c r="L206" s="203"/>
-      <c r="M206" s="203"/>
-      <c r="N206" s="203"/>
-      <c r="O206" s="203"/>
-      <c r="P206" s="203"/>
+      <c r="I206" s="203" t="s">
+        <v>121</v>
+      </c>
+      <c r="J206" s="198"/>
+      <c r="K206" s="198"/>
+      <c r="L206" s="198"/>
+      <c r="M206" s="198"/>
+      <c r="N206" s="198"/>
+      <c r="O206" s="198"/>
+      <c r="P206" s="198"/>
     </row>
     <row r="207" spans="2:16">
-      <c r="B207" s="203"/>
-      <c r="C207" s="203"/>
-      <c r="D207" s="203"/>
-      <c r="E207" s="203"/>
-      <c r="F207" s="203"/>
-      <c r="G207" s="203"/>
-      <c r="H207" s="204">
+      <c r="B207" s="198"/>
+      <c r="C207" s="198"/>
+      <c r="D207" s="198"/>
+      <c r="E207" s="198"/>
+      <c r="F207" s="198"/>
+      <c r="G207" s="198"/>
+      <c r="H207" s="199">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="I207" s="208" t="s">
-        <v>126</v>
-      </c>
-      <c r="J207" s="203"/>
-      <c r="K207" s="203"/>
-      <c r="L207" s="203"/>
-      <c r="M207" s="203"/>
-      <c r="N207" s="203"/>
-      <c r="O207" s="203"/>
-      <c r="P207" s="203"/>
+      <c r="I207" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="J207" s="198"/>
+      <c r="K207" s="198"/>
+      <c r="L207" s="198"/>
+      <c r="M207" s="198"/>
+      <c r="N207" s="198"/>
+      <c r="O207" s="198"/>
+      <c r="P207" s="198"/>
     </row>
     <row r="208" spans="2:16">
-      <c r="B208" s="203"/>
-      <c r="C208" s="203"/>
-      <c r="D208" s="203"/>
-      <c r="E208" s="203"/>
-      <c r="F208" s="203"/>
-      <c r="G208" s="203"/>
-      <c r="H208" s="203">
+      <c r="B208" s="198"/>
+      <c r="C208" s="198"/>
+      <c r="D208" s="198"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="198"/>
+      <c r="G208" s="198"/>
+      <c r="H208" s="198">
         <f>H205*H207/H206</f>
         <v>27.4</v>
       </c>
-      <c r="I208" s="208" t="s">
-        <v>57</v>
-      </c>
-      <c r="J208" s="203"/>
-      <c r="K208" s="203"/>
-      <c r="L208" s="203"/>
-      <c r="M208" s="203"/>
-      <c r="N208" s="203"/>
-      <c r="O208" s="203"/>
-      <c r="P208" s="203"/>
+      <c r="I208" s="203" t="s">
+        <v>56</v>
+      </c>
+      <c r="J208" s="198"/>
+      <c r="K208" s="198"/>
+      <c r="L208" s="198"/>
+      <c r="M208" s="198"/>
+      <c r="N208" s="198"/>
+      <c r="O208" s="198"/>
+      <c r="P208" s="198"/>
     </row>
     <row r="209" spans="2:16">
-      <c r="B209" s="203"/>
-      <c r="C209" s="203"/>
-      <c r="D209" s="203"/>
-      <c r="E209" s="203"/>
-      <c r="F209" s="203"/>
-      <c r="G209" s="203"/>
-      <c r="H209" s="203"/>
-      <c r="I209" s="208"/>
-      <c r="J209" s="203"/>
-      <c r="K209" s="203"/>
-      <c r="L209" s="203"/>
-      <c r="M209" s="203"/>
-      <c r="N209" s="203"/>
-      <c r="O209" s="203"/>
-      <c r="P209" s="203"/>
+      <c r="B209" s="198"/>
+      <c r="C209" s="198"/>
+      <c r="D209" s="198"/>
+      <c r="E209" s="198"/>
+      <c r="F209" s="198"/>
+      <c r="G209" s="198"/>
+      <c r="H209" s="198"/>
+      <c r="I209" s="203"/>
+      <c r="J209" s="198"/>
+      <c r="K209" s="198"/>
+      <c r="L209" s="198"/>
+      <c r="M209" s="198"/>
+      <c r="N209" s="198"/>
+      <c r="O209" s="198"/>
+      <c r="P209" s="198"/>
     </row>
     <row r="210" spans="2:16">
-      <c r="B210" s="203"/>
-      <c r="C210" s="203"/>
-      <c r="D210" s="203"/>
-      <c r="E210" s="203"/>
-      <c r="F210" s="203"/>
-      <c r="G210" s="203"/>
-      <c r="H210" s="203"/>
-      <c r="I210" s="203"/>
-      <c r="J210" s="203"/>
-      <c r="K210" s="203"/>
-      <c r="L210" s="203"/>
-      <c r="M210" s="203"/>
-      <c r="N210" s="203"/>
-      <c r="O210" s="203"/>
-      <c r="P210" s="203"/>
+      <c r="B210" s="198"/>
+      <c r="C210" s="198"/>
+      <c r="D210" s="198"/>
+      <c r="E210" s="198"/>
+      <c r="F210" s="198"/>
+      <c r="G210" s="198"/>
+      <c r="H210" s="198"/>
+      <c r="I210" s="198"/>
+      <c r="J210" s="198"/>
+      <c r="K210" s="198"/>
+      <c r="L210" s="198"/>
+      <c r="M210" s="198"/>
+      <c r="N210" s="198"/>
+      <c r="O210" s="198"/>
+      <c r="P210" s="198"/>
     </row>
     <row r="211" spans="2:16">
-      <c r="B211" s="203"/>
-      <c r="C211" s="203"/>
-      <c r="D211" s="203"/>
-      <c r="E211" s="203"/>
-      <c r="F211" s="203"/>
-      <c r="G211" s="203"/>
-      <c r="H211" s="203"/>
-      <c r="I211" s="208"/>
-      <c r="J211" s="203"/>
-      <c r="K211" s="203"/>
-      <c r="L211" s="203"/>
-      <c r="M211" s="203"/>
-      <c r="N211" s="203"/>
-      <c r="O211" s="203"/>
-      <c r="P211" s="203"/>
+      <c r="B211" s="198"/>
+      <c r="C211" s="198"/>
+      <c r="D211" s="198"/>
+      <c r="E211" s="198"/>
+      <c r="F211" s="198"/>
+      <c r="G211" s="198"/>
+      <c r="H211" s="198"/>
+      <c r="I211" s="203"/>
+      <c r="J211" s="198"/>
+      <c r="K211" s="198"/>
+      <c r="L211" s="198"/>
+      <c r="M211" s="198"/>
+      <c r="N211" s="198"/>
+      <c r="O211" s="198"/>
+      <c r="P211" s="198"/>
     </row>
     <row r="212" spans="2:16">
-      <c r="B212" s="203"/>
-      <c r="C212" s="203"/>
-      <c r="D212" s="203"/>
-      <c r="E212" s="203"/>
-      <c r="F212" s="203"/>
-      <c r="G212" s="203"/>
-      <c r="J212" s="203"/>
-      <c r="K212" s="203"/>
-      <c r="L212" s="203"/>
-      <c r="M212" s="203"/>
-      <c r="N212" s="203"/>
-      <c r="O212" s="203"/>
-      <c r="P212" s="203"/>
+      <c r="B212" s="198"/>
+      <c r="C212" s="198"/>
+      <c r="D212" s="198"/>
+      <c r="E212" s="198"/>
+      <c r="F212" s="198"/>
+      <c r="G212" s="198"/>
+      <c r="J212" s="198"/>
+      <c r="K212" s="198"/>
+      <c r="L212" s="198"/>
+      <c r="M212" s="198"/>
+      <c r="N212" s="198"/>
+      <c r="O212" s="198"/>
+      <c r="P212" s="198"/>
     </row>
     <row r="213" spans="2:16">
-      <c r="B213" s="203"/>
-      <c r="C213" s="203"/>
-      <c r="D213" s="203"/>
-      <c r="E213" s="203"/>
-      <c r="F213" s="203"/>
-      <c r="G213" s="203"/>
-      <c r="J213" s="203"/>
-      <c r="K213" s="203"/>
-      <c r="L213" s="203"/>
-      <c r="M213" s="203"/>
-      <c r="N213" s="203"/>
-      <c r="O213" s="203"/>
-      <c r="P213" s="203"/>
+      <c r="B213" s="198"/>
+      <c r="C213" s="198"/>
+      <c r="D213" s="198"/>
+      <c r="E213" s="198"/>
+      <c r="F213" s="198"/>
+      <c r="G213" s="198"/>
+      <c r="J213" s="198"/>
+      <c r="K213" s="198"/>
+      <c r="L213" s="198"/>
+      <c r="M213" s="198"/>
+      <c r="N213" s="198"/>
+      <c r="O213" s="198"/>
+      <c r="P213" s="198"/>
     </row>
     <row r="214" spans="2:16">
-      <c r="B214" s="203"/>
-      <c r="C214" s="203"/>
-      <c r="D214" s="203"/>
-      <c r="E214" s="203"/>
-      <c r="F214" s="203"/>
-      <c r="G214" s="203"/>
-      <c r="H214" s="203"/>
-      <c r="I214" s="203"/>
-      <c r="J214" s="203"/>
-      <c r="K214" s="203"/>
-      <c r="L214" s="203"/>
-      <c r="M214" s="203"/>
-      <c r="N214" s="203"/>
-      <c r="O214" s="203"/>
-      <c r="P214" s="203"/>
+      <c r="B214" s="198"/>
+      <c r="C214" s="198"/>
+      <c r="D214" s="198"/>
+      <c r="E214" s="198"/>
+      <c r="F214" s="198"/>
+      <c r="G214" s="198"/>
+      <c r="H214" s="198"/>
+      <c r="I214" s="198"/>
+      <c r="J214" s="198"/>
+      <c r="K214" s="198"/>
+      <c r="L214" s="198"/>
+      <c r="M214" s="198"/>
+      <c r="N214" s="198"/>
+      <c r="O214" s="198"/>
+      <c r="P214" s="198"/>
     </row>
     <row r="245" spans="2:25" ht="17" thickBot="1"/>
     <row r="246" spans="2:25">
-      <c r="B246" s="196"/>
+      <c r="B246" s="191"/>
       <c r="C246" s="161" t="s">
         <v>25</v>
       </c>
       <c r="D246" s="161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E246" s="161"/>
       <c r="F246" s="161" t="s">
@@ -9764,7 +9691,7 @@
     </row>
     <row r="248" spans="2:25">
       <c r="C248" s="138" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D248" s="138"/>
       <c r="E248" s="138"/>
@@ -9850,8 +9777,8 @@
     </row>
     <row r="256" spans="2:25">
       <c r="C256" s="138"/>
-      <c r="D256" s="218" t="s">
-        <v>141</v>
+      <c r="D256" s="213" t="s">
+        <v>137</v>
       </c>
       <c r="E256" s="138"/>
       <c r="F256" s="138"/>
@@ -9982,7 +9909,7 @@
     </row>
     <row r="269" spans="3:10">
       <c r="C269" s="138"/>
-      <c r="D269" s="215"/>
+      <c r="D269" s="210"/>
       <c r="E269" s="138"/>
       <c r="F269" s="138"/>
       <c r="G269" s="138"/>
@@ -10035,37 +9962,37 @@
     <row r="274" spans="3:10">
       <c r="C274" s="138"/>
       <c r="D274" s="138"/>
-      <c r="E274" s="215"/>
-      <c r="F274" s="215"/>
-      <c r="G274" s="215"/>
-      <c r="H274" s="215"/>
-      <c r="I274" s="215"/>
-      <c r="J274" s="215"/>
+      <c r="E274" s="210"/>
+      <c r="F274" s="210"/>
+      <c r="G274" s="210"/>
+      <c r="H274" s="210"/>
+      <c r="I274" s="210"/>
+      <c r="J274" s="210"/>
     </row>
     <row r="275" spans="3:10">
       <c r="C275" s="138"/>
       <c r="D275" s="138"/>
       <c r="E275" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="F275" s="215"/>
-      <c r="G275" s="215"/>
-      <c r="H275" s="215"/>
-      <c r="I275" s="215"/>
-      <c r="J275" s="215"/>
+        <v>138</v>
+      </c>
+      <c r="F275" s="210"/>
+      <c r="G275" s="210"/>
+      <c r="H275" s="210"/>
+      <c r="I275" s="210"/>
+      <c r="J275" s="210"/>
     </row>
     <row r="276" spans="3:10">
       <c r="C276" s="138"/>
       <c r="D276" s="138"/>
-      <c r="E276" s="215"/>
-      <c r="F276" s="219">
+      <c r="E276" s="210"/>
+      <c r="F276" s="214">
         <v>1600</v>
       </c>
       <c r="G276" s="138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H276" s="138" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I276"/>
       <c r="J276"/>
@@ -10074,38 +10001,38 @@
       <c r="C277" s="138"/>
       <c r="D277" s="138"/>
       <c r="E277" s="138" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F277" s="138">
         <v>4.5</v>
       </c>
       <c r="G277" s="138" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H277" s="138" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I277" s="138">
         <v>1485</v>
       </c>
       <c r="J277" s="138" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="278" spans="3:10">
       <c r="C278" s="138"/>
       <c r="D278" s="138"/>
       <c r="E278" s="138" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F278" s="138">
         <v>3.25</v>
       </c>
       <c r="G278" s="138" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H278" s="138" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I278"/>
       <c r="J278"/>
@@ -10129,7 +10056,7 @@
         <v>160000</v>
       </c>
       <c r="G280" s="138" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H280" s="138"/>
       <c r="I280"/>
@@ -10139,12 +10066,12 @@
       <c r="C281" s="138"/>
       <c r="D281" s="138"/>
       <c r="E281" s="138"/>
-      <c r="F281" s="220">
+      <c r="F281" s="215">
         <f>F280*F300</f>
         <v>5767200</v>
       </c>
       <c r="G281" s="138" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H281" s="138"/>
       <c r="I281"/>
@@ -10157,7 +10084,7 @@
         <v>25</v>
       </c>
       <c r="D291" s="128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E291" s="128"/>
       <c r="F291" s="128" t="s">
@@ -10187,38 +10114,38 @@
       <c r="AB291" s="26"/>
     </row>
     <row r="292" spans="2:28">
-      <c r="B292" s="221"/>
-      <c r="C292" s="222"/>
-      <c r="D292" s="222"/>
-      <c r="E292" s="222"/>
-      <c r="F292" s="222"/>
-      <c r="G292" s="222"/>
-      <c r="H292" s="222"/>
-      <c r="I292" s="222"/>
-      <c r="J292" s="222"/>
-      <c r="K292" s="222"/>
-      <c r="L292" s="222"/>
-      <c r="M292" s="222"/>
-      <c r="N292" s="222"/>
-      <c r="O292" s="222"/>
-      <c r="P292" s="222"/>
-      <c r="Q292" s="222"/>
-      <c r="R292" s="222"/>
-      <c r="S292" s="222"/>
-      <c r="T292" s="222"/>
-      <c r="U292" s="222"/>
-      <c r="V292" s="215"/>
-      <c r="W292" s="215"/>
-      <c r="X292" s="215"/>
-      <c r="Y292" s="215"/>
-      <c r="Z292" s="215"/>
-      <c r="AA292" s="215"/>
-      <c r="AB292" s="215"/>
+      <c r="B292" s="216"/>
+      <c r="C292" s="217"/>
+      <c r="D292" s="217"/>
+      <c r="E292" s="217"/>
+      <c r="F292" s="217"/>
+      <c r="G292" s="217"/>
+      <c r="H292" s="217"/>
+      <c r="I292" s="217"/>
+      <c r="J292" s="217"/>
+      <c r="K292" s="217"/>
+      <c r="L292" s="217"/>
+      <c r="M292" s="217"/>
+      <c r="N292" s="217"/>
+      <c r="O292" s="217"/>
+      <c r="P292" s="217"/>
+      <c r="Q292" s="217"/>
+      <c r="R292" s="217"/>
+      <c r="S292" s="217"/>
+      <c r="T292" s="217"/>
+      <c r="U292" s="217"/>
+      <c r="V292" s="210"/>
+      <c r="W292" s="210"/>
+      <c r="X292" s="210"/>
+      <c r="Y292" s="210"/>
+      <c r="Z292" s="210"/>
+      <c r="AA292" s="210"/>
+      <c r="AB292" s="210"/>
     </row>
     <row r="293" spans="2:28">
-      <c r="B293" s="221"/>
+      <c r="B293" s="216"/>
       <c r="C293" s="138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D293" s="138"/>
       <c r="E293" s="138"/>
@@ -10247,7 +10174,7 @@
       <c r="AB293"/>
     </row>
     <row r="294" spans="2:28">
-      <c r="B294" s="221"/>
+      <c r="B294" s="216"/>
       <c r="C294" s="138"/>
       <c r="D294" s="138"/>
       <c r="E294" s="138"/>
@@ -10276,7 +10203,7 @@
       <c r="AB294"/>
     </row>
     <row r="295" spans="2:28">
-      <c r="B295" s="221"/>
+      <c r="B295" s="216"/>
       <c r="C295" s="138"/>
       <c r="D295" s="138"/>
       <c r="E295" s="138"/>
@@ -10305,7 +10232,7 @@
       <c r="AB295"/>
     </row>
     <row r="296" spans="2:28">
-      <c r="B296" s="221"/>
+      <c r="B296" s="216"/>
       <c r="C296" s="138"/>
       <c r="D296" s="138"/>
       <c r="E296" s="138"/>
@@ -10334,20 +10261,20 @@
       <c r="AB296"/>
     </row>
     <row r="297" spans="2:28">
-      <c r="B297" s="221"/>
+      <c r="B297" s="216"/>
       <c r="C297" s="138"/>
       <c r="D297" s="138" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E297"/>
       <c r="F297" s="138">
         <v>890</v>
       </c>
       <c r="G297" s="139" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H297" s="140" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I297" s="138"/>
       <c r="J297" s="138"/>
@@ -10371,7 +10298,7 @@
       <c r="AB297"/>
     </row>
     <row r="298" spans="2:28">
-      <c r="B298" s="221"/>
+      <c r="B298" s="216"/>
       <c r="C298" s="138"/>
       <c r="D298" s="138"/>
       <c r="E298"/>
@@ -10379,10 +10306,10 @@
         <v>40.5</v>
       </c>
       <c r="G298" s="138" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H298" s="140" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I298" s="138"/>
       <c r="J298" s="138"/>
@@ -10406,7 +10333,7 @@
       <c r="AB298"/>
     </row>
     <row r="299" spans="2:28">
-      <c r="B299" s="221"/>
+      <c r="B299" s="216"/>
       <c r="C299" s="138"/>
       <c r="D299" s="138"/>
       <c r="E299"/>
@@ -10415,10 +10342,10 @@
         <v>0.89</v>
       </c>
       <c r="G299" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H299" s="140" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I299" s="138"/>
       <c r="J299" s="138"/>
@@ -10442,7 +10369,7 @@
       <c r="AB299"/>
     </row>
     <row r="300" spans="2:28">
-      <c r="B300" s="221"/>
+      <c r="B300" s="216"/>
       <c r="C300" s="138"/>
       <c r="D300" s="138"/>
       <c r="E300"/>
@@ -10451,10 +10378,10 @@
         <v>36.045000000000002</v>
       </c>
       <c r="G300" s="138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H300" s="140" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I300" s="138"/>
       <c r="J300" s="138"/>
@@ -10478,7 +10405,7 @@
       <c r="AB300"/>
     </row>
     <row r="301" spans="2:28">
-      <c r="B301" s="221"/>
+      <c r="B301" s="216"/>
       <c r="C301" s="138"/>
       <c r="D301" s="138"/>
       <c r="E301" s="138"/>
@@ -10507,7 +10434,7 @@
       <c r="AB301"/>
     </row>
     <row r="302" spans="2:28">
-      <c r="B302" s="221"/>
+      <c r="B302" s="216"/>
       <c r="C302" s="138"/>
       <c r="D302" s="138"/>
       <c r="E302" s="138"/>
@@ -10536,7 +10463,7 @@
       <c r="AB302"/>
     </row>
     <row r="303" spans="2:28">
-      <c r="B303" s="221"/>
+      <c r="B303" s="216"/>
       <c r="C303" s="138"/>
       <c r="D303" s="138"/>
       <c r="E303" s="138"/>
@@ -10565,7 +10492,7 @@
       <c r="AB303"/>
     </row>
     <row r="304" spans="2:28">
-      <c r="B304" s="221"/>
+      <c r="B304" s="216"/>
       <c r="C304" s="138"/>
       <c r="D304" s="138"/>
       <c r="E304" s="138"/>
@@ -10594,7 +10521,7 @@
       <c r="AB304"/>
     </row>
     <row r="305" spans="2:28">
-      <c r="B305" s="221"/>
+      <c r="B305" s="216"/>
       <c r="C305" s="138"/>
       <c r="D305" s="138"/>
       <c r="E305" s="138"/>
@@ -10623,7 +10550,7 @@
       <c r="AB305"/>
     </row>
     <row r="306" spans="2:28">
-      <c r="B306" s="221"/>
+      <c r="B306" s="216"/>
       <c r="C306" s="138"/>
       <c r="D306" s="138"/>
       <c r="E306" s="138"/>
@@ -10652,7 +10579,7 @@
       <c r="AB306"/>
     </row>
     <row r="307" spans="2:28">
-      <c r="B307" s="221"/>
+      <c r="B307" s="216"/>
       <c r="C307" s="138"/>
       <c r="D307" s="138"/>
       <c r="E307" s="138"/>
@@ -10681,7 +10608,7 @@
       <c r="AB307"/>
     </row>
     <row r="308" spans="2:28">
-      <c r="B308" s="221"/>
+      <c r="B308" s="216"/>
       <c r="C308" s="138"/>
       <c r="D308" s="138"/>
       <c r="E308" s="138"/>
@@ -10710,7 +10637,7 @@
       <c r="AB308"/>
     </row>
     <row r="309" spans="2:28">
-      <c r="B309" s="221"/>
+      <c r="B309" s="216"/>
       <c r="C309" s="138"/>
       <c r="D309" s="138"/>
       <c r="E309" s="138"/>
@@ -10739,7 +10666,7 @@
       <c r="AB309"/>
     </row>
     <row r="310" spans="2:28">
-      <c r="B310" s="221"/>
+      <c r="B310" s="216"/>
       <c r="C310" s="138"/>
       <c r="D310" s="138"/>
       <c r="E310" s="138"/>
@@ -10768,7 +10695,7 @@
       <c r="AB310"/>
     </row>
     <row r="311" spans="2:28">
-      <c r="B311" s="221"/>
+      <c r="B311" s="216"/>
       <c r="C311" s="138"/>
       <c r="D311" s="138"/>
       <c r="E311" s="138"/>
@@ -10797,7 +10724,7 @@
       <c r="AB311"/>
     </row>
     <row r="312" spans="2:28">
-      <c r="B312" s="221"/>
+      <c r="B312" s="216"/>
       <c r="C312" s="138"/>
       <c r="D312" s="138"/>
       <c r="E312" s="138"/>
@@ -10826,7 +10753,7 @@
       <c r="AB312"/>
     </row>
     <row r="313" spans="2:28">
-      <c r="B313" s="221"/>
+      <c r="B313" s="216"/>
       <c r="C313" s="138"/>
       <c r="D313" s="138"/>
       <c r="E313" s="138"/>
@@ -10855,7 +10782,7 @@
       <c r="AB313"/>
     </row>
     <row r="314" spans="2:28">
-      <c r="B314" s="221"/>
+      <c r="B314" s="216"/>
       <c r="C314" s="138"/>
       <c r="D314" s="138"/>
       <c r="E314" s="138"/>
@@ -10884,7 +10811,7 @@
       <c r="AB314"/>
     </row>
     <row r="315" spans="2:28">
-      <c r="B315" s="221"/>
+      <c r="B315" s="216"/>
       <c r="C315" s="138"/>
       <c r="D315" s="138"/>
       <c r="E315" s="138"/>
@@ -10913,7 +10840,7 @@
       <c r="AB315"/>
     </row>
     <row r="316" spans="2:28">
-      <c r="B316" s="221"/>
+      <c r="B316" s="216"/>
       <c r="C316" s="138"/>
       <c r="D316" s="138"/>
       <c r="E316" s="138"/>
@@ -10942,7 +10869,7 @@
       <c r="AB316"/>
     </row>
     <row r="317" spans="2:28">
-      <c r="B317" s="221"/>
+      <c r="B317" s="216"/>
       <c r="C317" s="138"/>
       <c r="D317" s="138"/>
       <c r="E317" s="138"/>
@@ -10971,7 +10898,7 @@
       <c r="AB317"/>
     </row>
     <row r="318" spans="2:28">
-      <c r="B318" s="221"/>
+      <c r="B318" s="216"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
@@ -11000,7 +10927,7 @@
       <c r="AB318"/>
     </row>
     <row r="319" spans="2:28">
-      <c r="B319" s="221"/>
+      <c r="B319" s="216"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
@@ -11029,7 +10956,7 @@
       <c r="AB319"/>
     </row>
     <row r="320" spans="2:28">
-      <c r="B320" s="221"/>
+      <c r="B320" s="216"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
@@ -11058,7 +10985,7 @@
       <c r="AB320"/>
     </row>
     <row r="321" spans="2:28">
-      <c r="B321" s="221"/>
+      <c r="B321" s="216"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
@@ -11087,7 +11014,7 @@
       <c r="AB321"/>
     </row>
     <row r="322" spans="2:28">
-      <c r="B322" s="221"/>
+      <c r="B322" s="216"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
@@ -11116,7 +11043,7 @@
       <c r="AB322"/>
     </row>
     <row r="323" spans="2:28">
-      <c r="B323" s="221"/>
+      <c r="B323" s="216"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
@@ -11145,7 +11072,7 @@
       <c r="AB323"/>
     </row>
     <row r="324" spans="2:28">
-      <c r="B324" s="221"/>
+      <c r="B324" s="216"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
@@ -11174,7 +11101,7 @@
       <c r="AB324"/>
     </row>
     <row r="325" spans="2:28">
-      <c r="B325" s="221"/>
+      <c r="B325" s="216"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
@@ -11203,7 +11130,7 @@
       <c r="AB325"/>
     </row>
     <row r="326" spans="2:28">
-      <c r="B326" s="221"/>
+      <c r="B326" s="216"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
@@ -11232,7 +11159,7 @@
       <c r="AB326"/>
     </row>
     <row r="327" spans="2:28">
-      <c r="B327" s="221"/>
+      <c r="B327" s="216"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
@@ -11261,7 +11188,7 @@
       <c r="AB327"/>
     </row>
     <row r="328" spans="2:28">
-      <c r="B328" s="221"/>
+      <c r="B328" s="216"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
@@ -11290,7 +11217,7 @@
       <c r="AB328"/>
     </row>
     <row r="329" spans="2:28">
-      <c r="B329" s="221"/>
+      <c r="B329" s="216"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
@@ -11319,7 +11246,7 @@
       <c r="AB329"/>
     </row>
     <row r="330" spans="2:28">
-      <c r="B330" s="221"/>
+      <c r="B330" s="216"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
@@ -11348,7 +11275,7 @@
       <c r="AB330"/>
     </row>
     <row r="331" spans="2:28">
-      <c r="B331" s="221"/>
+      <c r="B331" s="216"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
@@ -11377,7 +11304,7 @@
       <c r="AB331"/>
     </row>
     <row r="332" spans="2:28">
-      <c r="B332" s="221"/>
+      <c r="B332" s="216"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
@@ -11406,7 +11333,7 @@
       <c r="AB332"/>
     </row>
     <row r="333" spans="2:28">
-      <c r="B333" s="221"/>
+      <c r="B333" s="216"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
@@ -11435,7 +11362,7 @@
       <c r="AB333"/>
     </row>
     <row r="334" spans="2:28">
-      <c r="B334" s="221"/>
+      <c r="B334" s="216"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
@@ -11464,7 +11391,7 @@
       <c r="AB334"/>
     </row>
     <row r="335" spans="2:28">
-      <c r="B335" s="221"/>
+      <c r="B335" s="216"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
@@ -11493,7 +11420,7 @@
       <c r="AB335"/>
     </row>
     <row r="336" spans="2:28">
-      <c r="B336" s="221"/>
+      <c r="B336" s="216"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
@@ -11522,7 +11449,7 @@
       <c r="AB336"/>
     </row>
     <row r="337" spans="2:28">
-      <c r="B337" s="221"/>
+      <c r="B337" s="216"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
@@ -11551,7 +11478,7 @@
       <c r="AB337"/>
     </row>
     <row r="338" spans="2:28">
-      <c r="B338" s="221"/>
+      <c r="B338" s="216"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
@@ -11580,7 +11507,7 @@
       <c r="AB338"/>
     </row>
     <row r="339" spans="2:28">
-      <c r="B339" s="221"/>
+      <c r="B339" s="216"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
@@ -11609,7 +11536,7 @@
       <c r="AB339"/>
     </row>
     <row r="340" spans="2:28">
-      <c r="B340" s="221"/>
+      <c r="B340" s="216"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
@@ -11638,7 +11565,7 @@
       <c r="AB340"/>
     </row>
     <row r="341" spans="2:28">
-      <c r="B341" s="221"/>
+      <c r="B341" s="216"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
@@ -11667,7 +11594,7 @@
       <c r="AB341"/>
     </row>
     <row r="342" spans="2:28">
-      <c r="B342" s="221"/>
+      <c r="B342" s="216"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
@@ -11696,7 +11623,7 @@
       <c r="AB342"/>
     </row>
     <row r="343" spans="2:28">
-      <c r="B343" s="221"/>
+      <c r="B343" s="216"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
@@ -11725,7 +11652,7 @@
       <c r="AB343"/>
     </row>
     <row r="344" spans="2:28">
-      <c r="B344" s="221"/>
+      <c r="B344" s="216"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
@@ -11754,7 +11681,7 @@
       <c r="AB344"/>
     </row>
     <row r="345" spans="2:28">
-      <c r="B345" s="221"/>
+      <c r="B345" s="216"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
@@ -11783,7 +11710,7 @@
       <c r="AB345"/>
     </row>
     <row r="346" spans="2:28">
-      <c r="B346" s="221"/>
+      <c r="B346" s="216"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
@@ -11812,7 +11739,7 @@
       <c r="AB346"/>
     </row>
     <row r="347" spans="2:28" ht="17" thickBot="1">
-      <c r="B347" s="221"/>
+      <c r="B347" s="216"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
@@ -11846,7 +11773,7 @@
         <v>25</v>
       </c>
       <c r="D348" s="128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E348" s="128"/>
       <c r="F348" s="128" t="s">
@@ -11868,7 +11795,7 @@
       <c r="T348" s="128"/>
     </row>
     <row r="349" spans="2:28">
-      <c r="B349" s="221"/>
+      <c r="B349" s="216"/>
       <c r="C349" s="143"/>
       <c r="D349" s="138"/>
       <c r="E349" s="138"/>
@@ -11891,7 +11818,7 @@
     <row r="350" spans="2:28">
       <c r="B350" s="163"/>
       <c r="C350" s="160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D350" s="138"/>
       <c r="E350" s="138"/>
@@ -11914,7 +11841,7 @@
     <row r="351" spans="2:28">
       <c r="B351" s="163"/>
       <c r="C351" s="164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D351" s="138"/>
       <c r="E351" s="138"/>
@@ -11959,7 +11886,7 @@
       <c r="B353" s="163"/>
       <c r="C353" s="138"/>
       <c r="D353" s="138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E353" s="138"/>
       <c r="F353" s="138"/>
@@ -11987,17 +11914,17 @@
       <c r="E354" s="162"/>
       <c r="F354" s="138"/>
       <c r="G354" s="138"/>
-      <c r="H354" s="181" t="s">
+      <c r="H354" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="I354" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="I354" s="182" t="s">
-        <v>84</v>
-      </c>
-      <c r="J354" s="223" t="s">
-        <v>161</v>
+      <c r="J354" s="218" t="s">
+        <v>157</v>
       </c>
       <c r="K354" s="171" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L354" s="138"/>
       <c r="M354" s="138"/>
@@ -12013,18 +11940,18 @@
       <c r="B355" s="163"/>
       <c r="C355" s="138"/>
       <c r="D355" s="138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E355" s="162"/>
       <c r="F355" s="138"/>
       <c r="G355" s="138"/>
       <c r="H355" s="166"/>
       <c r="I355" s="167"/>
-      <c r="J355" s="224" t="s">
-        <v>85</v>
+      <c r="J355" s="219" t="s">
+        <v>84</v>
       </c>
       <c r="K355" s="172" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L355" s="138"/>
       <c r="M355" s="138"/>
@@ -12041,23 +11968,23 @@
       <c r="C356" s="138"/>
       <c r="D356" s="138"/>
       <c r="E356" s="162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F356" s="168">
         <f>AVERAGE(J356:J360)</f>
         <v>545.58600000000001</v>
       </c>
       <c r="G356" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="H356" s="231">
+        <v>86</v>
+      </c>
+      <c r="H356" s="226">
         <v>43059</v>
       </c>
       <c r="I356" s="167"/>
-      <c r="J356" s="232">
+      <c r="J356" s="227">
         <v>550.71</v>
       </c>
-      <c r="K356" s="233">
+      <c r="K356" s="228">
         <v>1264</v>
       </c>
       <c r="L356" s="138"/>
@@ -12075,23 +12002,23 @@
       <c r="C357" s="138"/>
       <c r="D357" s="138"/>
       <c r="E357" s="162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F357" s="138">
         <f>F356/1000</f>
         <v>0.54558600000000002</v>
       </c>
       <c r="G357" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="H357" s="231">
+        <v>87</v>
+      </c>
+      <c r="H357" s="226">
         <v>43052</v>
       </c>
       <c r="I357" s="167"/>
-      <c r="J357" s="232">
+      <c r="J357" s="227">
         <v>559.79999999999995</v>
       </c>
-      <c r="K357" s="233">
+      <c r="K357" s="228">
         <v>1275</v>
       </c>
       <c r="L357" s="138"/>
@@ -12111,14 +12038,14 @@
       <c r="E358" s="138"/>
       <c r="F358" s="138"/>
       <c r="G358" s="138"/>
-      <c r="H358" s="231">
+      <c r="H358" s="226">
         <v>43045</v>
       </c>
       <c r="I358" s="167"/>
-      <c r="J358" s="232">
+      <c r="J358" s="227">
         <v>550.71</v>
       </c>
-      <c r="K358" s="233">
+      <c r="K358" s="228">
         <v>1264</v>
       </c>
       <c r="L358" s="138"/>
@@ -12135,26 +12062,26 @@
       <c r="B359" s="163"/>
       <c r="C359" s="138"/>
       <c r="D359" s="138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E359" s="162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F359" s="168">
         <f>AVERAGE(K356:K360)</f>
         <v>1257.8</v>
       </c>
       <c r="G359" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="H359" s="231">
+        <v>86</v>
+      </c>
+      <c r="H359" s="226">
         <v>43038</v>
       </c>
       <c r="I359" s="167"/>
-      <c r="J359" s="232">
+      <c r="J359" s="227">
         <v>535.01</v>
       </c>
-      <c r="K359" s="233">
+      <c r="K359" s="228">
         <v>1245</v>
       </c>
       <c r="L359" s="138"/>
@@ -12172,23 +12099,23 @@
       <c r="C360" s="138"/>
       <c r="D360" s="138"/>
       <c r="E360" s="162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F360" s="138">
         <f>F359/1000</f>
         <v>1.2578</v>
       </c>
       <c r="G360" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="H360" s="231">
+        <v>87</v>
+      </c>
+      <c r="H360" s="226">
         <v>43031</v>
       </c>
       <c r="I360" s="167"/>
-      <c r="J360" s="232">
+      <c r="J360" s="227">
         <v>531.70000000000005</v>
       </c>
-      <c r="K360" s="233">
+      <c r="K360" s="228">
         <v>1241</v>
       </c>
       <c r="L360" s="138"/>
@@ -12211,13 +12138,13 @@
       <c r="H361" s="169">
         <v>42408</v>
       </c>
-      <c r="I361" s="185">
+      <c r="I361" s="183">
         <v>1</v>
       </c>
-      <c r="J361" s="225">
+      <c r="J361" s="220">
         <v>371.99</v>
       </c>
-      <c r="K361" s="187">
+      <c r="K361" s="185">
         <v>1046</v>
       </c>
       <c r="L361" s="138"/>
@@ -12234,7 +12161,7 @@
       <c r="B362" s="163"/>
       <c r="C362" s="138"/>
       <c r="D362" s="141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E362" s="138"/>
       <c r="F362" s="173"/>
@@ -12242,13 +12169,13 @@
       <c r="H362" s="169">
         <v>42401</v>
       </c>
-      <c r="I362" s="185">
+      <c r="I362" s="183">
         <v>1</v>
       </c>
-      <c r="J362" s="226">
+      <c r="J362" s="221">
         <v>362.08</v>
       </c>
-      <c r="K362" s="188">
+      <c r="K362" s="186">
         <v>1034</v>
       </c>
       <c r="L362" s="138"/>
@@ -12265,27 +12192,27 @@
       <c r="B363" s="163"/>
       <c r="C363" s="138"/>
       <c r="D363" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="E363" s="162" t="s">
+        <v>159</v>
+      </c>
+      <c r="F363" s="230">
+        <v>0.21</v>
+      </c>
+      <c r="G363" s="138" t="s">
         <v>92</v>
-      </c>
-      <c r="E363" s="162" t="s">
-        <v>163</v>
-      </c>
-      <c r="F363" s="235">
-        <v>0.21</v>
-      </c>
-      <c r="G363" s="138" t="s">
-        <v>93</v>
       </c>
       <c r="H363" s="169">
         <v>42394</v>
       </c>
-      <c r="I363" s="185">
+      <c r="I363" s="183">
         <v>1</v>
       </c>
-      <c r="J363" s="226">
+      <c r="J363" s="221">
         <v>355.46</v>
       </c>
-      <c r="K363" s="188">
+      <c r="K363" s="186">
         <v>1026</v>
       </c>
       <c r="L363" s="138"/>
@@ -12302,28 +12229,28 @@
       <c r="B364" s="163"/>
       <c r="C364" s="138"/>
       <c r="D364" s="138" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E364" s="162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F364" s="138">
         <f>F360/(1+F363)-F357</f>
         <v>0.4939181322314049</v>
       </c>
       <c r="G364" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H364" s="169">
         <v>42387</v>
       </c>
-      <c r="I364" s="185">
+      <c r="I364" s="183">
         <v>1</v>
       </c>
-      <c r="J364" s="226">
+      <c r="J364" s="221">
         <v>373.65</v>
       </c>
-      <c r="K364" s="188">
+      <c r="K364" s="186">
         <v>1048</v>
       </c>
       <c r="L364" s="138"/>
@@ -12346,13 +12273,13 @@
       <c r="H365" s="169">
         <v>42380</v>
       </c>
-      <c r="I365" s="185">
+      <c r="I365" s="183">
         <v>1</v>
       </c>
-      <c r="J365" s="226">
+      <c r="J365" s="221">
         <v>391.83</v>
       </c>
-      <c r="K365" s="188">
+      <c r="K365" s="186">
         <v>1070</v>
       </c>
       <c r="L365" s="138"/>
@@ -12375,13 +12302,13 @@
       <c r="H366" s="169">
         <v>42373</v>
       </c>
-      <c r="I366" s="185">
+      <c r="I366" s="183">
         <v>1</v>
       </c>
-      <c r="J366" s="226">
+      <c r="J366" s="221">
         <v>391.83</v>
       </c>
-      <c r="K366" s="188">
+      <c r="K366" s="186">
         <v>1070</v>
       </c>
       <c r="L366" s="138"/>
@@ -12398,28 +12325,28 @@
       <c r="B367" s="163"/>
       <c r="C367" s="138"/>
       <c r="D367" s="138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E367" s="162" t="s">
-        <v>163</v>
-      </c>
-      <c r="F367" s="236">
+        <v>159</v>
+      </c>
+      <c r="F367" s="231">
         <f>(F365+F364+F357)*1.21</f>
         <v>1.2577999999999998</v>
       </c>
       <c r="G367" s="138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H367" s="169">
         <v>42352</v>
       </c>
-      <c r="I367" s="185">
+      <c r="I367" s="183">
         <v>1</v>
       </c>
-      <c r="J367" s="226">
+      <c r="J367" s="221">
         <v>444.65</v>
       </c>
-      <c r="K367" s="188">
+      <c r="K367" s="186">
         <v>1131</v>
       </c>
       <c r="L367" s="138"/>
@@ -12442,13 +12369,13 @@
       <c r="H368" s="169">
         <v>42345</v>
       </c>
-      <c r="I368" s="185">
+      <c r="I368" s="183">
         <v>1</v>
       </c>
-      <c r="J368" s="226">
+      <c r="J368" s="221">
         <v>467.79</v>
       </c>
-      <c r="K368" s="188">
+      <c r="K368" s="186">
         <v>1159</v>
       </c>
       <c r="L368" s="138"/>
@@ -12471,13 +12398,13 @@
       <c r="H369" s="169">
         <v>42338</v>
       </c>
-      <c r="I369" s="185">
+      <c r="I369" s="183">
         <v>1</v>
       </c>
-      <c r="J369" s="226">
+      <c r="J369" s="221">
         <v>486.8</v>
       </c>
-      <c r="K369" s="188">
+      <c r="K369" s="186">
         <v>1182</v>
       </c>
       <c r="L369" s="138"/>
@@ -12500,13 +12427,13 @@
       <c r="H370" s="169">
         <v>42331</v>
       </c>
-      <c r="I370" s="185">
+      <c r="I370" s="183">
         <v>1</v>
       </c>
-      <c r="J370" s="226">
+      <c r="J370" s="221">
         <v>491.76</v>
       </c>
-      <c r="K370" s="188">
+      <c r="K370" s="186">
         <v>1188</v>
       </c>
       <c r="L370" s="138"/>
@@ -12529,13 +12456,13 @@
       <c r="H371" s="169">
         <v>42324</v>
       </c>
-      <c r="I371" s="185">
+      <c r="I371" s="183">
         <v>1</v>
       </c>
-      <c r="J371" s="226">
+      <c r="J371" s="221">
         <v>506.63</v>
       </c>
-      <c r="K371" s="188">
+      <c r="K371" s="186">
         <v>1206</v>
       </c>
       <c r="L371" s="138"/>
@@ -12558,13 +12485,13 @@
       <c r="H372" s="169">
         <v>42317</v>
       </c>
-      <c r="I372" s="185">
+      <c r="I372" s="183">
         <v>1</v>
       </c>
-      <c r="J372" s="226">
+      <c r="J372" s="221">
         <v>503.33</v>
       </c>
-      <c r="K372" s="188">
+      <c r="K372" s="186">
         <v>1202</v>
       </c>
       <c r="L372" s="138"/>
@@ -12587,13 +12514,13 @@
       <c r="H373" s="169">
         <v>42310</v>
       </c>
-      <c r="I373" s="185">
+      <c r="I373" s="183">
         <v>1</v>
       </c>
-      <c r="J373" s="226">
+      <c r="J373" s="221">
         <v>481.01</v>
       </c>
-      <c r="K373" s="188">
+      <c r="K373" s="186">
         <v>1175</v>
       </c>
       <c r="L373" s="138"/>
@@ -12616,13 +12543,13 @@
       <c r="H374" s="169">
         <v>42303</v>
       </c>
-      <c r="I374" s="185">
+      <c r="I374" s="183">
         <v>1</v>
       </c>
-      <c r="J374" s="226">
+      <c r="J374" s="221">
         <v>478.54</v>
       </c>
-      <c r="K374" s="188">
+      <c r="K374" s="186">
         <v>1172</v>
       </c>
       <c r="L374" s="138"/>
@@ -12645,13 +12572,13 @@
       <c r="H375" s="169">
         <v>42296</v>
       </c>
-      <c r="I375" s="185">
+      <c r="I375" s="183">
         <v>1</v>
       </c>
-      <c r="J375" s="226">
+      <c r="J375" s="221">
         <v>493.41</v>
       </c>
-      <c r="K375" s="188">
+      <c r="K375" s="186">
         <v>1190</v>
       </c>
       <c r="L375" s="162"/>
@@ -12674,13 +12601,13 @@
       <c r="H376" s="169">
         <v>42289</v>
       </c>
-      <c r="I376" s="185">
+      <c r="I376" s="183">
         <v>1</v>
       </c>
-      <c r="J376" s="226">
+      <c r="J376" s="221">
         <v>501.68</v>
       </c>
-      <c r="K376" s="188">
+      <c r="K376" s="186">
         <v>1200</v>
       </c>
       <c r="L376" s="162"/>
@@ -12703,13 +12630,13 @@
       <c r="H377" s="169">
         <v>42282</v>
       </c>
-      <c r="I377" s="185">
+      <c r="I377" s="183">
         <v>1</v>
       </c>
-      <c r="J377" s="226">
+      <c r="J377" s="221">
         <v>489.28</v>
       </c>
-      <c r="K377" s="188">
+      <c r="K377" s="186">
         <v>1185</v>
       </c>
       <c r="L377" s="162"/>
@@ -12732,13 +12659,13 @@
       <c r="H378" s="169">
         <v>42275</v>
       </c>
-      <c r="I378" s="185">
+      <c r="I378" s="183">
         <v>1</v>
       </c>
-      <c r="J378" s="226">
+      <c r="J378" s="221">
         <v>490.11</v>
       </c>
-      <c r="K378" s="188">
+      <c r="K378" s="186">
         <v>1186</v>
       </c>
       <c r="L378" s="162"/>
@@ -12761,13 +12688,13 @@
       <c r="H379" s="169">
         <v>42268</v>
       </c>
-      <c r="I379" s="185">
+      <c r="I379" s="183">
         <v>1</v>
       </c>
-      <c r="J379" s="226">
+      <c r="J379" s="221">
         <v>498.37</v>
       </c>
-      <c r="K379" s="188">
+      <c r="K379" s="186">
         <v>1196</v>
       </c>
       <c r="L379" s="162"/>
@@ -12790,13 +12717,13 @@
       <c r="H380" s="169">
         <v>42261</v>
       </c>
-      <c r="I380" s="185">
+      <c r="I380" s="183">
         <v>1</v>
       </c>
-      <c r="J380" s="226">
+      <c r="J380" s="221">
         <v>502.5</v>
       </c>
-      <c r="K380" s="188">
+      <c r="K380" s="186">
         <v>1201</v>
       </c>
       <c r="L380" s="162"/>
@@ -12819,13 +12746,13 @@
       <c r="H381" s="169">
         <v>42254</v>
       </c>
-      <c r="I381" s="185">
+      <c r="I381" s="183">
         <v>1</v>
       </c>
-      <c r="J381" s="226">
+      <c r="J381" s="221">
         <v>493.41</v>
       </c>
-      <c r="K381" s="188">
+      <c r="K381" s="186">
         <v>1190</v>
       </c>
       <c r="L381" s="162"/>
@@ -12848,13 +12775,13 @@
       <c r="H382" s="169">
         <v>42247</v>
       </c>
-      <c r="I382" s="185">
+      <c r="I382" s="183">
         <v>1</v>
       </c>
-      <c r="J382" s="226">
+      <c r="J382" s="221">
         <v>466.06</v>
       </c>
-      <c r="K382" s="227">
+      <c r="K382" s="222">
         <v>1156.9100000000001</v>
       </c>
       <c r="L382" s="162"/>
@@ -12877,13 +12804,13 @@
       <c r="H383" s="169">
         <v>42240</v>
       </c>
-      <c r="I383" s="185">
+      <c r="I383" s="183">
         <v>1</v>
       </c>
-      <c r="J383" s="226">
+      <c r="J383" s="221">
         <v>485.97</v>
       </c>
-      <c r="K383" s="188">
+      <c r="K383" s="186">
         <v>1181</v>
       </c>
       <c r="L383" s="162"/>
@@ -12906,13 +12833,13 @@
       <c r="H384" s="169">
         <v>42233</v>
       </c>
-      <c r="I384" s="185">
+      <c r="I384" s="183">
         <v>1</v>
       </c>
-      <c r="J384" s="226">
+      <c r="J384" s="221">
         <v>496.72</v>
       </c>
-      <c r="K384" s="188">
+      <c r="K384" s="186">
         <v>1194</v>
       </c>
       <c r="L384" s="162"/>
@@ -12935,13 +12862,13 @@
       <c r="H385" s="169">
         <v>42226</v>
       </c>
-      <c r="I385" s="185">
+      <c r="I385" s="183">
         <v>1</v>
       </c>
-      <c r="J385" s="226">
+      <c r="J385" s="221">
         <v>504.98</v>
       </c>
-      <c r="K385" s="188">
+      <c r="K385" s="186">
         <v>1204</v>
       </c>
       <c r="L385" s="162"/>
@@ -12956,90 +12883,90 @@
     </row>
     <row r="386" spans="2:20">
       <c r="B386" s="163"/>
-      <c r="C386" s="215"/>
-      <c r="D386" s="215"/>
-      <c r="E386" s="215"/>
-      <c r="F386" s="215"/>
-      <c r="G386" s="215"/>
+      <c r="C386" s="210"/>
+      <c r="D386" s="210"/>
+      <c r="E386" s="210"/>
+      <c r="F386" s="210"/>
+      <c r="G386" s="210"/>
       <c r="H386" s="169">
         <v>42219</v>
       </c>
-      <c r="I386" s="185">
+      <c r="I386" s="183">
         <v>1</v>
       </c>
-      <c r="J386" s="226">
+      <c r="J386" s="221">
         <v>518.20000000000005</v>
       </c>
-      <c r="K386" s="188">
+      <c r="K386" s="186">
         <v>1220</v>
       </c>
-      <c r="L386" s="215"/>
-      <c r="M386" s="215"/>
-      <c r="N386" s="215"/>
-      <c r="O386" s="215"/>
-      <c r="P386" s="215"/>
-      <c r="Q386" s="215"/>
-      <c r="R386" s="215"/>
-      <c r="S386" s="215"/>
-      <c r="T386" s="215"/>
+      <c r="L386" s="210"/>
+      <c r="M386" s="210"/>
+      <c r="N386" s="210"/>
+      <c r="O386" s="210"/>
+      <c r="P386" s="210"/>
+      <c r="Q386" s="210"/>
+      <c r="R386" s="210"/>
+      <c r="S386" s="210"/>
+      <c r="T386" s="210"/>
     </row>
     <row r="387" spans="2:20">
       <c r="B387" s="163"/>
-      <c r="C387" s="215"/>
-      <c r="D387" s="215"/>
-      <c r="E387" s="215"/>
-      <c r="F387" s="215"/>
-      <c r="G387" s="215"/>
+      <c r="C387" s="210"/>
+      <c r="D387" s="210"/>
+      <c r="E387" s="210"/>
+      <c r="F387" s="210"/>
+      <c r="G387" s="210"/>
       <c r="H387" s="169">
         <v>42212</v>
       </c>
-      <c r="I387" s="185">
+      <c r="I387" s="183">
         <v>1</v>
       </c>
-      <c r="J387" s="226">
+      <c r="J387" s="221">
         <v>533.91</v>
       </c>
-      <c r="K387" s="188">
+      <c r="K387" s="186">
         <v>1239</v>
       </c>
-      <c r="L387" s="215"/>
-      <c r="M387" s="215"/>
-      <c r="N387" s="215"/>
-      <c r="O387" s="215"/>
-      <c r="P387" s="215"/>
-      <c r="Q387" s="215"/>
-      <c r="R387" s="215"/>
-      <c r="S387" s="215"/>
-      <c r="T387" s="215"/>
+      <c r="L387" s="210"/>
+      <c r="M387" s="210"/>
+      <c r="N387" s="210"/>
+      <c r="O387" s="210"/>
+      <c r="P387" s="210"/>
+      <c r="Q387" s="210"/>
+      <c r="R387" s="210"/>
+      <c r="S387" s="210"/>
+      <c r="T387" s="210"/>
     </row>
     <row r="388" spans="2:20" ht="17" thickBot="1">
       <c r="B388" s="163"/>
-      <c r="C388" s="215"/>
-      <c r="D388" s="215"/>
-      <c r="E388" s="215"/>
-      <c r="F388" s="215"/>
-      <c r="G388" s="215"/>
+      <c r="C388" s="210"/>
+      <c r="D388" s="210"/>
+      <c r="E388" s="210"/>
+      <c r="F388" s="210"/>
+      <c r="G388" s="210"/>
       <c r="H388" s="169">
         <v>42205</v>
       </c>
-      <c r="I388" s="185">
+      <c r="I388" s="183">
         <v>1</v>
       </c>
-      <c r="J388" s="226">
+      <c r="J388" s="221">
         <v>547.13</v>
       </c>
-      <c r="K388" s="188">
+      <c r="K388" s="186">
         <v>1255</v>
       </c>
-      <c r="L388" s="215"/>
-      <c r="M388" s="215"/>
-      <c r="N388" s="215"/>
-      <c r="O388" s="215"/>
-      <c r="P388" s="215"/>
-      <c r="Q388" s="215"/>
-      <c r="R388" s="215"/>
-      <c r="S388" s="215"/>
-      <c r="T388" s="215"/>
+      <c r="L388" s="210"/>
+      <c r="M388" s="210"/>
+      <c r="N388" s="210"/>
+      <c r="O388" s="210"/>
+      <c r="P388" s="210"/>
+      <c r="Q388" s="210"/>
+      <c r="R388" s="210"/>
+      <c r="S388" s="210"/>
+      <c r="T388" s="210"/>
     </row>
     <row r="389" spans="2:20">
       <c r="B389" s="128"/>
@@ -13047,7 +12974,7 @@
         <v>25</v>
       </c>
       <c r="D389" s="128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E389" s="128"/>
       <c r="F389" s="128" t="s">
@@ -13057,13 +12984,13 @@
       <c r="H389" s="169">
         <v>42198</v>
       </c>
-      <c r="I389" s="185">
+      <c r="I389" s="183">
         <v>1</v>
       </c>
-      <c r="J389" s="226">
+      <c r="J389" s="221">
         <v>568.62</v>
       </c>
-      <c r="K389" s="188">
+      <c r="K389" s="186">
         <v>1281</v>
       </c>
       <c r="L389" s="128"/>
@@ -13077,7 +13004,7 @@
       <c r="T389" s="128"/>
     </row>
     <row r="390" spans="2:20">
-      <c r="B390" s="221"/>
+      <c r="B390" s="216"/>
       <c r="C390" s="143"/>
       <c r="D390" s="138"/>
       <c r="E390" s="138"/>
@@ -13086,13 +13013,13 @@
       <c r="H390" s="169">
         <v>42191</v>
       </c>
-      <c r="I390" s="185">
+      <c r="I390" s="183">
         <v>1</v>
       </c>
-      <c r="J390" s="226">
+      <c r="J390" s="221">
         <v>580.19000000000005</v>
       </c>
-      <c r="K390" s="188">
+      <c r="K390" s="186">
         <v>1295</v>
       </c>
       <c r="L390" s="138"/>
@@ -13106,18 +13033,18 @@
       <c r="T390" s="138"/>
     </row>
     <row r="391" spans="2:20">
-      <c r="B391" s="221"/>
-      <c r="C391" s="215" t="s">
-        <v>164</v>
+      <c r="B391" s="216"/>
+      <c r="C391" s="210" t="s">
+        <v>160</v>
       </c>
       <c r="D391" s="138"/>
       <c r="E391" s="138"/>
       <c r="F391" s="138"/>
       <c r="G391" s="138"/>
-      <c r="H391" s="215"/>
-      <c r="I391" s="215"/>
-      <c r="J391" s="215"/>
-      <c r="K391" s="215"/>
+      <c r="H391" s="210"/>
+      <c r="I391" s="210"/>
+      <c r="J391" s="210"/>
+      <c r="K391" s="210"/>
       <c r="L391" s="138"/>
       <c r="M391" s="138"/>
       <c r="N391" s="138"/>
@@ -13129,443 +13056,443 @@
       <c r="T391" s="138"/>
     </row>
     <row r="392" spans="2:20">
-      <c r="B392" s="221"/>
-      <c r="C392" s="215"/>
-      <c r="D392" s="215"/>
-      <c r="E392" s="215"/>
-      <c r="F392" s="215"/>
-      <c r="G392" s="215"/>
-      <c r="H392" s="215"/>
-      <c r="I392" s="215"/>
-      <c r="J392" s="215"/>
-      <c r="K392" s="215"/>
-      <c r="L392" s="215"/>
-      <c r="M392" s="215"/>
-      <c r="N392" s="215"/>
-      <c r="O392" s="215"/>
-      <c r="P392" s="215"/>
-      <c r="Q392" s="215"/>
-      <c r="R392" s="215"/>
-      <c r="S392" s="215"/>
-      <c r="T392" s="215"/>
+      <c r="B392" s="216"/>
+      <c r="C392" s="210"/>
+      <c r="D392" s="210"/>
+      <c r="E392" s="210"/>
+      <c r="F392" s="210"/>
+      <c r="G392" s="210"/>
+      <c r="H392" s="210"/>
+      <c r="I392" s="210"/>
+      <c r="J392" s="210"/>
+      <c r="K392" s="210"/>
+      <c r="L392" s="210"/>
+      <c r="M392" s="210"/>
+      <c r="N392" s="210"/>
+      <c r="O392" s="210"/>
+      <c r="P392" s="210"/>
+      <c r="Q392" s="210"/>
+      <c r="R392" s="210"/>
+      <c r="S392" s="210"/>
+      <c r="T392" s="210"/>
     </row>
     <row r="393" spans="2:20" ht="17" thickBot="1">
-      <c r="B393" s="221"/>
-      <c r="C393" s="215"/>
-      <c r="D393" s="215"/>
-      <c r="E393" s="215"/>
-      <c r="F393" s="215"/>
-      <c r="G393" s="215"/>
-      <c r="H393" s="215"/>
-      <c r="I393" s="215"/>
-      <c r="J393" s="215"/>
-      <c r="K393" s="215"/>
-      <c r="L393" s="215"/>
-      <c r="M393" s="215"/>
-      <c r="N393" s="215"/>
-      <c r="O393" s="215"/>
-      <c r="P393" s="215"/>
-      <c r="Q393" s="215"/>
-      <c r="R393" s="215"/>
-      <c r="S393" s="215"/>
-      <c r="T393" s="215"/>
+      <c r="B393" s="216"/>
+      <c r="C393" s="210"/>
+      <c r="D393" s="210"/>
+      <c r="E393" s="210"/>
+      <c r="F393" s="210"/>
+      <c r="G393" s="210"/>
+      <c r="H393" s="210"/>
+      <c r="I393" s="210"/>
+      <c r="J393" s="210"/>
+      <c r="K393" s="210"/>
+      <c r="L393" s="210"/>
+      <c r="M393" s="210"/>
+      <c r="N393" s="210"/>
+      <c r="O393" s="210"/>
+      <c r="P393" s="210"/>
+      <c r="Q393" s="210"/>
+      <c r="R393" s="210"/>
+      <c r="S393" s="210"/>
+      <c r="T393" s="210"/>
     </row>
     <row r="394" spans="2:20">
-      <c r="B394" s="221"/>
-      <c r="C394" s="215"/>
-      <c r="D394" s="215" t="s">
-        <v>165</v>
-      </c>
-      <c r="E394" s="215"/>
-      <c r="F394" s="215"/>
-      <c r="G394" s="215"/>
+      <c r="B394" s="216"/>
+      <c r="C394" s="210"/>
+      <c r="D394" s="210" t="s">
+        <v>161</v>
+      </c>
+      <c r="E394" s="210"/>
+      <c r="F394" s="210"/>
+      <c r="G394" s="210"/>
       <c r="H394" s="128"/>
       <c r="I394" s="128"/>
       <c r="J394" s="128"/>
       <c r="K394" s="128"/>
-      <c r="L394" s="215"/>
-      <c r="M394" s="215"/>
-      <c r="N394" s="215"/>
-      <c r="O394" s="215"/>
-      <c r="P394" s="215"/>
-      <c r="Q394" s="215"/>
-      <c r="R394" s="215"/>
-      <c r="S394" s="215"/>
-      <c r="T394" s="215"/>
+      <c r="L394" s="210"/>
+      <c r="M394" s="210"/>
+      <c r="N394" s="210"/>
+      <c r="O394" s="210"/>
+      <c r="P394" s="210"/>
+      <c r="Q394" s="210"/>
+      <c r="R394" s="210"/>
+      <c r="S394" s="210"/>
+      <c r="T394" s="210"/>
     </row>
     <row r="395" spans="2:20">
-      <c r="B395" s="221"/>
-      <c r="C395" s="215"/>
-      <c r="D395" s="215" t="s">
-        <v>98</v>
-      </c>
-      <c r="E395" s="215"/>
-      <c r="F395" s="215"/>
-      <c r="G395" s="215"/>
+      <c r="B395" s="216"/>
+      <c r="C395" s="210"/>
+      <c r="D395" s="210" t="s">
+        <v>97</v>
+      </c>
+      <c r="E395" s="210"/>
+      <c r="F395" s="210"/>
+      <c r="G395" s="210"/>
       <c r="H395" s="138"/>
       <c r="I395" s="138"/>
       <c r="J395" s="138"/>
       <c r="K395" s="138"/>
-      <c r="L395" s="215"/>
-      <c r="M395" s="215"/>
-      <c r="N395" s="215"/>
-      <c r="O395" s="215"/>
-      <c r="P395" s="215"/>
-      <c r="Q395" s="215"/>
-      <c r="R395" s="215"/>
-      <c r="S395" s="215"/>
-      <c r="T395" s="215"/>
+      <c r="L395" s="210"/>
+      <c r="M395" s="210"/>
+      <c r="N395" s="210"/>
+      <c r="O395" s="210"/>
+      <c r="P395" s="210"/>
+      <c r="Q395" s="210"/>
+      <c r="R395" s="210"/>
+      <c r="S395" s="210"/>
+      <c r="T395" s="210"/>
     </row>
     <row r="396" spans="2:20" ht="17" thickBot="1">
-      <c r="B396" s="221"/>
-      <c r="C396" s="215"/>
-      <c r="D396" s="215"/>
-      <c r="E396" s="215"/>
-      <c r="F396" s="215"/>
-      <c r="G396" s="215"/>
+      <c r="B396" s="216"/>
+      <c r="C396" s="210"/>
+      <c r="D396" s="210"/>
+      <c r="E396" s="210"/>
+      <c r="F396" s="210"/>
+      <c r="G396" s="210"/>
       <c r="H396" s="138"/>
       <c r="I396" s="138"/>
       <c r="J396" s="138"/>
       <c r="K396" s="138"/>
-      <c r="L396" s="215"/>
-      <c r="M396" s="215"/>
-      <c r="N396" s="215"/>
-      <c r="O396" s="215"/>
-      <c r="P396" s="215"/>
-      <c r="Q396" s="215"/>
-      <c r="R396" s="215"/>
-      <c r="S396" s="215"/>
-      <c r="T396" s="215"/>
+      <c r="L396" s="210"/>
+      <c r="M396" s="210"/>
+      <c r="N396" s="210"/>
+      <c r="O396" s="210"/>
+      <c r="P396" s="210"/>
+      <c r="Q396" s="210"/>
+      <c r="R396" s="210"/>
+      <c r="S396" s="210"/>
+      <c r="T396" s="210"/>
     </row>
     <row r="397" spans="2:20" ht="17" thickBot="1">
-      <c r="B397" s="221"/>
-      <c r="C397" s="215"/>
-      <c r="D397" s="215"/>
-      <c r="E397" s="215"/>
+      <c r="B397" s="216"/>
+      <c r="C397" s="210"/>
+      <c r="D397" s="210"/>
+      <c r="E397" s="210"/>
       <c r="F397" s="168">
         <v>0.5</v>
       </c>
-      <c r="G397" s="215" t="s">
-        <v>88</v>
-      </c>
-      <c r="H397" s="215" t="s">
-        <v>166</v>
-      </c>
-      <c r="I397" s="215"/>
-      <c r="J397" s="215"/>
-      <c r="K397" s="215"/>
-      <c r="L397" s="215"/>
-      <c r="M397" s="215"/>
-      <c r="N397" s="215"/>
-      <c r="O397" s="215"/>
-      <c r="P397" s="215"/>
-      <c r="Q397" s="215"/>
-      <c r="R397" s="215"/>
-      <c r="S397" s="215"/>
-      <c r="T397" s="215"/>
+      <c r="G397" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H397" s="210" t="s">
+        <v>162</v>
+      </c>
+      <c r="I397" s="210"/>
+      <c r="J397" s="210"/>
+      <c r="K397" s="210"/>
+      <c r="L397" s="210"/>
+      <c r="M397" s="210"/>
+      <c r="N397" s="210"/>
+      <c r="O397" s="210"/>
+      <c r="P397" s="210"/>
+      <c r="Q397" s="210"/>
+      <c r="R397" s="210"/>
+      <c r="S397" s="210"/>
+      <c r="T397" s="210"/>
     </row>
     <row r="398" spans="2:20">
-      <c r="B398" s="221"/>
-      <c r="C398" s="215"/>
-      <c r="D398" s="215"/>
-      <c r="E398" s="215"/>
-      <c r="F398" s="228">
+      <c r="B398" s="216"/>
+      <c r="C398" s="210"/>
+      <c r="D398" s="210"/>
+      <c r="E398" s="210"/>
+      <c r="F398" s="223">
         <f>F360</f>
         <v>1.2578</v>
       </c>
-      <c r="G398" s="215" t="s">
-        <v>88</v>
-      </c>
-      <c r="H398" s="215" t="s">
-        <v>167</v>
-      </c>
-      <c r="I398" s="215"/>
-      <c r="J398" s="215"/>
-      <c r="K398" s="215"/>
-      <c r="L398" s="215"/>
-      <c r="M398" s="215"/>
-      <c r="N398" s="215"/>
-      <c r="O398" s="215"/>
-      <c r="P398" s="215"/>
-      <c r="Q398" s="215"/>
-      <c r="R398" s="215"/>
-      <c r="S398" s="215"/>
-      <c r="T398" s="215"/>
+      <c r="G398" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H398" s="210" t="s">
+        <v>163</v>
+      </c>
+      <c r="I398" s="210"/>
+      <c r="J398" s="210"/>
+      <c r="K398" s="210"/>
+      <c r="L398" s="210"/>
+      <c r="M398" s="210"/>
+      <c r="N398" s="210"/>
+      <c r="O398" s="210"/>
+      <c r="P398" s="210"/>
+      <c r="Q398" s="210"/>
+      <c r="R398" s="210"/>
+      <c r="S398" s="210"/>
+      <c r="T398" s="210"/>
     </row>
     <row r="399" spans="2:20">
-      <c r="B399" s="221"/>
-      <c r="C399" s="215"/>
-      <c r="D399" s="215"/>
-      <c r="E399" s="215"/>
-      <c r="F399" s="228">
+      <c r="B399" s="216"/>
+      <c r="C399" s="210"/>
+      <c r="D399" s="210"/>
+      <c r="E399" s="210"/>
+      <c r="F399" s="223">
         <f>F397+F398</f>
         <v>1.7578</v>
       </c>
-      <c r="G399" s="215" t="s">
-        <v>88</v>
-      </c>
-      <c r="H399" s="215" t="s">
-        <v>168</v>
-      </c>
-      <c r="I399" s="215"/>
-      <c r="J399" s="215"/>
-      <c r="K399" s="215"/>
-      <c r="L399" s="215"/>
-      <c r="M399" s="215"/>
-      <c r="N399" s="215"/>
-      <c r="O399" s="215"/>
-      <c r="P399" s="215"/>
-      <c r="Q399" s="215"/>
-      <c r="R399" s="215"/>
-      <c r="S399" s="215"/>
-      <c r="T399" s="215"/>
+      <c r="G399" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H399" s="210" t="s">
+        <v>164</v>
+      </c>
+      <c r="I399" s="210"/>
+      <c r="J399" s="210"/>
+      <c r="K399" s="210"/>
+      <c r="L399" s="210"/>
+      <c r="M399" s="210"/>
+      <c r="N399" s="210"/>
+      <c r="O399" s="210"/>
+      <c r="P399" s="210"/>
+      <c r="Q399" s="210"/>
+      <c r="R399" s="210"/>
+      <c r="S399" s="210"/>
+      <c r="T399" s="210"/>
     </row>
     <row r="400" spans="2:20">
-      <c r="B400" s="221"/>
-      <c r="C400" s="215"/>
-      <c r="D400" s="215"/>
-      <c r="E400" s="215"/>
-      <c r="F400" s="215"/>
-      <c r="G400" s="215"/>
-      <c r="H400" s="215"/>
-      <c r="I400" s="215"/>
-      <c r="J400" s="215"/>
-      <c r="K400" s="215"/>
-      <c r="L400" s="215"/>
-      <c r="M400" s="215"/>
-      <c r="N400" s="215"/>
-      <c r="O400" s="215"/>
-      <c r="P400" s="215"/>
-      <c r="Q400" s="215"/>
-      <c r="R400" s="215"/>
-      <c r="S400" s="215"/>
-      <c r="T400" s="215"/>
+      <c r="B400" s="216"/>
+      <c r="C400" s="210"/>
+      <c r="D400" s="210"/>
+      <c r="E400" s="210"/>
+      <c r="F400" s="210"/>
+      <c r="G400" s="210"/>
+      <c r="H400" s="210"/>
+      <c r="I400" s="210"/>
+      <c r="J400" s="210"/>
+      <c r="K400" s="210"/>
+      <c r="L400" s="210"/>
+      <c r="M400" s="210"/>
+      <c r="N400" s="210"/>
+      <c r="O400" s="210"/>
+      <c r="P400" s="210"/>
+      <c r="Q400" s="210"/>
+      <c r="R400" s="210"/>
+      <c r="S400" s="210"/>
+      <c r="T400" s="210"/>
     </row>
     <row r="401" spans="2:20">
-      <c r="B401" s="221"/>
-      <c r="C401" s="215"/>
-      <c r="D401" s="215"/>
-      <c r="E401" s="215"/>
-      <c r="F401" s="215"/>
-      <c r="G401" s="215"/>
-      <c r="H401" s="215"/>
-      <c r="I401" s="215"/>
-      <c r="J401" s="215"/>
-      <c r="K401" s="215"/>
-      <c r="L401" s="215"/>
-      <c r="M401" s="215"/>
-      <c r="N401" s="215"/>
-      <c r="O401" s="215"/>
-      <c r="P401" s="215"/>
-      <c r="Q401" s="215"/>
-      <c r="R401" s="215"/>
-      <c r="S401" s="215"/>
-      <c r="T401" s="215"/>
+      <c r="B401" s="216"/>
+      <c r="C401" s="210"/>
+      <c r="D401" s="210"/>
+      <c r="E401" s="210"/>
+      <c r="F401" s="210"/>
+      <c r="G401" s="210"/>
+      <c r="H401" s="210"/>
+      <c r="I401" s="210"/>
+      <c r="J401" s="210"/>
+      <c r="K401" s="210"/>
+      <c r="L401" s="210"/>
+      <c r="M401" s="210"/>
+      <c r="N401" s="210"/>
+      <c r="O401" s="210"/>
+      <c r="P401" s="210"/>
+      <c r="Q401" s="210"/>
+      <c r="R401" s="210"/>
+      <c r="S401" s="210"/>
+      <c r="T401" s="210"/>
     </row>
     <row r="402" spans="2:20">
-      <c r="B402" s="221"/>
-      <c r="C402" s="215"/>
-      <c r="D402" s="215"/>
-      <c r="E402" s="215"/>
-      <c r="F402" s="228"/>
-      <c r="G402" s="215"/>
-      <c r="H402" s="215"/>
-      <c r="I402" s="215"/>
-      <c r="J402" s="215"/>
-      <c r="K402" s="215"/>
-      <c r="L402" s="215"/>
-      <c r="M402" s="215"/>
-      <c r="N402" s="215"/>
-      <c r="O402" s="215"/>
-      <c r="P402" s="215"/>
-      <c r="Q402" s="215"/>
-      <c r="R402" s="215"/>
-      <c r="S402" s="215"/>
-      <c r="T402" s="215"/>
+      <c r="B402" s="216"/>
+      <c r="C402" s="210"/>
+      <c r="D402" s="210"/>
+      <c r="E402" s="210"/>
+      <c r="F402" s="223"/>
+      <c r="G402" s="210"/>
+      <c r="H402" s="210"/>
+      <c r="I402" s="210"/>
+      <c r="J402" s="210"/>
+      <c r="K402" s="210"/>
+      <c r="L402" s="210"/>
+      <c r="M402" s="210"/>
+      <c r="N402" s="210"/>
+      <c r="O402" s="210"/>
+      <c r="P402" s="210"/>
+      <c r="Q402" s="210"/>
+      <c r="R402" s="210"/>
+      <c r="S402" s="210"/>
+      <c r="T402" s="210"/>
     </row>
     <row r="403" spans="2:20">
-      <c r="B403" s="221"/>
-      <c r="C403" s="215"/>
-      <c r="D403" s="215"/>
-      <c r="E403" s="215"/>
-      <c r="F403" s="234"/>
-      <c r="G403" s="215"/>
-      <c r="H403" s="215"/>
-      <c r="I403" s="215"/>
-      <c r="J403" s="215"/>
-      <c r="K403" s="215"/>
-      <c r="L403" s="215"/>
-      <c r="M403" s="215"/>
-      <c r="N403" s="215"/>
-      <c r="O403" s="215"/>
-      <c r="P403" s="215"/>
-      <c r="Q403" s="215"/>
-      <c r="R403" s="215"/>
-      <c r="S403" s="215"/>
-      <c r="T403" s="215"/>
+      <c r="B403" s="216"/>
+      <c r="C403" s="210"/>
+      <c r="D403" s="210"/>
+      <c r="E403" s="210"/>
+      <c r="F403" s="229"/>
+      <c r="G403" s="210"/>
+      <c r="H403" s="210"/>
+      <c r="I403" s="210"/>
+      <c r="J403" s="210"/>
+      <c r="K403" s="210"/>
+      <c r="L403" s="210"/>
+      <c r="M403" s="210"/>
+      <c r="N403" s="210"/>
+      <c r="O403" s="210"/>
+      <c r="P403" s="210"/>
+      <c r="Q403" s="210"/>
+      <c r="R403" s="210"/>
+      <c r="S403" s="210"/>
+      <c r="T403" s="210"/>
     </row>
     <row r="404" spans="2:20">
-      <c r="B404" s="221"/>
-      <c r="C404" s="215"/>
-      <c r="D404" s="215"/>
-      <c r="E404" s="215"/>
-      <c r="F404" s="215"/>
-      <c r="G404" s="215"/>
-      <c r="I404" s="215"/>
-      <c r="J404" s="215"/>
-      <c r="K404" s="215"/>
-      <c r="L404" s="215"/>
-      <c r="M404" s="215"/>
-      <c r="N404" s="215"/>
-      <c r="O404" s="215"/>
-      <c r="P404" s="215"/>
-      <c r="Q404" s="215"/>
-      <c r="R404" s="215"/>
-      <c r="S404" s="215"/>
-      <c r="T404" s="215"/>
+      <c r="B404" s="216"/>
+      <c r="C404" s="210"/>
+      <c r="D404" s="210"/>
+      <c r="E404" s="210"/>
+      <c r="F404" s="210"/>
+      <c r="G404" s="210"/>
+      <c r="I404" s="210"/>
+      <c r="J404" s="210"/>
+      <c r="K404" s="210"/>
+      <c r="L404" s="210"/>
+      <c r="M404" s="210"/>
+      <c r="N404" s="210"/>
+      <c r="O404" s="210"/>
+      <c r="P404" s="210"/>
+      <c r="Q404" s="210"/>
+      <c r="R404" s="210"/>
+      <c r="S404" s="210"/>
+      <c r="T404" s="210"/>
     </row>
     <row r="405" spans="2:20">
-      <c r="B405" s="221"/>
-      <c r="C405" s="215"/>
-      <c r="D405" s="215"/>
-      <c r="E405" s="215"/>
-      <c r="F405" s="215"/>
-      <c r="G405" s="215"/>
-      <c r="I405" s="215"/>
-      <c r="J405" s="215"/>
-      <c r="K405" s="215"/>
-      <c r="L405" s="215"/>
-      <c r="M405" s="215"/>
-      <c r="N405" s="215"/>
-      <c r="O405" s="215"/>
-      <c r="P405" s="215"/>
-      <c r="Q405" s="215"/>
-      <c r="R405" s="215"/>
-      <c r="S405" s="215"/>
-      <c r="T405" s="215"/>
+      <c r="B405" s="216"/>
+      <c r="C405" s="210"/>
+      <c r="D405" s="210"/>
+      <c r="E405" s="210"/>
+      <c r="F405" s="210"/>
+      <c r="G405" s="210"/>
+      <c r="I405" s="210"/>
+      <c r="J405" s="210"/>
+      <c r="K405" s="210"/>
+      <c r="L405" s="210"/>
+      <c r="M405" s="210"/>
+      <c r="N405" s="210"/>
+      <c r="O405" s="210"/>
+      <c r="P405" s="210"/>
+      <c r="Q405" s="210"/>
+      <c r="R405" s="210"/>
+      <c r="S405" s="210"/>
+      <c r="T405" s="210"/>
     </row>
     <row r="406" spans="2:20">
-      <c r="B406" s="221"/>
-      <c r="C406" s="215"/>
-      <c r="D406" s="215"/>
-      <c r="E406" s="215"/>
-      <c r="F406" s="215"/>
-      <c r="G406" s="215"/>
-      <c r="I406" s="215"/>
-      <c r="J406" s="215"/>
-      <c r="K406" s="215"/>
-      <c r="L406" s="215"/>
-      <c r="M406" s="215"/>
-      <c r="N406" s="215"/>
-      <c r="O406" s="215"/>
-      <c r="P406" s="215"/>
-      <c r="Q406" s="215"/>
-      <c r="R406" s="215"/>
-      <c r="S406" s="215"/>
-      <c r="T406" s="215"/>
+      <c r="B406" s="216"/>
+      <c r="C406" s="210"/>
+      <c r="D406" s="210"/>
+      <c r="E406" s="210"/>
+      <c r="F406" s="210"/>
+      <c r="G406" s="210"/>
+      <c r="I406" s="210"/>
+      <c r="J406" s="210"/>
+      <c r="K406" s="210"/>
+      <c r="L406" s="210"/>
+      <c r="M406" s="210"/>
+      <c r="N406" s="210"/>
+      <c r="O406" s="210"/>
+      <c r="P406" s="210"/>
+      <c r="Q406" s="210"/>
+      <c r="R406" s="210"/>
+      <c r="S406" s="210"/>
+      <c r="T406" s="210"/>
     </row>
     <row r="407" spans="2:20">
-      <c r="B407" s="221"/>
-      <c r="C407" s="215"/>
-      <c r="D407" s="215"/>
-      <c r="E407" s="215"/>
-      <c r="F407" s="215"/>
-      <c r="G407" s="215"/>
-      <c r="I407" s="215"/>
-      <c r="J407" s="215"/>
-      <c r="K407" s="215"/>
-      <c r="L407" s="215"/>
-      <c r="M407" s="215"/>
-      <c r="N407" s="215"/>
-      <c r="O407" s="215"/>
-      <c r="P407" s="215"/>
-      <c r="Q407" s="215"/>
-      <c r="R407" s="215"/>
-      <c r="S407" s="215"/>
-      <c r="T407" s="215"/>
+      <c r="B407" s="216"/>
+      <c r="C407" s="210"/>
+      <c r="D407" s="210"/>
+      <c r="E407" s="210"/>
+      <c r="F407" s="210"/>
+      <c r="G407" s="210"/>
+      <c r="I407" s="210"/>
+      <c r="J407" s="210"/>
+      <c r="K407" s="210"/>
+      <c r="L407" s="210"/>
+      <c r="M407" s="210"/>
+      <c r="N407" s="210"/>
+      <c r="O407" s="210"/>
+      <c r="P407" s="210"/>
+      <c r="Q407" s="210"/>
+      <c r="R407" s="210"/>
+      <c r="S407" s="210"/>
+      <c r="T407" s="210"/>
     </row>
     <row r="408" spans="2:20">
-      <c r="B408" s="221"/>
-      <c r="C408" s="215"/>
-      <c r="D408" s="215"/>
-      <c r="E408" s="215"/>
-      <c r="F408" s="229">
+      <c r="B408" s="216"/>
+      <c r="C408" s="210"/>
+      <c r="D408" s="210"/>
+      <c r="E408" s="210"/>
+      <c r="F408" s="224">
         <f>F399/(1+F363)-F364</f>
         <v>0.95880914049586796</v>
       </c>
-      <c r="G408" s="215" t="s">
-        <v>88</v>
-      </c>
-      <c r="H408" s="215" t="s">
-        <v>169</v>
-      </c>
-      <c r="I408" s="215"/>
-      <c r="J408" s="215"/>
-      <c r="K408" s="215"/>
-      <c r="L408" s="215"/>
-      <c r="M408" s="215"/>
-      <c r="N408" s="215"/>
-      <c r="O408" s="215"/>
-      <c r="P408" s="215"/>
-      <c r="Q408" s="215"/>
-      <c r="R408" s="215"/>
-      <c r="S408" s="215"/>
-      <c r="T408" s="215"/>
+      <c r="G408" s="210" t="s">
+        <v>87</v>
+      </c>
+      <c r="H408" s="210" t="s">
+        <v>165</v>
+      </c>
+      <c r="I408" s="210"/>
+      <c r="J408" s="210"/>
+      <c r="K408" s="210"/>
+      <c r="L408" s="210"/>
+      <c r="M408" s="210"/>
+      <c r="N408" s="210"/>
+      <c r="O408" s="210"/>
+      <c r="P408" s="210"/>
+      <c r="Q408" s="210"/>
+      <c r="R408" s="210"/>
+      <c r="S408" s="210"/>
+      <c r="T408" s="210"/>
     </row>
     <row r="409" spans="2:20">
-      <c r="B409" s="221"/>
-      <c r="C409" s="215"/>
-      <c r="D409" s="215"/>
-      <c r="E409" s="215"/>
-      <c r="F409" s="230">
+      <c r="B409" s="216"/>
+      <c r="C409" s="210"/>
+      <c r="D409" s="210"/>
+      <c r="E409" s="210"/>
+      <c r="F409" s="225">
         <f>F408/F13</f>
         <v>2.7637281163587279E-2</v>
       </c>
-      <c r="G409" s="215" t="s">
-        <v>58</v>
-      </c>
-      <c r="H409" s="215"/>
-      <c r="I409" s="215"/>
-      <c r="J409" s="215"/>
-      <c r="K409" s="215"/>
-      <c r="L409" s="215"/>
-      <c r="M409" s="215"/>
-      <c r="N409" s="215"/>
-      <c r="O409" s="215"/>
-      <c r="P409" s="215"/>
-      <c r="Q409" s="215"/>
-      <c r="R409" s="215"/>
-      <c r="S409" s="215"/>
-      <c r="T409" s="215"/>
+      <c r="G409" s="210" t="s">
+        <v>57</v>
+      </c>
+      <c r="H409" s="210"/>
+      <c r="I409" s="210"/>
+      <c r="J409" s="210"/>
+      <c r="K409" s="210"/>
+      <c r="L409" s="210"/>
+      <c r="M409" s="210"/>
+      <c r="N409" s="210"/>
+      <c r="O409" s="210"/>
+      <c r="P409" s="210"/>
+      <c r="Q409" s="210"/>
+      <c r="R409" s="210"/>
+      <c r="S409" s="210"/>
+      <c r="T409" s="210"/>
     </row>
     <row r="410" spans="2:20">
-      <c r="H410" s="215"/>
-      <c r="I410" s="215"/>
-      <c r="J410" s="215"/>
-      <c r="K410" s="215"/>
+      <c r="H410" s="210"/>
+      <c r="I410" s="210"/>
+      <c r="J410" s="210"/>
+      <c r="K410" s="210"/>
     </row>
     <row r="411" spans="2:20">
-      <c r="H411" s="215"/>
-      <c r="I411" s="215"/>
-      <c r="J411" s="215"/>
-      <c r="K411" s="215"/>
+      <c r="H411" s="210"/>
+      <c r="I411" s="210"/>
+      <c r="J411" s="210"/>
+      <c r="K411" s="210"/>
     </row>
     <row r="412" spans="2:20">
-      <c r="H412" s="215"/>
-      <c r="I412" s="215"/>
-      <c r="J412" s="215"/>
-      <c r="K412" s="215"/>
+      <c r="H412" s="210"/>
+      <c r="I412" s="210"/>
+      <c r="J412" s="210"/>
+      <c r="K412" s="210"/>
     </row>
     <row r="413" spans="2:20">
-      <c r="I413" s="215"/>
-      <c r="J413" s="215"/>
-      <c r="K413" s="215"/>
+      <c r="I413" s="210"/>
+      <c r="J413" s="210"/>
+      <c r="K413" s="210"/>
     </row>
     <row r="414" spans="2:20">
-      <c r="H414" s="215"/>
-      <c r="I414" s="215"/>
-      <c r="J414" s="215"/>
-      <c r="K414" s="215"/>
+      <c r="H414" s="210"/>
+      <c r="I414" s="210"/>
+      <c r="J414" s="210"/>
+      <c r="K414" s="210"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13590,17 +13517,17 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" customHeight="1">
-      <c r="A4" s="216" t="s">
-        <v>133</v>
+      <c r="A4" s="211" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
